--- a/assets/results/QuantitativeEvaluationResults.xlsx
+++ b/assets/results/QuantitativeEvaluationResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/AnonGithub/anonymousResearcher24.github.io/assets/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2E8F6E-60D8-F14C-B72C-133236981962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1376A21A-9A9A-304E-B10D-D6E6483F9B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15240" yWindow="760" windowWidth="15000" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reduction Rate" sheetId="4" r:id="rId1"/>
@@ -568,18 +568,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9FCA10-753F-1D40-984B-130B391CDB1A}">
-  <dimension ref="A1:U297"/>
+  <dimension ref="A1:U298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T251" sqref="L251:T251"/>
+    <sheetView tabSelected="1" topLeftCell="I266" workbookViewId="0">
+      <selection activeCell="S298" sqref="S298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125"/>
-    <col min="5" max="10" width="8.83203125" customWidth="1"/>
+    <col min="4" max="8" width="8.83203125"/>
+    <col min="9" max="10" width="8.83203125" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" style="18" customWidth="1"/>
     <col min="12" max="13" width="9.6640625" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" customWidth="1"/>
@@ -6563,28 +6563,28 @@
         <v>97025</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" ref="D90:D120" si="27">(B90-C90)/B90</f>
+        <f t="shared" ref="D90:D121" si="27">(B90-C90)/B90</f>
         <v>0.38527186791185675</v>
       </c>
       <c r="E90">
         <v>5296</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" ref="F90:F120" si="28">(B90-E90)/B90</f>
+        <f t="shared" ref="F90:F121" si="28">(B90-E90)/B90</f>
         <v>0.96644575946880895</v>
       </c>
       <c r="G90">
         <v>117</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" ref="H90:H120" si="29">(B90-G90)/B90</f>
+        <f t="shared" ref="H90:H121" si="29">(B90-G90)/B90</f>
         <v>0.99925871485231321</v>
       </c>
       <c r="I90">
         <v>1280</v>
       </c>
       <c r="J90" s="4">
-        <f t="shared" ref="J90:J120" si="30">(B90-I90)/B90</f>
+        <f t="shared" ref="J90:J121" si="30">(B90-I90)/B90</f>
         <v>0.99189021376889641</v>
       </c>
       <c r="L90">
@@ -10861,28 +10861,28 @@
         <v>60</v>
       </c>
       <c r="D154" s="4">
-        <f t="shared" ref="D154:D170" si="45">(B154-C154)/B154</f>
+        <f t="shared" ref="D154:D185" si="45">(B154-C154)/B154</f>
         <v>0.67213114754098358</v>
       </c>
       <c r="E154">
         <v>20</v>
       </c>
       <c r="F154" s="4">
-        <f t="shared" ref="F154:F170" si="46">(B154-E154)/B154</f>
+        <f t="shared" ref="F154:F185" si="46">(B154-E154)/B154</f>
         <v>0.89071038251366119</v>
       </c>
       <c r="G154">
         <v>19</v>
       </c>
       <c r="H154" s="4">
-        <f t="shared" ref="H154:H170" si="47">(B154-G154)/B154</f>
+        <f t="shared" ref="H154:H185" si="47">(B154-G154)/B154</f>
         <v>0.89617486338797814</v>
       </c>
       <c r="I154">
         <v>38</v>
       </c>
       <c r="J154" s="4">
-        <f t="shared" ref="J154:J170" si="48">(B154-I154)/B154</f>
+        <f t="shared" ref="J154:J185" si="48">(B154-I154)/B154</f>
         <v>0.79234972677595628</v>
       </c>
       <c r="L154" s="8">
@@ -14221,28 +14221,28 @@
         <v>5760</v>
       </c>
       <c r="D204" s="4">
-        <f t="shared" ref="D204:D234" si="63">(B204-C204)/B204</f>
+        <f t="shared" ref="D204:D235" si="63">(B204-C204)/B204</f>
         <v>0.3303882817949314</v>
       </c>
       <c r="E204">
         <v>2</v>
       </c>
       <c r="F204" s="4">
-        <f t="shared" ref="F204:F234" si="64">(B204-E204)/B204</f>
+        <f t="shared" ref="F204:F235" si="64">(B204-E204)/B204</f>
         <v>0.99976749593117875</v>
       </c>
       <c r="G204">
         <v>1</v>
       </c>
       <c r="H204" s="4">
-        <f t="shared" ref="H204:H234" si="65">(B204-G204)/B204</f>
+        <f t="shared" ref="H204:H235" si="65">(B204-G204)/B204</f>
         <v>0.99988374796558943</v>
       </c>
       <c r="I204">
         <v>7</v>
       </c>
       <c r="J204" s="4">
-        <f t="shared" ref="J204:J234" si="66">(B204-I204)/B204</f>
+        <f t="shared" ref="J204:J235" si="66">(B204-I204)/B204</f>
         <v>0.9991862357591258</v>
       </c>
       <c r="L204">
@@ -20512,6 +20512,9 @@
       <c r="I297" s="17"/>
       <c r="J297" s="5"/>
     </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S298" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20521,9 +20524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V296"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N302" sqref="N302"/>
+    <sheetView topLeftCell="K1" zoomScale="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/assets/results/QuantitativeEvaluationResults.xlsx
+++ b/assets/results/QuantitativeEvaluationResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/AnonGithub/anonymousResearcher24.github.io/assets/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C0AED4-2BA6-424C-8F10-0DE5A7A27577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3957BF-14FA-324D-BC8B-7A6C1B9D1164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1-Reduction Rate" sheetId="4" r:id="rId1"/>
@@ -41,22 +41,10 @@
     <t>Old Trace</t>
   </si>
   <si>
-    <t>Old Sync Slice</t>
-  </si>
-  <si>
     <t>New Trace</t>
   </si>
   <si>
-    <t>New Sync Slice</t>
-  </si>
-  <si>
-    <t>Old Dual</t>
-  </si>
-  <si>
     <t>Old InPreSS</t>
-  </si>
-  <si>
-    <t>New Dual</t>
   </si>
   <si>
     <t>New InPreSS</t>
@@ -68,22 +56,13 @@
     <t>New CoReX</t>
   </si>
   <si>
-    <t>Dual Reduc.</t>
-  </si>
-  <si>
     <t>InPreSS Reduc.</t>
   </si>
   <si>
     <t>Avg</t>
   </si>
   <si>
-    <t>Old Sync Reduc.</t>
-  </si>
-  <si>
     <t>Old CoReX Reduc.</t>
-  </si>
-  <si>
-    <t>New Sync Reduc.</t>
   </si>
   <si>
     <t>New CoReX Reduc.</t>
@@ -147,6 +126,27 @@
   </si>
   <si>
     <t>CoReX Summarization</t>
+  </si>
+  <si>
+    <t>Old Sync.Slice</t>
+  </si>
+  <si>
+    <t>Old Sync. Reduc.</t>
+  </si>
+  <si>
+    <t>Old DualSlice</t>
+  </si>
+  <si>
+    <t>DualSlice Reduc.</t>
+  </si>
+  <si>
+    <t>New DualSlice</t>
+  </si>
+  <si>
+    <t>New Sync. Reduc.</t>
+  </si>
+  <si>
+    <t>New Sync.Slice</t>
   </si>
 </sst>
 </file>
@@ -311,6 +311,16 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,16 +333,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="2" builtinId="20"/>
@@ -651,23 +651,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9FCA10-753F-1D40-984B-130B391CDB1A}">
   <dimension ref="A1:AL299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="13" width="8.83203125" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="23"/>
+    <col min="14" max="14" width="8.83203125" style="29"/>
     <col min="15" max="17" width="8.83203125"/>
     <col min="19" max="19" width="8.83203125"/>
     <col min="21" max="25" width="8.83203125"/>
-    <col min="26" max="26" width="10.83203125" style="23"/>
+    <col min="26" max="26" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -676,74 +676,74 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="26"/>
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="X1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="26"/>
+    </row>
+    <row r="2" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="20"/>
-    </row>
-    <row r="2" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>23</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -786,7 +786,7 @@
         <f>($C2-L2)/$C2</f>
         <v>0.99269776876267746</v>
       </c>
-      <c r="N2" s="21"/>
+      <c r="N2" s="27"/>
       <c r="O2">
         <v>1992</v>
       </c>
@@ -825,10 +825,10 @@
         <f>($O2-X2)/$O2</f>
         <v>0.99196787148594379</v>
       </c>
-      <c r="Z2" s="21"/>
+      <c r="Z2" s="27"/>
     </row>
     <row r="3" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -870,7 +870,7 @@
         <f t="shared" ref="M3:M25" si="6">($C3-L3)/$C3</f>
         <v>0.98404907975460121</v>
       </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="27"/>
       <c r="O3">
         <v>192</v>
       </c>
@@ -909,10 +909,10 @@
         <f t="shared" ref="Y3:Y25" si="9">($O3-X3)/$O3</f>
         <v>0.96875</v>
       </c>
-      <c r="Z3" s="21"/>
+      <c r="Z3" s="27"/>
     </row>
     <row r="4" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4">
         <v>3</v>
       </c>
@@ -954,7 +954,7 @@
         <f t="shared" si="6"/>
         <v>0.99456310679611648</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="27"/>
       <c r="O4">
         <v>2350</v>
       </c>
@@ -993,10 +993,10 @@
         <f t="shared" si="9"/>
         <v>0.99446808510638296</v>
       </c>
-      <c r="Z4" s="21"/>
+      <c r="Z4" s="27"/>
     </row>
     <row r="5" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5">
         <v>5</v>
       </c>
@@ -1038,7 +1038,7 @@
         <f t="shared" si="6"/>
         <v>0.96835443037974689</v>
       </c>
-      <c r="N5" s="21"/>
+      <c r="N5" s="27"/>
       <c r="O5">
         <v>96</v>
       </c>
@@ -1077,10 +1077,10 @@
         <f t="shared" si="9"/>
         <v>0.88541666666666663</v>
       </c>
-      <c r="Z5" s="21"/>
+      <c r="Z5" s="27"/>
     </row>
     <row r="6" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6">
         <v>6</v>
       </c>
@@ -1122,7 +1122,7 @@
         <f t="shared" si="6"/>
         <v>0.90504451038575673</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="27"/>
       <c r="O6">
         <v>357</v>
       </c>
@@ -1161,10 +1161,10 @@
         <f t="shared" si="9"/>
         <v>0.96358543417366949</v>
       </c>
-      <c r="Z6" s="21"/>
+      <c r="Z6" s="27"/>
     </row>
     <row r="7" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7">
         <v>7</v>
       </c>
@@ -1206,7 +1206,7 @@
         <f t="shared" si="6"/>
         <v>0.98236775818639799</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="27"/>
       <c r="O7">
         <v>191</v>
       </c>
@@ -1245,10 +1245,10 @@
         <f t="shared" si="9"/>
         <v>0.96858638743455494</v>
       </c>
-      <c r="Z7" s="21"/>
+      <c r="Z7" s="27"/>
     </row>
     <row r="8" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8">
         <v>8</v>
       </c>
@@ -1290,7 +1290,7 @@
         <f t="shared" si="6"/>
         <v>0.98722044728434499</v>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="27"/>
       <c r="O8">
         <v>263</v>
       </c>
@@ -1329,10 +1329,10 @@
         <f t="shared" si="9"/>
         <v>0.98479087452471481</v>
       </c>
-      <c r="Z8" s="21"/>
+      <c r="Z8" s="27"/>
     </row>
     <row r="9" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9">
         <v>9</v>
       </c>
@@ -1374,7 +1374,7 @@
         <f t="shared" si="6"/>
         <v>0.9974120082815735</v>
       </c>
-      <c r="N9" s="21"/>
+      <c r="N9" s="27"/>
       <c r="O9">
         <v>1923</v>
       </c>
@@ -1413,10 +1413,10 @@
         <f t="shared" si="9"/>
         <v>0.99739989599583978</v>
       </c>
-      <c r="Z9" s="21"/>
+      <c r="Z9" s="27"/>
     </row>
     <row r="10" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10">
         <v>10</v>
       </c>
@@ -1458,7 +1458,7 @@
         <f t="shared" si="6"/>
         <v>0.96410256410256412</v>
       </c>
-      <c r="N10" s="21"/>
+      <c r="N10" s="27"/>
       <c r="O10">
         <v>10</v>
       </c>
@@ -1497,10 +1497,10 @@
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="Z10" s="21"/>
+      <c r="Z10" s="27"/>
     </row>
     <row r="11" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11">
         <v>11</v>
       </c>
@@ -1542,7 +1542,7 @@
         <f t="shared" si="6"/>
         <v>0.97938144329896903</v>
       </c>
-      <c r="N11" s="21"/>
+      <c r="N11" s="27"/>
       <c r="O11">
         <v>143</v>
       </c>
@@ -1581,10 +1581,10 @@
         <f t="shared" si="9"/>
         <v>0.95804195804195802</v>
       </c>
-      <c r="Z11" s="21"/>
+      <c r="Z11" s="27"/>
     </row>
     <row r="12" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12">
         <v>12</v>
       </c>
@@ -1626,7 +1626,7 @@
         <f t="shared" si="6"/>
         <v>0.99223034734917737</v>
       </c>
-      <c r="N12" s="21"/>
+      <c r="N12" s="27"/>
       <c r="O12">
         <v>2103</v>
       </c>
@@ -1665,10 +1665,10 @@
         <f t="shared" si="9"/>
         <v>0.99334284355682356</v>
       </c>
-      <c r="Z12" s="21"/>
+      <c r="Z12" s="27"/>
     </row>
     <row r="13" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13">
         <v>14</v>
       </c>
@@ -1710,7 +1710,7 @@
         <f t="shared" si="6"/>
         <v>0.82122905027932958</v>
       </c>
-      <c r="N13" s="21"/>
+      <c r="N13" s="27"/>
       <c r="O13">
         <v>143</v>
       </c>
@@ -1749,10 +1749,10 @@
         <f t="shared" si="9"/>
         <v>0.965034965034965</v>
       </c>
-      <c r="Z13" s="21"/>
+      <c r="Z13" s="27"/>
     </row>
     <row r="14" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14">
         <v>15</v>
       </c>
@@ -1794,7 +1794,7 @@
         <f t="shared" si="6"/>
         <v>0.99773022049286642</v>
       </c>
-      <c r="N14" s="21"/>
+      <c r="N14" s="27"/>
       <c r="O14">
         <v>2987</v>
       </c>
@@ -1833,10 +1833,10 @@
         <f t="shared" si="9"/>
         <v>0.99799129561432876</v>
       </c>
-      <c r="Z14" s="21"/>
+      <c r="Z14" s="27"/>
     </row>
     <row r="15" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15">
         <v>17</v>
       </c>
@@ -1878,7 +1878,7 @@
         <f t="shared" si="6"/>
         <v>0.99314641744548282</v>
       </c>
-      <c r="N15" s="21"/>
+      <c r="N15" s="27"/>
       <c r="O15">
         <v>1341</v>
       </c>
@@ -1917,10 +1917,10 @@
         <f t="shared" si="9"/>
         <v>0.99179716629381054</v>
       </c>
-      <c r="Z15" s="21"/>
+      <c r="Z15" s="27"/>
     </row>
     <row r="16" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16">
         <v>18</v>
       </c>
@@ -1962,7 +1962,7 @@
         <f t="shared" si="6"/>
         <v>0.98168498168498164</v>
       </c>
-      <c r="N16" s="21"/>
+      <c r="N16" s="27"/>
       <c r="O16">
         <v>212</v>
       </c>
@@ -2001,10 +2001,10 @@
         <f t="shared" si="9"/>
         <v>0.97169811320754718</v>
       </c>
-      <c r="Z16" s="21"/>
+      <c r="Z16" s="27"/>
     </row>
     <row r="17" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="25"/>
       <c r="B17">
         <v>19</v>
       </c>
@@ -2046,7 +2046,7 @@
         <f t="shared" si="6"/>
         <v>0.99965351680443504</v>
       </c>
-      <c r="N17" s="21"/>
+      <c r="N17" s="27"/>
       <c r="O17">
         <v>40415</v>
       </c>
@@ -2085,10 +2085,10 @@
         <f t="shared" si="9"/>
         <v>0.99980205369293584</v>
       </c>
-      <c r="Z17" s="21"/>
+      <c r="Z17" s="27"/>
     </row>
     <row r="18" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
+      <c r="A18" s="25"/>
       <c r="B18">
         <v>20</v>
       </c>
@@ -2130,7 +2130,7 @@
         <f t="shared" si="6"/>
         <v>0.9678899082568807</v>
       </c>
-      <c r="N18" s="21"/>
+      <c r="N18" s="27"/>
       <c r="O18">
         <v>211</v>
       </c>
@@ -2169,10 +2169,10 @@
         <f t="shared" si="9"/>
         <v>0.96682464454976302</v>
       </c>
-      <c r="Z18" s="21"/>
+      <c r="Z18" s="27"/>
     </row>
     <row r="19" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="25"/>
       <c r="B19">
         <v>21</v>
       </c>
@@ -2214,7 +2214,7 @@
         <f t="shared" si="6"/>
         <v>0.88815789473684215</v>
       </c>
-      <c r="N19" s="21"/>
+      <c r="N19" s="27"/>
       <c r="O19">
         <v>553</v>
       </c>
@@ -2253,10 +2253,10 @@
         <f t="shared" si="9"/>
         <v>0.96925858951175403</v>
       </c>
-      <c r="Z19" s="21"/>
+      <c r="Z19" s="27"/>
     </row>
     <row r="20" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="25"/>
       <c r="B20">
         <v>22</v>
       </c>
@@ -2298,7 +2298,7 @@
         <f t="shared" si="6"/>
         <v>0.93401015228426398</v>
       </c>
-      <c r="N20" s="21"/>
+      <c r="N20" s="27"/>
       <c r="O20">
         <v>105</v>
       </c>
@@ -2337,10 +2337,10 @@
         <f t="shared" si="9"/>
         <v>0.97142857142857142</v>
       </c>
-      <c r="Z20" s="21"/>
+      <c r="Z20" s="27"/>
     </row>
     <row r="21" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="25"/>
       <c r="B21">
         <v>23</v>
       </c>
@@ -2382,7 +2382,7 @@
         <f t="shared" si="6"/>
         <v>0.99228964130070396</v>
       </c>
-      <c r="N21" s="21"/>
+      <c r="N21" s="27"/>
       <c r="O21">
         <v>1913</v>
       </c>
@@ -2421,10 +2421,10 @@
         <f t="shared" si="9"/>
         <v>0.98327234709879774</v>
       </c>
-      <c r="Z21" s="21"/>
+      <c r="Z21" s="27"/>
     </row>
     <row r="22" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="25"/>
       <c r="B22">
         <v>24</v>
       </c>
@@ -2466,7 +2466,7 @@
         <f t="shared" si="6"/>
         <v>0.99689054726368154</v>
       </c>
-      <c r="N22" s="21"/>
+      <c r="N22" s="27"/>
       <c r="O22">
         <v>26942</v>
       </c>
@@ -2505,10 +2505,10 @@
         <f t="shared" si="9"/>
         <v>0.99703065845148842</v>
       </c>
-      <c r="Z22" s="21"/>
+      <c r="Z22" s="27"/>
     </row>
     <row r="23" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="25"/>
       <c r="B23">
         <v>25</v>
       </c>
@@ -2550,7 +2550,7 @@
         <f t="shared" si="6"/>
         <v>0.99743754003843688</v>
       </c>
-      <c r="N23" s="21"/>
+      <c r="N23" s="27"/>
       <c r="O23">
         <v>27729</v>
       </c>
@@ -2589,10 +2589,10 @@
         <f t="shared" si="9"/>
         <v>0.99758375707742797</v>
       </c>
-      <c r="Z23" s="21"/>
+      <c r="Z23" s="27"/>
     </row>
     <row r="24" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
+      <c r="A24" s="25"/>
       <c r="B24">
         <v>26</v>
       </c>
@@ -2634,7 +2634,7 @@
         <f t="shared" si="6"/>
         <v>0.99938143418901604</v>
       </c>
-      <c r="N24" s="21"/>
+      <c r="N24" s="27"/>
       <c r="O24">
         <v>19974</v>
       </c>
@@ -2673,12 +2673,12 @@
         <f t="shared" si="9"/>
         <v>0.99934915390007006</v>
       </c>
-      <c r="Z24" s="21"/>
+      <c r="Z24" s="27"/>
     </row>
     <row r="25" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C24)</f>
@@ -2724,7 +2724,7 @@
         <f t="shared" si="6"/>
         <v>0.99640290342189008</v>
       </c>
-      <c r="N25" s="21"/>
+      <c r="N25" s="27"/>
       <c r="O25" s="8">
         <f t="shared" si="10"/>
         <v>5745.434782608696</v>
@@ -2769,11 +2769,11 @@
         <f t="shared" si="9"/>
         <v>0.99732869196715723</v>
       </c>
-      <c r="Z25" s="21"/>
+      <c r="Z25" s="27"/>
     </row>
     <row r="26" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>24</v>
+      <c r="A26" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2816,7 +2816,7 @@
         <f t="shared" ref="M26:M89" si="14">($C26-L26)/$C26</f>
         <v>0.9939393939393939</v>
       </c>
-      <c r="N26" s="21"/>
+      <c r="N26" s="27"/>
       <c r="O26">
         <v>79</v>
       </c>
@@ -2855,10 +2855,10 @@
         <f t="shared" ref="Y26:Y89" si="18">($O26-X26)/$O26</f>
         <v>0.96202531645569622</v>
       </c>
-      <c r="Z26" s="21"/>
+      <c r="Z26" s="27"/>
     </row>
     <row r="27" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
+      <c r="A27" s="25"/>
       <c r="B27">
         <v>2</v>
       </c>
@@ -2900,7 +2900,7 @@
         <f t="shared" si="14"/>
         <v>0.99701779867133045</v>
       </c>
-      <c r="N27" s="21"/>
+      <c r="N27" s="27"/>
       <c r="O27">
         <v>116465</v>
       </c>
@@ -2939,10 +2939,10 @@
         <f t="shared" si="18"/>
         <v>0.99692611514188811</v>
       </c>
-      <c r="Z27" s="21"/>
+      <c r="Z27" s="27"/>
     </row>
     <row r="28" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
+      <c r="A28" s="25"/>
       <c r="B28">
         <v>4</v>
       </c>
@@ -2984,7 +2984,7 @@
         <f t="shared" si="14"/>
         <v>0.99683010618363521</v>
       </c>
-      <c r="N28" s="21"/>
+      <c r="N28" s="27"/>
       <c r="O28">
         <v>128492</v>
       </c>
@@ -3023,10 +3023,10 @@
         <f t="shared" si="18"/>
         <v>0.99651340161255175</v>
       </c>
-      <c r="Z28" s="21"/>
+      <c r="Z28" s="27"/>
     </row>
     <row r="29" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
+      <c r="A29" s="25"/>
       <c r="B29">
         <v>5</v>
       </c>
@@ -3068,7 +3068,7 @@
         <f t="shared" si="14"/>
         <v>0.99461947658024297</v>
       </c>
-      <c r="N29" s="21"/>
+      <c r="N29" s="27"/>
       <c r="O29">
         <v>115873</v>
       </c>
@@ -3107,10 +3107,10 @@
         <f t="shared" si="18"/>
         <v>0.99000630000086298</v>
       </c>
-      <c r="Z29" s="21"/>
+      <c r="Z29" s="27"/>
     </row>
     <row r="30" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
+      <c r="A30" s="25"/>
       <c r="B30">
         <v>6</v>
       </c>
@@ -3152,7 +3152,7 @@
         <f t="shared" si="14"/>
         <v>0.99869700218090418</v>
       </c>
-      <c r="N30" s="21"/>
+      <c r="N30" s="27"/>
       <c r="O30">
         <v>107835</v>
       </c>
@@ -3191,10 +3191,10 @@
         <f t="shared" si="18"/>
         <v>0.99880372791765193</v>
       </c>
-      <c r="Z30" s="21"/>
+      <c r="Z30" s="27"/>
     </row>
     <row r="31" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
+      <c r="A31" s="25"/>
       <c r="B31">
         <v>7</v>
       </c>
@@ -3236,7 +3236,7 @@
         <f t="shared" si="14"/>
         <v>0.99746658377370223</v>
       </c>
-      <c r="N31" s="21"/>
+      <c r="N31" s="27"/>
       <c r="O31">
         <v>60840</v>
       </c>
@@ -3275,10 +3275,10 @@
         <f t="shared" si="18"/>
         <v>0.99794543063773833</v>
       </c>
-      <c r="Z31" s="21"/>
+      <c r="Z31" s="27"/>
     </row>
     <row r="32" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
+      <c r="A32" s="25"/>
       <c r="B32">
         <v>8</v>
       </c>
@@ -3320,7 +3320,7 @@
         <f t="shared" si="14"/>
         <v>0.99465759432269729</v>
       </c>
-      <c r="N32" s="21"/>
+      <c r="N32" s="27"/>
       <c r="O32">
         <v>74681</v>
       </c>
@@ -3359,10 +3359,10 @@
         <f t="shared" si="18"/>
         <v>0.99473761733238708</v>
       </c>
-      <c r="Z32" s="21"/>
+      <c r="Z32" s="27"/>
     </row>
     <row r="33" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
+      <c r="A33" s="25"/>
       <c r="B33">
         <v>9</v>
       </c>
@@ -3404,7 +3404,7 @@
         <f t="shared" si="14"/>
         <v>0.82926829268292679</v>
       </c>
-      <c r="N33" s="21"/>
+      <c r="N33" s="27"/>
       <c r="O33">
         <v>27</v>
       </c>
@@ -3443,10 +3443,10 @@
         <f t="shared" si="18"/>
         <v>0.85185185185185186</v>
       </c>
-      <c r="Z33" s="21"/>
+      <c r="Z33" s="27"/>
     </row>
     <row r="34" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
+      <c r="A34" s="25"/>
       <c r="B34">
         <v>10</v>
       </c>
@@ -3488,7 +3488,7 @@
         <f t="shared" si="14"/>
         <v>0.99613828500561763</v>
       </c>
-      <c r="N34" s="21"/>
+      <c r="N34" s="27"/>
       <c r="O34">
         <v>80049</v>
       </c>
@@ -3527,10 +3527,10 @@
         <f t="shared" si="18"/>
         <v>0.98049944409049461</v>
       </c>
-      <c r="Z34" s="21"/>
+      <c r="Z34" s="27"/>
     </row>
     <row r="35" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
+      <c r="A35" s="25"/>
       <c r="B35">
         <v>11</v>
       </c>
@@ -3572,7 +3572,7 @@
         <f t="shared" si="14"/>
         <v>0.99725532377112158</v>
       </c>
-      <c r="N35" s="21"/>
+      <c r="N35" s="27"/>
       <c r="O35">
         <v>188058</v>
       </c>
@@ -3611,10 +3611,10 @@
         <f t="shared" si="18"/>
         <v>0.99702751278860779</v>
       </c>
-      <c r="Z35" s="21"/>
+      <c r="Z35" s="27"/>
     </row>
     <row r="36" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
+      <c r="A36" s="25"/>
       <c r="B36">
         <v>14</v>
       </c>
@@ -3656,7 +3656,7 @@
         <f t="shared" si="14"/>
         <v>0.99848700785540123</v>
       </c>
-      <c r="N36" s="21"/>
+      <c r="N36" s="27"/>
       <c r="O36">
         <v>116230</v>
       </c>
@@ -3695,10 +3695,10 @@
         <f t="shared" si="18"/>
         <v>0.99846855372967391</v>
       </c>
-      <c r="Z36" s="21"/>
+      <c r="Z36" s="27"/>
     </row>
     <row r="37" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
+      <c r="A37" s="25"/>
       <c r="B37">
         <v>17</v>
       </c>
@@ -3740,7 +3740,7 @@
         <f t="shared" si="14"/>
         <v>0.99420340928087036</v>
       </c>
-      <c r="N37" s="21"/>
+      <c r="N37" s="27"/>
       <c r="O37">
         <v>221502</v>
       </c>
@@ -3779,10 +3779,10 @@
         <f t="shared" si="18"/>
         <v>0.99216259898330494</v>
       </c>
-      <c r="Z37" s="21"/>
+      <c r="Z37" s="27"/>
     </row>
     <row r="38" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
+      <c r="A38" s="25"/>
       <c r="B38">
         <v>18</v>
       </c>
@@ -3824,7 +3824,7 @@
         <f t="shared" si="14"/>
         <v>0.99858689239802989</v>
       </c>
-      <c r="N38" s="21"/>
+      <c r="N38" s="27"/>
       <c r="O38">
         <v>77497</v>
       </c>
@@ -3863,10 +3863,10 @@
         <f t="shared" si="18"/>
         <v>0.99859349394170094</v>
       </c>
-      <c r="Z38" s="21"/>
+      <c r="Z38" s="27"/>
     </row>
     <row r="39" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
+      <c r="A39" s="25"/>
       <c r="B39">
         <v>23</v>
       </c>
@@ -3908,7 +3908,7 @@
         <f t="shared" si="14"/>
         <v>0.99971389990870307</v>
       </c>
-      <c r="N39" s="21"/>
+      <c r="N39" s="27"/>
       <c r="O39">
         <v>57148</v>
       </c>
@@ -3947,10 +3947,10 @@
         <f t="shared" si="18"/>
         <v>0.99760271575558201</v>
       </c>
-      <c r="Z39" s="21"/>
+      <c r="Z39" s="27"/>
     </row>
     <row r="40" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
+      <c r="A40" s="25"/>
       <c r="B40">
         <v>24</v>
       </c>
@@ -3992,7 +3992,7 @@
         <f t="shared" si="14"/>
         <v>0.99845049091106242</v>
       </c>
-      <c r="N40" s="21"/>
+      <c r="N40" s="27"/>
       <c r="O40">
         <v>286222</v>
       </c>
@@ -4031,10 +4031,10 @@
         <f t="shared" si="18"/>
         <v>0.99739363151679461</v>
       </c>
-      <c r="Z40" s="21"/>
+      <c r="Z40" s="27"/>
     </row>
     <row r="41" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
+      <c r="A41" s="25"/>
       <c r="B41">
         <v>25</v>
       </c>
@@ -4076,7 +4076,7 @@
         <f t="shared" si="14"/>
         <v>0.99940673943996206</v>
       </c>
-      <c r="N41" s="21"/>
+      <c r="N41" s="27"/>
       <c r="O41">
         <v>41285</v>
       </c>
@@ -4115,10 +4115,10 @@
         <f t="shared" si="18"/>
         <v>0.99929756570182871</v>
       </c>
-      <c r="Z41" s="21"/>
+      <c r="Z41" s="27"/>
     </row>
     <row r="42" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
+      <c r="A42" s="25"/>
       <c r="B42">
         <v>26</v>
       </c>
@@ -4160,7 +4160,7 @@
         <f t="shared" si="14"/>
         <v>0.99856591572799336</v>
       </c>
-      <c r="N42" s="21"/>
+      <c r="N42" s="27"/>
       <c r="O42">
         <v>44373</v>
       </c>
@@ -4199,10 +4199,10 @@
         <f t="shared" si="18"/>
         <v>0.99808442070628534</v>
       </c>
-      <c r="Z42" s="21"/>
+      <c r="Z42" s="27"/>
     </row>
     <row r="43" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
+      <c r="A43" s="25"/>
       <c r="B43">
         <v>27</v>
       </c>
@@ -4244,7 +4244,7 @@
         <f t="shared" si="14"/>
         <v>0.98816568047337283</v>
       </c>
-      <c r="N43" s="21"/>
+      <c r="N43" s="27"/>
       <c r="O43">
         <v>24</v>
       </c>
@@ -4283,10 +4283,10 @@
         <f t="shared" si="18"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="Z43" s="21"/>
+      <c r="Z43" s="27"/>
     </row>
     <row r="44" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
+      <c r="A44" s="25"/>
       <c r="B44">
         <v>28</v>
       </c>
@@ -4328,7 +4328,7 @@
         <f t="shared" si="14"/>
         <v>0.99993206521739131</v>
       </c>
-      <c r="N44" s="21"/>
+      <c r="N44" s="27"/>
       <c r="O44">
         <v>11881</v>
       </c>
@@ -4367,10 +4367,10 @@
         <f t="shared" si="18"/>
         <v>0.99966332800269342</v>
       </c>
-      <c r="Z44" s="21"/>
+      <c r="Z44" s="27"/>
     </row>
     <row r="45" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
+      <c r="A45" s="25"/>
       <c r="B45">
         <v>31</v>
       </c>
@@ -4412,7 +4412,7 @@
         <f t="shared" si="14"/>
         <v>0.99614779695014932</v>
       </c>
-      <c r="N45" s="21"/>
+      <c r="N45" s="27"/>
       <c r="O45">
         <v>48510</v>
       </c>
@@ -4451,10 +4451,10 @@
         <f t="shared" si="18"/>
         <v>0.99548546691403839</v>
       </c>
-      <c r="Z45" s="21"/>
+      <c r="Z45" s="27"/>
     </row>
     <row r="46" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
+      <c r="A46" s="25"/>
       <c r="B46">
         <v>32</v>
       </c>
@@ -4496,7 +4496,7 @@
         <f t="shared" si="14"/>
         <v>0.99927410799039584</v>
       </c>
-      <c r="N46" s="21"/>
+      <c r="N46" s="27"/>
       <c r="O46">
         <v>53668</v>
       </c>
@@ -4535,10 +4535,10 @@
         <f t="shared" si="18"/>
         <v>0.99949690690914517</v>
       </c>
-      <c r="Z46" s="21"/>
+      <c r="Z46" s="27"/>
     </row>
     <row r="47" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
+      <c r="A47" s="25"/>
       <c r="B47">
         <v>33</v>
       </c>
@@ -4580,7 +4580,7 @@
         <f t="shared" si="14"/>
         <v>0.99854722866387768</v>
       </c>
-      <c r="N47" s="21"/>
+      <c r="N47" s="27"/>
       <c r="O47">
         <v>260547</v>
       </c>
@@ -4619,10 +4619,10 @@
         <f t="shared" si="18"/>
         <v>0.99832659750448094</v>
       </c>
-      <c r="Z47" s="21"/>
+      <c r="Z47" s="27"/>
     </row>
     <row r="48" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
+      <c r="A48" s="25"/>
       <c r="B48">
         <v>35</v>
       </c>
@@ -4664,7 +4664,7 @@
         <f t="shared" si="14"/>
         <v>0.99905618083575187</v>
       </c>
-      <c r="N48" s="21"/>
+      <c r="N48" s="27"/>
       <c r="O48">
         <v>212869</v>
       </c>
@@ -4703,10 +4703,10 @@
         <f t="shared" si="18"/>
         <v>0.9989054301002025</v>
       </c>
-      <c r="Z48" s="21"/>
+      <c r="Z48" s="27"/>
     </row>
     <row r="49" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
+      <c r="A49" s="25"/>
       <c r="B49">
         <v>36</v>
       </c>
@@ -4748,7 +4748,7 @@
         <f t="shared" si="14"/>
         <v>0.99947355556808992</v>
       </c>
-      <c r="N49" s="21"/>
+      <c r="N49" s="27"/>
       <c r="O49">
         <v>64504</v>
       </c>
@@ -4787,10 +4787,10 @@
         <f t="shared" si="18"/>
         <v>0.98476063499937994</v>
       </c>
-      <c r="Z49" s="21"/>
+      <c r="Z49" s="27"/>
     </row>
     <row r="50" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
+      <c r="A50" s="25"/>
       <c r="B50">
         <v>37</v>
       </c>
@@ -4832,7 +4832,7 @@
         <f t="shared" si="14"/>
         <v>0.99996870452376108</v>
       </c>
-      <c r="N50" s="21"/>
+      <c r="N50" s="27"/>
       <c r="O50">
         <v>4642</v>
       </c>
@@ -4871,10 +4871,10 @@
         <f t="shared" si="18"/>
         <v>0.99935372684187851</v>
       </c>
-      <c r="Z50" s="21"/>
+      <c r="Z50" s="27"/>
     </row>
     <row r="51" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
+      <c r="A51" s="25"/>
       <c r="B51">
         <v>38</v>
       </c>
@@ -4916,7 +4916,7 @@
         <f t="shared" si="14"/>
         <v>0.99913548227738669</v>
       </c>
-      <c r="N51" s="21"/>
+      <c r="N51" s="27"/>
       <c r="O51">
         <v>8075</v>
       </c>
@@ -4955,10 +4955,10 @@
         <f t="shared" si="18"/>
         <v>0.99913312693498457</v>
       </c>
-      <c r="Z51" s="21"/>
+      <c r="Z51" s="27"/>
     </row>
     <row r="52" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
+      <c r="A52" s="25"/>
       <c r="B52">
         <v>39</v>
       </c>
@@ -5000,7 +5000,7 @@
         <f t="shared" si="14"/>
         <v>0.99898151049827644</v>
       </c>
-      <c r="N52" s="21"/>
+      <c r="N52" s="27"/>
       <c r="O52">
         <v>46987</v>
       </c>
@@ -5039,10 +5039,10 @@
         <f t="shared" si="18"/>
         <v>0.99885074595100776</v>
       </c>
-      <c r="Z52" s="21"/>
+      <c r="Z52" s="27"/>
     </row>
     <row r="53" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
+      <c r="A53" s="25"/>
       <c r="B53">
         <v>40</v>
       </c>
@@ -5084,7 +5084,7 @@
         <f t="shared" si="14"/>
         <v>0.99996102656039909</v>
       </c>
-      <c r="N53" s="21"/>
+      <c r="N53" s="27"/>
       <c r="O53">
         <v>3873</v>
       </c>
@@ -5123,10 +5123,10 @@
         <f t="shared" si="18"/>
         <v>0.99922540666150272</v>
       </c>
-      <c r="Z53" s="21"/>
+      <c r="Z53" s="27"/>
     </row>
     <row r="54" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
+      <c r="A54" s="25"/>
       <c r="B54">
         <v>41</v>
       </c>
@@ -5168,7 +5168,7 @@
         <f t="shared" si="14"/>
         <v>0.99811870020908289</v>
       </c>
-      <c r="N54" s="21"/>
+      <c r="N54" s="27"/>
       <c r="O54">
         <v>224111</v>
       </c>
@@ -5207,10 +5207,10 @@
         <f t="shared" si="18"/>
         <v>0.99834903239912365</v>
       </c>
-      <c r="Z54" s="21"/>
+      <c r="Z54" s="27"/>
     </row>
     <row r="55" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
+      <c r="A55" s="25"/>
       <c r="B55">
         <v>42</v>
       </c>
@@ -5252,7 +5252,7 @@
         <f t="shared" si="14"/>
         <v>0.99964402378758688</v>
       </c>
-      <c r="N55" s="21"/>
+      <c r="N55" s="27"/>
       <c r="O55">
         <v>49936</v>
       </c>
@@ -5291,10 +5291,10 @@
         <f t="shared" si="18"/>
         <v>0.99979974367190005</v>
       </c>
-      <c r="Z55" s="21"/>
+      <c r="Z55" s="27"/>
     </row>
     <row r="56" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
+      <c r="A56" s="25"/>
       <c r="B56">
         <v>44</v>
       </c>
@@ -5336,7 +5336,7 @@
         <f t="shared" si="14"/>
         <v>0.99954710144927539</v>
       </c>
-      <c r="N56" s="21"/>
+      <c r="N56" s="27"/>
       <c r="O56">
         <v>9136</v>
       </c>
@@ -5375,10 +5375,10 @@
         <f t="shared" si="18"/>
         <v>0.9994527145359019</v>
       </c>
-      <c r="Z56" s="21"/>
+      <c r="Z56" s="27"/>
     </row>
     <row r="57" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
+      <c r="A57" s="25"/>
       <c r="B57">
         <v>45</v>
       </c>
@@ -5420,7 +5420,7 @@
         <f t="shared" si="14"/>
         <v>0.99372633646478092</v>
       </c>
-      <c r="N57" s="21"/>
+      <c r="N57" s="27"/>
       <c r="O57">
         <v>133524</v>
       </c>
@@ -5459,10 +5459,10 @@
         <f t="shared" si="18"/>
         <v>0.99218867020161172</v>
       </c>
-      <c r="Z57" s="21"/>
+      <c r="Z57" s="27"/>
     </row>
     <row r="58" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
+      <c r="A58" s="25"/>
       <c r="B58">
         <v>46</v>
       </c>
@@ -5504,7 +5504,7 @@
         <f t="shared" si="14"/>
         <v>0.9983543793659323</v>
       </c>
-      <c r="N58" s="21"/>
+      <c r="N58" s="27"/>
       <c r="O58">
         <v>57985</v>
       </c>
@@ -5543,10 +5543,10 @@
         <f t="shared" si="18"/>
         <v>0.99529188583254291</v>
       </c>
-      <c r="Z58" s="21"/>
+      <c r="Z58" s="27"/>
     </row>
     <row r="59" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="24"/>
+      <c r="A59" s="25"/>
       <c r="B59">
         <v>48</v>
       </c>
@@ -5588,7 +5588,7 @@
         <f t="shared" si="14"/>
         <v>0.9985631671464601</v>
       </c>
-      <c r="N59" s="21"/>
+      <c r="N59" s="27"/>
       <c r="O59">
         <v>195768</v>
       </c>
@@ -5627,10 +5627,10 @@
         <f t="shared" si="18"/>
         <v>0.99875873482898125</v>
       </c>
-      <c r="Z59" s="21"/>
+      <c r="Z59" s="27"/>
     </row>
     <row r="60" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24"/>
+      <c r="A60" s="25"/>
       <c r="B60">
         <v>49</v>
       </c>
@@ -5672,7 +5672,7 @@
         <f t="shared" si="14"/>
         <v>0.99542514353233458</v>
       </c>
-      <c r="N60" s="21"/>
+      <c r="N60" s="27"/>
       <c r="O60">
         <v>73600</v>
       </c>
@@ -5711,10 +5711,10 @@
         <f t="shared" si="18"/>
         <v>0.99388586956521741</v>
       </c>
-      <c r="Z60" s="21"/>
+      <c r="Z60" s="27"/>
     </row>
     <row r="61" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="24"/>
+      <c r="A61" s="25"/>
       <c r="B61">
         <v>51</v>
       </c>
@@ -5756,7 +5756,7 @@
         <f t="shared" si="14"/>
         <v>0.99908842297174116</v>
       </c>
-      <c r="N61" s="21"/>
+      <c r="N61" s="27"/>
       <c r="O61">
         <v>7684</v>
       </c>
@@ -5795,10 +5795,10 @@
         <f t="shared" si="18"/>
         <v>0.99921915668922434</v>
       </c>
-      <c r="Z61" s="21"/>
+      <c r="Z61" s="27"/>
     </row>
     <row r="62" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
+      <c r="A62" s="25"/>
       <c r="B62">
         <v>52</v>
       </c>
@@ -5840,7 +5840,7 @@
         <f t="shared" si="14"/>
         <v>0.9997961097744974</v>
       </c>
-      <c r="N62" s="21"/>
+      <c r="N62" s="27"/>
       <c r="O62">
         <v>14199</v>
       </c>
@@ -5879,10 +5879,10 @@
         <f t="shared" si="18"/>
         <v>0.9992957250510599</v>
       </c>
-      <c r="Z62" s="21"/>
+      <c r="Z62" s="27"/>
     </row>
     <row r="63" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="24"/>
+      <c r="A63" s="25"/>
       <c r="B63">
         <v>54</v>
       </c>
@@ -5924,7 +5924,7 @@
         <f t="shared" si="14"/>
         <v>0.9847665473379541</v>
       </c>
-      <c r="N63" s="21"/>
+      <c r="N63" s="27"/>
       <c r="O63">
         <v>13073</v>
       </c>
@@ -5963,10 +5963,10 @@
         <f t="shared" si="18"/>
         <v>0.98669012468446415</v>
       </c>
-      <c r="Z63" s="21"/>
+      <c r="Z63" s="27"/>
     </row>
     <row r="64" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
+      <c r="A64" s="25"/>
       <c r="B64">
         <v>55</v>
       </c>
@@ -6008,7 +6008,7 @@
         <f t="shared" si="14"/>
         <v>0.99845859550384164</v>
       </c>
-      <c r="N64" s="21"/>
+      <c r="N64" s="27"/>
       <c r="O64">
         <v>41744</v>
       </c>
@@ -6047,10 +6047,10 @@
         <f t="shared" si="18"/>
         <v>0.99372364890762743</v>
       </c>
-      <c r="Z64" s="21"/>
+      <c r="Z64" s="27"/>
     </row>
     <row r="65" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24"/>
+      <c r="A65" s="25"/>
       <c r="B65">
         <v>56</v>
       </c>
@@ -6092,7 +6092,7 @@
         <f t="shared" si="14"/>
         <v>0.99849946409431944</v>
       </c>
-      <c r="N65" s="21"/>
+      <c r="N65" s="27"/>
       <c r="O65">
         <v>4603</v>
       </c>
@@ -6131,10 +6131,10 @@
         <f t="shared" si="18"/>
         <v>0.99869650228112106</v>
       </c>
-      <c r="Z65" s="21"/>
+      <c r="Z65" s="27"/>
     </row>
     <row r="66" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
+      <c r="A66" s="25"/>
       <c r="B66">
         <v>57</v>
       </c>
@@ -6176,7 +6176,7 @@
         <f t="shared" si="14"/>
         <v>0.99923477196204469</v>
       </c>
-      <c r="N66" s="21"/>
+      <c r="N66" s="27"/>
       <c r="O66">
         <v>8124</v>
       </c>
@@ -6215,10 +6215,10 @@
         <f t="shared" si="18"/>
         <v>0.99889217134416541</v>
       </c>
-      <c r="Z66" s="21"/>
+      <c r="Z66" s="27"/>
     </row>
     <row r="67" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
+      <c r="A67" s="25"/>
       <c r="B67">
         <v>58</v>
       </c>
@@ -6260,7 +6260,7 @@
         <f t="shared" si="14"/>
         <v>0.99963950973323723</v>
       </c>
-      <c r="N67" s="21"/>
+      <c r="N67" s="27"/>
       <c r="O67">
         <v>8322</v>
       </c>
@@ -6299,10 +6299,10 @@
         <f t="shared" si="18"/>
         <v>0.99963950973323723</v>
       </c>
-      <c r="Z67" s="21"/>
+      <c r="Z67" s="27"/>
     </row>
     <row r="68" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="24"/>
+      <c r="A68" s="25"/>
       <c r="B68">
         <v>59</v>
       </c>
@@ -6344,7 +6344,7 @@
         <f t="shared" si="14"/>
         <v>0.9990910157166315</v>
       </c>
-      <c r="N68" s="21"/>
+      <c r="N68" s="27"/>
       <c r="O68">
         <v>5207</v>
       </c>
@@ -6383,10 +6383,10 @@
         <f t="shared" si="18"/>
         <v>0.99500672172076055</v>
       </c>
-      <c r="Z68" s="21"/>
+      <c r="Z68" s="27"/>
     </row>
     <row r="69" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="24"/>
+      <c r="A69" s="25"/>
       <c r="B69">
         <v>61</v>
       </c>
@@ -6428,7 +6428,7 @@
         <f t="shared" si="14"/>
         <v>0.9949977584294849</v>
       </c>
-      <c r="N69" s="21"/>
+      <c r="N69" s="27"/>
       <c r="O69">
         <v>46103</v>
       </c>
@@ -6467,10 +6467,10 @@
         <f t="shared" si="18"/>
         <v>0.99370973689347764</v>
       </c>
-      <c r="Z69" s="21"/>
+      <c r="Z69" s="27"/>
     </row>
     <row r="70" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="24"/>
+      <c r="A70" s="25"/>
       <c r="B70">
         <v>62</v>
       </c>
@@ -6512,7 +6512,7 @@
         <f t="shared" si="14"/>
         <v>0.93617021276595747</v>
       </c>
-      <c r="N70" s="21"/>
+      <c r="N70" s="27"/>
       <c r="O70">
         <v>110</v>
       </c>
@@ -6551,10 +6551,10 @@
         <f t="shared" si="18"/>
         <v>0.91818181818181821</v>
       </c>
-      <c r="Z70" s="21"/>
+      <c r="Z70" s="27"/>
     </row>
     <row r="71" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="24"/>
+      <c r="A71" s="25"/>
       <c r="B71">
         <v>64</v>
       </c>
@@ -6596,7 +6596,7 @@
         <f t="shared" si="14"/>
         <v>0.99955486312040953</v>
       </c>
-      <c r="N71" s="21"/>
+      <c r="N71" s="27"/>
       <c r="O71">
         <v>4492</v>
       </c>
@@ -6635,10 +6635,10 @@
         <f t="shared" si="18"/>
         <v>0.99955476402493326</v>
       </c>
-      <c r="Z71" s="21"/>
+      <c r="Z71" s="27"/>
     </row>
     <row r="72" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="24"/>
+      <c r="A72" s="25"/>
       <c r="B72">
         <v>65</v>
       </c>
@@ -6680,7 +6680,7 @@
         <f t="shared" si="14"/>
         <v>0.99985461594378489</v>
       </c>
-      <c r="N72" s="21"/>
+      <c r="N72" s="27"/>
       <c r="O72">
         <v>7079</v>
       </c>
@@ -6719,10 +6719,10 @@
         <f t="shared" si="18"/>
         <v>0.99957621132928376</v>
       </c>
-      <c r="Z72" s="21"/>
+      <c r="Z72" s="27"/>
     </row>
     <row r="73" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="24"/>
+      <c r="A73" s="25"/>
       <c r="B73">
         <v>73</v>
       </c>
@@ -6764,7 +6764,7 @@
         <f t="shared" si="14"/>
         <v>0.99962027719764568</v>
       </c>
-      <c r="N73" s="21"/>
+      <c r="N73" s="27"/>
       <c r="O73">
         <v>15790</v>
       </c>
@@ -6803,10 +6803,10 @@
         <f t="shared" si="18"/>
         <v>0.99962001266624445</v>
       </c>
-      <c r="Z73" s="21"/>
+      <c r="Z73" s="27"/>
     </row>
     <row r="74" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="24"/>
+      <c r="A74" s="25"/>
       <c r="B74">
         <v>77</v>
       </c>
@@ -6848,7 +6848,7 @@
         <f t="shared" si="14"/>
         <v>0.99979513794045338</v>
       </c>
-      <c r="N74" s="21"/>
+      <c r="N74" s="27"/>
       <c r="O74">
         <v>6417</v>
       </c>
@@ -6887,10 +6887,10 @@
         <f t="shared" si="18"/>
         <v>0.99953249181860682</v>
       </c>
-      <c r="Z74" s="21"/>
+      <c r="Z74" s="27"/>
     </row>
     <row r="75" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="24"/>
+      <c r="A75" s="25"/>
       <c r="B75">
         <v>80</v>
       </c>
@@ -6932,7 +6932,7 @@
         <f t="shared" si="14"/>
         <v>0.99996670957432643</v>
       </c>
-      <c r="N75" s="21"/>
+      <c r="N75" s="27"/>
       <c r="O75">
         <v>72683</v>
       </c>
@@ -6971,10 +6971,10 @@
         <f t="shared" si="18"/>
         <v>0.99995872487376691</v>
       </c>
-      <c r="Z75" s="21"/>
+      <c r="Z75" s="27"/>
     </row>
     <row r="76" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="24"/>
+      <c r="A76" s="25"/>
       <c r="B76">
         <v>81</v>
       </c>
@@ -7016,7 +7016,7 @@
         <f t="shared" si="14"/>
         <v>0.99034749034749037</v>
       </c>
-      <c r="N76" s="21"/>
+      <c r="N76" s="27"/>
       <c r="O76">
         <v>1032</v>
       </c>
@@ -7055,10 +7055,10 @@
         <f t="shared" si="18"/>
         <v>0.99031007751937983</v>
       </c>
-      <c r="Z76" s="21"/>
+      <c r="Z76" s="27"/>
     </row>
     <row r="77" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="24"/>
+      <c r="A77" s="25"/>
       <c r="B77">
         <v>82</v>
       </c>
@@ -7100,7 +7100,7 @@
         <f t="shared" si="14"/>
         <v>0.99721913236929927</v>
       </c>
-      <c r="N77" s="21"/>
+      <c r="N77" s="27"/>
       <c r="O77">
         <v>3592</v>
       </c>
@@ -7139,10 +7139,10 @@
         <f t="shared" si="18"/>
         <v>0.99721603563474392</v>
       </c>
-      <c r="Z77" s="21"/>
+      <c r="Z77" s="27"/>
     </row>
     <row r="78" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="24"/>
+      <c r="A78" s="25"/>
       <c r="B78">
         <v>83</v>
       </c>
@@ -7184,7 +7184,7 @@
         <f t="shared" si="14"/>
         <v>0.99975230007077143</v>
       </c>
-      <c r="N78" s="21"/>
+      <c r="N78" s="27"/>
       <c r="O78">
         <v>297</v>
       </c>
@@ -7223,10 +7223,10 @@
         <f t="shared" si="18"/>
         <v>0.97643097643097643</v>
       </c>
-      <c r="Z78" s="21"/>
+      <c r="Z78" s="27"/>
     </row>
     <row r="79" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="24"/>
+      <c r="A79" s="25"/>
       <c r="B79">
         <v>84</v>
       </c>
@@ -7268,7 +7268,7 @@
         <f t="shared" si="14"/>
         <v>0.99534158261412087</v>
       </c>
-      <c r="N79" s="21"/>
+      <c r="N79" s="27"/>
       <c r="O79">
         <v>52560</v>
       </c>
@@ -7307,10 +7307,10 @@
         <f t="shared" si="18"/>
         <v>0.99398782343987824</v>
       </c>
-      <c r="Z79" s="21"/>
+      <c r="Z79" s="27"/>
     </row>
     <row r="80" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="24"/>
+      <c r="A80" s="25"/>
       <c r="B80">
         <v>85</v>
       </c>
@@ -7352,7 +7352,7 @@
         <f t="shared" si="14"/>
         <v>0.99497389878769571</v>
       </c>
-      <c r="N80" s="21"/>
+      <c r="N80" s="27"/>
       <c r="O80">
         <v>50827</v>
       </c>
@@ -7391,10 +7391,10 @@
         <f t="shared" si="18"/>
         <v>0.99372380821217066</v>
       </c>
-      <c r="Z80" s="21"/>
+      <c r="Z80" s="27"/>
     </row>
     <row r="81" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24"/>
+      <c r="A81" s="25"/>
       <c r="B81">
         <v>86</v>
       </c>
@@ -7436,7 +7436,7 @@
         <f t="shared" si="14"/>
         <v>0.99996684817291992</v>
       </c>
-      <c r="N81" s="21"/>
+      <c r="N81" s="27"/>
       <c r="O81">
         <v>11095</v>
       </c>
@@ -7475,10 +7475,10 @@
         <f t="shared" si="18"/>
         <v>0.99963947724200086</v>
       </c>
-      <c r="Z81" s="21"/>
+      <c r="Z81" s="27"/>
     </row>
     <row r="82" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
+      <c r="A82" s="25"/>
       <c r="B82">
         <v>87</v>
       </c>
@@ -7520,7 +7520,7 @@
         <f t="shared" si="14"/>
         <v>0.99535115032001387</v>
       </c>
-      <c r="N82" s="21"/>
+      <c r="N82" s="27"/>
       <c r="O82">
         <v>50591</v>
       </c>
@@ -7559,10 +7559,10 @@
         <f t="shared" si="18"/>
         <v>0.99405032515664837</v>
       </c>
-      <c r="Z82" s="21"/>
+      <c r="Z82" s="27"/>
     </row>
     <row r="83" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24"/>
+      <c r="A83" s="25"/>
       <c r="B83">
         <v>89</v>
       </c>
@@ -7604,7 +7604,7 @@
         <f t="shared" si="14"/>
         <v>0.99610434640722834</v>
       </c>
-      <c r="N83" s="21"/>
+      <c r="N83" s="27"/>
       <c r="O83">
         <v>54067</v>
       </c>
@@ -7643,10 +7643,10 @@
         <f t="shared" si="18"/>
         <v>0.99480274474263419</v>
       </c>
-      <c r="Z83" s="21"/>
+      <c r="Z83" s="27"/>
     </row>
     <row r="84" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="24"/>
+      <c r="A84" s="25"/>
       <c r="B84">
         <v>90</v>
       </c>
@@ -7688,7 +7688,7 @@
         <f t="shared" si="14"/>
         <v>0.9935150455564199</v>
       </c>
-      <c r="N84" s="21"/>
+      <c r="N84" s="27"/>
       <c r="O84">
         <v>129831</v>
       </c>
@@ -7727,10 +7727,10 @@
         <f t="shared" si="18"/>
         <v>0.9899715784365829</v>
       </c>
-      <c r="Z84" s="21"/>
+      <c r="Z84" s="27"/>
     </row>
     <row r="85" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="24"/>
+      <c r="A85" s="25"/>
       <c r="B85">
         <v>91</v>
       </c>
@@ -7772,7 +7772,7 @@
         <f t="shared" si="14"/>
         <v>0.99404404972205562</v>
       </c>
-      <c r="N85" s="21"/>
+      <c r="N85" s="27"/>
       <c r="O85">
         <v>122827</v>
       </c>
@@ -7811,10 +7811,10 @@
         <f t="shared" si="18"/>
         <v>0.99403225675136575</v>
       </c>
-      <c r="Z85" s="21"/>
+      <c r="Z85" s="27"/>
     </row>
     <row r="86" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="24"/>
+      <c r="A86" s="25"/>
       <c r="B86">
         <v>92</v>
       </c>
@@ -7856,7 +7856,7 @@
         <f t="shared" si="14"/>
         <v>0.99476744186046506</v>
       </c>
-      <c r="N86" s="21"/>
+      <c r="N86" s="27"/>
       <c r="O86">
         <v>96522</v>
       </c>
@@ -7895,10 +7895,10 @@
         <f t="shared" si="18"/>
         <v>0.99518244545285017</v>
       </c>
-      <c r="Z86" s="21"/>
+      <c r="Z86" s="27"/>
     </row>
     <row r="87" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
+      <c r="A87" s="25"/>
       <c r="B87">
         <v>94</v>
       </c>
@@ -7940,7 +7940,7 @@
         <f t="shared" si="14"/>
         <v>0.9933484065258793</v>
       </c>
-      <c r="N87" s="21"/>
+      <c r="N87" s="27"/>
       <c r="O87">
         <v>105386</v>
       </c>
@@ -7979,10 +7979,10 @@
         <f t="shared" si="18"/>
         <v>0.97774846753838274</v>
       </c>
-      <c r="Z87" s="21"/>
+      <c r="Z87" s="27"/>
     </row>
     <row r="88" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="24"/>
+      <c r="A88" s="25"/>
       <c r="B88">
         <v>95</v>
       </c>
@@ -8024,7 +8024,7 @@
         <f t="shared" si="14"/>
         <v>0.99711493250676764</v>
       </c>
-      <c r="N88" s="21"/>
+      <c r="N88" s="27"/>
       <c r="O88">
         <v>368363</v>
       </c>
@@ -8063,10 +8063,10 @@
         <f t="shared" si="18"/>
         <v>0.99256711450389967</v>
       </c>
-      <c r="Z88" s="21"/>
+      <c r="Z88" s="27"/>
     </row>
     <row r="89" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="24"/>
+      <c r="A89" s="25"/>
       <c r="B89">
         <v>96</v>
       </c>
@@ -8108,7 +8108,7 @@
         <f t="shared" si="14"/>
         <v>0.9946721807732789</v>
       </c>
-      <c r="N89" s="21"/>
+      <c r="N89" s="27"/>
       <c r="O89">
         <v>175120</v>
       </c>
@@ -8147,10 +8147,10 @@
         <f t="shared" si="18"/>
         <v>0.98920169026952942</v>
       </c>
-      <c r="Z89" s="21"/>
+      <c r="Z89" s="27"/>
     </row>
     <row r="90" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="24"/>
+      <c r="A90" s="25"/>
       <c r="B90">
         <v>97</v>
       </c>
@@ -8192,7 +8192,7 @@
         <f t="shared" ref="M90:M121" si="24">($C90-L90)/$C90</f>
         <v>0.99576770531064285</v>
       </c>
-      <c r="N90" s="21"/>
+      <c r="N90" s="27"/>
       <c r="O90">
         <v>142376</v>
       </c>
@@ -8231,10 +8231,10 @@
         <f t="shared" ref="Y90:Y121" si="28">($O90-X90)/$O90</f>
         <v>0.99592627971006353</v>
       </c>
-      <c r="Z90" s="21"/>
+      <c r="Z90" s="27"/>
     </row>
     <row r="91" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="24"/>
+      <c r="A91" s="25"/>
       <c r="B91">
         <v>98</v>
       </c>
@@ -8276,7 +8276,7 @@
         <f t="shared" si="24"/>
         <v>0.99579385460019476</v>
       </c>
-      <c r="N91" s="21"/>
+      <c r="N91" s="27"/>
       <c r="O91">
         <v>142631</v>
       </c>
@@ -8315,10 +8315,10 @@
         <f t="shared" si="28"/>
         <v>0.99590551843568365</v>
       </c>
-      <c r="Z91" s="21"/>
+      <c r="Z91" s="27"/>
     </row>
     <row r="92" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="24"/>
+      <c r="A92" s="25"/>
       <c r="B92">
         <v>99</v>
       </c>
@@ -8360,7 +8360,7 @@
         <f t="shared" si="24"/>
         <v>0.99537970069894088</v>
       </c>
-      <c r="N92" s="21"/>
+      <c r="N92" s="27"/>
       <c r="O92">
         <v>158397</v>
       </c>
@@ -8399,10 +8399,10 @@
         <f t="shared" si="28"/>
         <v>0.99578906166152137</v>
       </c>
-      <c r="Z92" s="21"/>
+      <c r="Z92" s="27"/>
     </row>
     <row r="93" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="24"/>
+      <c r="A93" s="25"/>
       <c r="B93">
         <v>100</v>
       </c>
@@ -8444,7 +8444,7 @@
         <f t="shared" si="24"/>
         <v>0.99649599501853892</v>
       </c>
-      <c r="N93" s="21"/>
+      <c r="N93" s="27"/>
       <c r="O93">
         <v>162186</v>
       </c>
@@ -8483,10 +8483,10 @@
         <f t="shared" si="28"/>
         <v>0.99452480485368655</v>
       </c>
-      <c r="Z93" s="21"/>
+      <c r="Z93" s="27"/>
     </row>
     <row r="94" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="24"/>
+      <c r="A94" s="25"/>
       <c r="B94">
         <v>101</v>
       </c>
@@ -8528,7 +8528,7 @@
         <f t="shared" si="24"/>
         <v>0.997693859901989</v>
       </c>
-      <c r="N94" s="21"/>
+      <c r="N94" s="27"/>
       <c r="O94">
         <v>10270</v>
       </c>
@@ -8567,10 +8567,10 @@
         <f t="shared" si="28"/>
         <v>0.99902629016553068</v>
       </c>
-      <c r="Z94" s="21"/>
+      <c r="Z94" s="27"/>
     </row>
     <row r="95" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="24"/>
+      <c r="A95" s="25"/>
       <c r="B95">
         <v>102</v>
       </c>
@@ -8612,7 +8612,7 @@
         <f t="shared" si="24"/>
         <v>0.99539313253806105</v>
       </c>
-      <c r="N95" s="21"/>
+      <c r="N95" s="27"/>
       <c r="O95">
         <v>166407</v>
       </c>
@@ -8651,10 +8651,10 @@
         <f t="shared" si="28"/>
         <v>0.97084858209089764</v>
       </c>
-      <c r="Z95" s="21"/>
+      <c r="Z95" s="27"/>
     </row>
     <row r="96" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="24"/>
+      <c r="A96" s="25"/>
       <c r="B96">
         <v>103</v>
       </c>
@@ -8696,7 +8696,7 @@
         <f t="shared" si="24"/>
         <v>0.99311921182266005</v>
       </c>
-      <c r="N96" s="21"/>
+      <c r="N96" s="27"/>
       <c r="O96">
         <v>126938</v>
       </c>
@@ -8735,10 +8735,10 @@
         <f t="shared" si="28"/>
         <v>0.99312262679418295</v>
       </c>
-      <c r="Z96" s="21"/>
+      <c r="Z96" s="27"/>
     </row>
     <row r="97" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="24"/>
+      <c r="A97" s="25"/>
       <c r="B97">
         <v>104</v>
       </c>
@@ -8780,7 +8780,7 @@
         <f t="shared" si="24"/>
         <v>0.99541860520225278</v>
       </c>
-      <c r="N97" s="21"/>
+      <c r="N97" s="27"/>
       <c r="O97">
         <v>126683</v>
       </c>
@@ -8819,10 +8819,10 @@
         <f t="shared" si="28"/>
         <v>0.9946085899449808</v>
       </c>
-      <c r="Z97" s="21"/>
+      <c r="Z97" s="27"/>
     </row>
     <row r="98" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="24"/>
+      <c r="A98" s="25"/>
       <c r="B98">
         <v>105</v>
       </c>
@@ -8864,7 +8864,7 @@
         <f t="shared" si="24"/>
         <v>0.99696433285197439</v>
       </c>
-      <c r="N98" s="21"/>
+      <c r="N98" s="27"/>
       <c r="O98">
         <v>79925</v>
       </c>
@@ -8903,10 +8903,10 @@
         <f t="shared" si="28"/>
         <v>0.99733500156396626</v>
       </c>
-      <c r="Z98" s="21"/>
+      <c r="Z98" s="27"/>
     </row>
     <row r="99" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="24"/>
+      <c r="A99" s="25"/>
       <c r="B99">
         <v>106</v>
       </c>
@@ -8948,7 +8948,7 @@
         <f t="shared" si="24"/>
         <v>0.99993877426069921</v>
       </c>
-      <c r="N99" s="21"/>
+      <c r="N99" s="27"/>
       <c r="O99">
         <v>64520</v>
       </c>
@@ -8987,10 +8987,10 @@
         <f t="shared" si="28"/>
         <v>0.99995350278983264</v>
       </c>
-      <c r="Z99" s="21"/>
+      <c r="Z99" s="27"/>
     </row>
     <row r="100" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="24"/>
+      <c r="A100" s="25"/>
       <c r="B100">
         <v>109</v>
       </c>
@@ -9032,7 +9032,7 @@
         <f t="shared" si="24"/>
         <v>0.99993867476159815</v>
       </c>
-      <c r="N100" s="21"/>
+      <c r="N100" s="27"/>
       <c r="O100">
         <v>64502</v>
       </c>
@@ -9071,10 +9071,10 @@
         <f t="shared" si="28"/>
         <v>0.99995348981426935</v>
       </c>
-      <c r="Z100" s="21"/>
+      <c r="Z100" s="27"/>
     </row>
     <row r="101" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="24"/>
+      <c r="A101" s="25"/>
       <c r="B101">
         <v>110</v>
       </c>
@@ -9116,7 +9116,7 @@
         <f t="shared" si="24"/>
         <v>0.99676922830252213</v>
       </c>
-      <c r="N101" s="21"/>
+      <c r="N101" s="27"/>
       <c r="O101">
         <v>78566</v>
       </c>
@@ -9155,10 +9155,10 @@
         <f t="shared" si="28"/>
         <v>0.99709798131507266</v>
       </c>
-      <c r="Z101" s="21"/>
+      <c r="Z101" s="27"/>
     </row>
     <row r="102" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="24"/>
+      <c r="A102" s="25"/>
       <c r="B102">
         <v>111</v>
       </c>
@@ -9200,7 +9200,7 @@
         <f t="shared" si="24"/>
         <v>0.99968489501274738</v>
       </c>
-      <c r="N102" s="21"/>
+      <c r="N102" s="27"/>
       <c r="O102">
         <v>69591</v>
       </c>
@@ -9239,10 +9239,10 @@
         <f t="shared" si="28"/>
         <v>0.99974134586368923</v>
       </c>
-      <c r="Z102" s="21"/>
+      <c r="Z102" s="27"/>
     </row>
     <row r="103" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="24"/>
+      <c r="A103" s="25"/>
       <c r="B103">
         <v>113</v>
       </c>
@@ -9284,7 +9284,7 @@
         <f t="shared" si="24"/>
         <v>0.99937263067969462</v>
       </c>
-      <c r="N103" s="21"/>
+      <c r="N103" s="27"/>
       <c r="O103">
         <v>76374</v>
       </c>
@@ -9323,10 +9323,10 @@
         <f t="shared" si="28"/>
         <v>0.99893942964883342</v>
       </c>
-      <c r="Z103" s="21"/>
+      <c r="Z103" s="27"/>
     </row>
     <row r="104" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="24"/>
+      <c r="A104" s="25"/>
       <c r="B104">
         <v>114</v>
       </c>
@@ -9368,7 +9368,7 @@
         <f t="shared" si="24"/>
         <v>0.99799783931045816</v>
       </c>
-      <c r="N104" s="21"/>
+      <c r="N104" s="27"/>
       <c r="O104">
         <v>154786</v>
       </c>
@@ -9407,10 +9407,10 @@
         <f t="shared" si="28"/>
         <v>0.99787448477252461</v>
       </c>
-      <c r="Z104" s="21"/>
+      <c r="Z104" s="27"/>
     </row>
     <row r="105" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="24"/>
+      <c r="A105" s="25"/>
       <c r="B105">
         <v>116</v>
       </c>
@@ -9452,7 +9452,7 @@
         <f t="shared" si="24"/>
         <v>0.99701365187713309</v>
       </c>
-      <c r="N105" s="21"/>
+      <c r="N105" s="27"/>
       <c r="O105">
         <v>9207</v>
       </c>
@@ -9491,10 +9491,10 @@
         <f t="shared" si="28"/>
         <v>0.99847941783425653</v>
       </c>
-      <c r="Z105" s="21"/>
+      <c r="Z105" s="27"/>
     </row>
     <row r="106" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="24"/>
+      <c r="A106" s="25"/>
       <c r="B106">
         <v>117</v>
       </c>
@@ -9536,7 +9536,7 @@
         <f t="shared" si="24"/>
         <v>0.997693859901989</v>
       </c>
-      <c r="N106" s="21"/>
+      <c r="N106" s="27"/>
       <c r="O106">
         <v>10270</v>
       </c>
@@ -9575,10 +9575,10 @@
         <f t="shared" si="28"/>
         <v>0.99902629016553068</v>
       </c>
-      <c r="Z106" s="21"/>
+      <c r="Z106" s="27"/>
     </row>
     <row r="107" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="24"/>
+      <c r="A107" s="25"/>
       <c r="B107">
         <v>118</v>
       </c>
@@ -9620,7 +9620,7 @@
         <f t="shared" si="24"/>
         <v>0.99649599501853892</v>
       </c>
-      <c r="N107" s="21"/>
+      <c r="N107" s="27"/>
       <c r="O107">
         <v>162186</v>
       </c>
@@ -9659,10 +9659,10 @@
         <f t="shared" si="28"/>
         <v>0.99452480485368655</v>
       </c>
-      <c r="Z107" s="21"/>
+      <c r="Z107" s="27"/>
     </row>
     <row r="108" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="24"/>
+      <c r="A108" s="25"/>
       <c r="B108">
         <v>119</v>
       </c>
@@ -9704,7 +9704,7 @@
         <f t="shared" si="24"/>
         <v>0.99849768691477359</v>
       </c>
-      <c r="N108" s="21"/>
+      <c r="N108" s="27"/>
       <c r="O108">
         <v>113248</v>
       </c>
@@ -9743,10 +9743,10 @@
         <f t="shared" si="28"/>
         <v>0.99796022887821423</v>
       </c>
-      <c r="Z108" s="21"/>
+      <c r="Z108" s="27"/>
     </row>
     <row r="109" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="24"/>
+      <c r="A109" s="25"/>
       <c r="B109">
         <v>120</v>
       </c>
@@ -9788,7 +9788,7 @@
         <f t="shared" si="24"/>
         <v>0.99451872523564766</v>
       </c>
-      <c r="N109" s="21"/>
+      <c r="N109" s="27"/>
       <c r="O109">
         <v>155347</v>
       </c>
@@ -9827,10 +9827,10 @@
         <f t="shared" si="28"/>
         <v>0.9643829620140717</v>
       </c>
-      <c r="Z109" s="21"/>
+      <c r="Z109" s="27"/>
     </row>
     <row r="110" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="24"/>
+      <c r="A110" s="25"/>
       <c r="B110">
         <v>121</v>
       </c>
@@ -9872,7 +9872,7 @@
         <f t="shared" si="24"/>
         <v>0.99407113467830199</v>
       </c>
-      <c r="N110" s="21"/>
+      <c r="N110" s="27"/>
       <c r="O110">
         <v>155347</v>
       </c>
@@ -9911,10 +9911,10 @@
         <f t="shared" si="28"/>
         <v>0.98130636574893626</v>
       </c>
-      <c r="Z110" s="21"/>
+      <c r="Z110" s="27"/>
     </row>
     <row r="111" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="24"/>
+      <c r="A111" s="25"/>
       <c r="B111">
         <v>122</v>
       </c>
@@ -9956,7 +9956,7 @@
         <f t="shared" si="24"/>
         <v>0.99979348689436065</v>
       </c>
-      <c r="N111" s="21"/>
+      <c r="N111" s="27"/>
       <c r="O111">
         <v>62941</v>
       </c>
@@ -9995,10 +9995,10 @@
         <f t="shared" si="28"/>
         <v>0.99982523315485927</v>
       </c>
-      <c r="Z111" s="21"/>
+      <c r="Z111" s="27"/>
     </row>
     <row r="112" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="24"/>
+      <c r="A112" s="25"/>
       <c r="B112">
         <v>123</v>
       </c>
@@ -10040,7 +10040,7 @@
         <f t="shared" si="24"/>
         <v>0.99978105322158295</v>
       </c>
-      <c r="N112" s="21"/>
+      <c r="N112" s="27"/>
       <c r="O112">
         <v>114116</v>
       </c>
@@ -10079,10 +10079,10 @@
         <f t="shared" si="28"/>
         <v>0.99979845069928841</v>
       </c>
-      <c r="Z112" s="21"/>
+      <c r="Z112" s="27"/>
     </row>
     <row r="113" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="24"/>
+      <c r="A113" s="25"/>
       <c r="B113">
         <v>124</v>
       </c>
@@ -10124,7 +10124,7 @@
         <f t="shared" si="24"/>
         <v>0.99392432160171251</v>
       </c>
-      <c r="N113" s="21"/>
+      <c r="N113" s="27"/>
       <c r="O113">
         <v>96615</v>
       </c>
@@ -10163,10 +10163,10 @@
         <f t="shared" si="28"/>
         <v>0.9947420172851007</v>
       </c>
-      <c r="Z113" s="21"/>
+      <c r="Z113" s="27"/>
     </row>
     <row r="114" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="24"/>
+      <c r="A114" s="25"/>
       <c r="B114">
         <v>126</v>
       </c>
@@ -10208,7 +10208,7 @@
         <f t="shared" si="24"/>
         <v>0.99685168869309837</v>
       </c>
-      <c r="N114" s="21"/>
+      <c r="N114" s="27"/>
       <c r="O114">
         <v>83864</v>
       </c>
@@ -10247,10 +10247,10 @@
         <f t="shared" si="28"/>
         <v>0.99651817227892781</v>
       </c>
-      <c r="Z114" s="21"/>
+      <c r="Z114" s="27"/>
     </row>
     <row r="115" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="24"/>
+      <c r="A115" s="25"/>
       <c r="B115">
         <v>127</v>
       </c>
@@ -10292,7 +10292,7 @@
         <f t="shared" si="24"/>
         <v>0.99583039106896665</v>
       </c>
-      <c r="N115" s="21"/>
+      <c r="N115" s="27"/>
       <c r="O115">
         <v>119368</v>
       </c>
@@ -10331,10 +10331,10 @@
         <f t="shared" si="28"/>
         <v>0.99548455197372832</v>
       </c>
-      <c r="Z115" s="21"/>
+      <c r="Z115" s="27"/>
     </row>
     <row r="116" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="24"/>
+      <c r="A116" s="25"/>
       <c r="B116">
         <v>128</v>
       </c>
@@ -10376,7 +10376,7 @@
         <f t="shared" si="24"/>
         <v>0.99919322307382008</v>
       </c>
-      <c r="N116" s="21"/>
+      <c r="N116" s="27"/>
       <c r="O116">
         <v>9970</v>
       </c>
@@ -10415,10 +10415,10 @@
         <f t="shared" si="28"/>
         <v>0.9990972918756269</v>
       </c>
-      <c r="Z116" s="21"/>
+      <c r="Z116" s="27"/>
     </row>
     <row r="117" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="24"/>
+      <c r="A117" s="25"/>
       <c r="B117">
         <v>130</v>
       </c>
@@ -10460,7 +10460,7 @@
         <f t="shared" si="24"/>
         <v>0.99514078380195359</v>
       </c>
-      <c r="N117" s="21"/>
+      <c r="N117" s="27"/>
       <c r="O117">
         <v>176555</v>
       </c>
@@ -10499,10 +10499,10 @@
         <f t="shared" si="28"/>
         <v>0.99420577157259782</v>
       </c>
-      <c r="Z117" s="21"/>
+      <c r="Z117" s="27"/>
     </row>
     <row r="118" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="24"/>
+      <c r="A118" s="25"/>
       <c r="B118">
         <v>131</v>
       </c>
@@ -10544,7 +10544,7 @@
         <f t="shared" si="24"/>
         <v>0.99814421058758673</v>
       </c>
-      <c r="N118" s="21"/>
+      <c r="N118" s="27"/>
       <c r="O118">
         <v>291190</v>
       </c>
@@ -10583,10 +10583,10 @@
         <f t="shared" si="28"/>
         <v>0.99808372540265811</v>
       </c>
-      <c r="Z118" s="21"/>
+      <c r="Z118" s="27"/>
     </row>
     <row r="119" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="24"/>
+      <c r="A119" s="25"/>
       <c r="B119">
         <v>132</v>
       </c>
@@ -10628,7 +10628,7 @@
         <f t="shared" si="24"/>
         <v>0.99537970069894088</v>
       </c>
-      <c r="N119" s="21"/>
+      <c r="N119" s="27"/>
       <c r="O119">
         <v>158397</v>
       </c>
@@ -10667,10 +10667,10 @@
         <f t="shared" si="28"/>
         <v>0.99578906166152137</v>
       </c>
-      <c r="Z119" s="21"/>
+      <c r="Z119" s="27"/>
     </row>
     <row r="120" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="24"/>
+      <c r="A120" s="25"/>
       <c r="B120">
         <v>133</v>
       </c>
@@ -10712,7 +10712,7 @@
         <f t="shared" si="24"/>
         <v>0.99968659276854055</v>
       </c>
-      <c r="N120" s="21"/>
+      <c r="N120" s="27"/>
       <c r="O120">
         <v>60058</v>
       </c>
@@ -10751,12 +10751,12 @@
         <f t="shared" si="28"/>
         <v>0.99983349428885415</v>
       </c>
-      <c r="Z120" s="21"/>
+      <c r="Z120" s="27"/>
     </row>
     <row r="121" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="24"/>
+      <c r="A121" s="25"/>
       <c r="B121" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C121" s="8">
         <f>AVERAGE(C26:C120)</f>
@@ -10802,7 +10802,7 @@
         <f t="shared" si="24"/>
         <v>0.99704727893286504</v>
       </c>
-      <c r="N121" s="21"/>
+      <c r="N121" s="27"/>
       <c r="O121" s="8">
         <f>AVERAGE(O26:O120)</f>
         <v>84809.126315789472</v>
@@ -10847,11 +10847,11 @@
         <f t="shared" si="28"/>
         <v>0.99418011989027488</v>
       </c>
-      <c r="Z121" s="21"/>
+      <c r="Z121" s="27"/>
     </row>
     <row r="122" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="24" t="s">
-        <v>25</v>
+      <c r="A122" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -10894,7 +10894,7 @@
         <f t="shared" ref="M122:M171" si="33">($C122-L122)/$C122</f>
         <v>0.96560196560196565</v>
       </c>
-      <c r="N122" s="21"/>
+      <c r="N122" s="27"/>
       <c r="O122">
         <v>155</v>
       </c>
@@ -10933,10 +10933,10 @@
         <f t="shared" ref="Y122:Y171" si="36">($O122-X122)/$O122</f>
         <v>0.87096774193548387</v>
       </c>
-      <c r="Z122" s="21"/>
+      <c r="Z122" s="27"/>
     </row>
     <row r="123" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="24"/>
+      <c r="A123" s="25"/>
       <c r="B123">
         <v>3</v>
       </c>
@@ -10978,7 +10978,7 @@
         <f t="shared" si="33"/>
         <v>0.96808510638297873</v>
       </c>
-      <c r="N123" s="21"/>
+      <c r="N123" s="27"/>
       <c r="O123">
         <v>123</v>
       </c>
@@ -11017,10 +11017,10 @@
         <f t="shared" si="36"/>
         <v>0.96747967479674801</v>
       </c>
-      <c r="Z123" s="21"/>
+      <c r="Z123" s="27"/>
     </row>
     <row r="124" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="24"/>
+      <c r="A124" s="25"/>
       <c r="B124">
         <v>4</v>
       </c>
@@ -11062,7 +11062,7 @@
         <f t="shared" si="33"/>
         <v>0.73529411764705888</v>
       </c>
-      <c r="N124" s="21"/>
+      <c r="N124" s="27"/>
       <c r="O124">
         <v>32</v>
       </c>
@@ -11101,10 +11101,10 @@
         <f t="shared" si="36"/>
         <v>0.71875</v>
       </c>
-      <c r="Z124" s="21"/>
+      <c r="Z124" s="27"/>
     </row>
     <row r="125" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="24"/>
+      <c r="A125" s="25"/>
       <c r="B125">
         <v>6</v>
       </c>
@@ -11146,7 +11146,7 @@
         <f t="shared" si="33"/>
         <v>0.82831661092530662</v>
       </c>
-      <c r="N125" s="21"/>
+      <c r="N125" s="27"/>
       <c r="O125">
         <v>1093</v>
       </c>
@@ -11185,10 +11185,10 @@
         <f t="shared" si="36"/>
         <v>0.78865507776761212</v>
       </c>
-      <c r="Z125" s="21"/>
+      <c r="Z125" s="27"/>
     </row>
     <row r="126" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="24"/>
+      <c r="A126" s="25"/>
       <c r="B126">
         <v>7</v>
       </c>
@@ -11230,7 +11230,7 @@
         <f t="shared" si="33"/>
         <v>0.92052980132450335</v>
       </c>
-      <c r="N126" s="21"/>
+      <c r="N126" s="27"/>
       <c r="O126">
         <v>63</v>
       </c>
@@ -11269,10 +11269,10 @@
         <f t="shared" si="36"/>
         <v>0.95238095238095233</v>
       </c>
-      <c r="Z126" s="21"/>
+      <c r="Z126" s="27"/>
     </row>
     <row r="127" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="24"/>
+      <c r="A127" s="25"/>
       <c r="B127">
         <v>8</v>
       </c>
@@ -11314,7 +11314,7 @@
         <f t="shared" si="33"/>
         <v>0.99986283989987312</v>
       </c>
-      <c r="N127" s="21"/>
+      <c r="N127" s="27"/>
       <c r="O127">
         <v>29161</v>
       </c>
@@ -11353,10 +11353,10 @@
         <f t="shared" si="36"/>
         <v>0.99982853811597683</v>
       </c>
-      <c r="Z127" s="21"/>
+      <c r="Z127" s="27"/>
     </row>
     <row r="128" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="24"/>
+      <c r="A128" s="25"/>
       <c r="B128">
         <v>9</v>
       </c>
@@ -11398,7 +11398,7 @@
         <f t="shared" si="33"/>
         <v>0.85211902614968438</v>
       </c>
-      <c r="N128" s="21"/>
+      <c r="N128" s="27"/>
       <c r="O128">
         <v>1309</v>
       </c>
@@ -11437,10 +11437,10 @@
         <f t="shared" si="36"/>
         <v>0.81741787624140561</v>
       </c>
-      <c r="Z128" s="21"/>
+      <c r="Z128" s="27"/>
     </row>
     <row r="129" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="24"/>
+      <c r="A129" s="25"/>
       <c r="B129">
         <v>10</v>
       </c>
@@ -11482,7 +11482,7 @@
         <f t="shared" si="33"/>
         <v>0.82831661092530662</v>
       </c>
-      <c r="N129" s="21"/>
+      <c r="N129" s="27"/>
       <c r="O129">
         <v>1093</v>
       </c>
@@ -11521,10 +11521,10 @@
         <f t="shared" si="36"/>
         <v>0.78865507776761212</v>
       </c>
-      <c r="Z129" s="21"/>
+      <c r="Z129" s="27"/>
     </row>
     <row r="130" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="24"/>
+      <c r="A130" s="25"/>
       <c r="B130">
         <v>11</v>
       </c>
@@ -11566,7 +11566,7 @@
         <f t="shared" si="33"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="N130" s="21"/>
+      <c r="N130" s="27"/>
       <c r="O130">
         <v>15</v>
       </c>
@@ -11605,10 +11605,10 @@
         <f t="shared" si="36"/>
         <v>0.8</v>
       </c>
-      <c r="Z130" s="21"/>
+      <c r="Z130" s="27"/>
     </row>
     <row r="131" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="24"/>
+      <c r="A131" s="25"/>
       <c r="B131">
         <v>12</v>
       </c>
@@ -11650,7 +11650,7 @@
         <f t="shared" si="33"/>
         <v>0.92052980132450335</v>
       </c>
-      <c r="N131" s="21"/>
+      <c r="N131" s="27"/>
       <c r="O131">
         <v>63</v>
       </c>
@@ -11689,10 +11689,10 @@
         <f t="shared" si="36"/>
         <v>0.95238095238095233</v>
       </c>
-      <c r="Z131" s="21"/>
+      <c r="Z131" s="27"/>
     </row>
     <row r="132" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="24"/>
+      <c r="A132" s="25"/>
       <c r="B132">
         <v>13</v>
       </c>
@@ -11734,7 +11734,7 @@
         <f t="shared" si="33"/>
         <v>0.99347826086956526</v>
       </c>
-      <c r="N132" s="21"/>
+      <c r="N132" s="27"/>
       <c r="O132">
         <v>46</v>
       </c>
@@ -11773,10 +11773,10 @@
         <f t="shared" si="36"/>
         <v>0.93478260869565222</v>
       </c>
-      <c r="Z132" s="21"/>
+      <c r="Z132" s="27"/>
     </row>
     <row r="133" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="24"/>
+      <c r="A133" s="25"/>
       <c r="B133">
         <v>14</v>
       </c>
@@ -11818,7 +11818,7 @@
         <f t="shared" si="33"/>
         <v>0.91803278688524592</v>
       </c>
-      <c r="N133" s="21"/>
+      <c r="N133" s="27"/>
       <c r="O133">
         <v>65</v>
       </c>
@@ -11857,10 +11857,10 @@
         <f t="shared" si="36"/>
         <v>0.87692307692307692</v>
       </c>
-      <c r="Z133" s="21"/>
+      <c r="Z133" s="27"/>
     </row>
     <row r="134" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="24"/>
+      <c r="A134" s="25"/>
       <c r="B134">
         <v>15</v>
       </c>
@@ -11902,7 +11902,7 @@
         <f t="shared" si="33"/>
         <v>0.98033126293995865</v>
       </c>
-      <c r="N134" s="21"/>
+      <c r="N134" s="27"/>
       <c r="O134">
         <v>846</v>
       </c>
@@ -11941,10 +11941,10 @@
         <f t="shared" si="36"/>
         <v>0.98463356973995275</v>
       </c>
-      <c r="Z134" s="21"/>
+      <c r="Z134" s="27"/>
     </row>
     <row r="135" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="24"/>
+      <c r="A135" s="25"/>
       <c r="B135">
         <v>16</v>
       </c>
@@ -11986,7 +11986,7 @@
         <f t="shared" si="33"/>
         <v>0.98552821997105644</v>
       </c>
-      <c r="N135" s="21"/>
+      <c r="N135" s="27"/>
       <c r="O135">
         <v>473</v>
       </c>
@@ -12025,10 +12025,10 @@
         <f t="shared" si="36"/>
         <v>0.95771670190274838</v>
       </c>
-      <c r="Z135" s="21"/>
+      <c r="Z135" s="27"/>
     </row>
     <row r="136" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="24"/>
+      <c r="A136" s="25"/>
       <c r="B136">
         <v>17</v>
       </c>
@@ -12070,7 +12070,7 @@
         <f t="shared" si="33"/>
         <v>0.99960845732184811</v>
       </c>
-      <c r="N136" s="21"/>
+      <c r="N136" s="27"/>
       <c r="O136">
         <v>5109</v>
       </c>
@@ -12109,10 +12109,10 @@
         <f t="shared" si="36"/>
         <v>0.99960853395967897</v>
       </c>
-      <c r="Z136" s="21"/>
+      <c r="Z136" s="27"/>
     </row>
     <row r="137" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="24"/>
+      <c r="A137" s="25"/>
       <c r="B137">
         <v>18</v>
       </c>
@@ -12154,7 +12154,7 @@
         <f t="shared" si="33"/>
         <v>0.99251653324051514</v>
       </c>
-      <c r="N137" s="21"/>
+      <c r="N137" s="27"/>
       <c r="O137">
         <v>5285</v>
       </c>
@@ -12193,10 +12193,10 @@
         <f t="shared" si="36"/>
         <v>0.99280983916745502</v>
       </c>
-      <c r="Z137" s="21"/>
+      <c r="Z137" s="27"/>
     </row>
     <row r="138" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="24"/>
+      <c r="A138" s="25"/>
       <c r="B138">
         <v>19</v>
       </c>
@@ -12238,7 +12238,7 @@
         <f t="shared" si="33"/>
         <v>0.98046181172291291</v>
       </c>
-      <c r="N138" s="21"/>
+      <c r="N138" s="27"/>
       <c r="O138">
         <v>469</v>
       </c>
@@ -12277,10 +12277,10 @@
         <f t="shared" si="36"/>
         <v>0.98081023454157779</v>
       </c>
-      <c r="Z138" s="21"/>
+      <c r="Z138" s="27"/>
     </row>
     <row r="139" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="24"/>
+      <c r="A139" s="25"/>
       <c r="B139">
         <v>20</v>
       </c>
@@ -12322,7 +12322,7 @@
         <f t="shared" si="33"/>
         <v>0.98046181172291291</v>
       </c>
-      <c r="N139" s="21"/>
+      <c r="N139" s="27"/>
       <c r="O139">
         <v>469</v>
       </c>
@@ -12361,10 +12361,10 @@
         <f t="shared" si="36"/>
         <v>0.98081023454157779</v>
       </c>
-      <c r="Z139" s="21"/>
+      <c r="Z139" s="27"/>
     </row>
     <row r="140" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="24"/>
+      <c r="A140" s="25"/>
       <c r="B140">
         <v>21</v>
       </c>
@@ -12406,7 +12406,7 @@
         <f t="shared" si="33"/>
         <v>0.95061728395061729</v>
       </c>
-      <c r="N140" s="21"/>
+      <c r="N140" s="27"/>
       <c r="O140">
         <v>71</v>
       </c>
@@ -12445,10 +12445,10 @@
         <f t="shared" si="36"/>
         <v>0.94366197183098588</v>
       </c>
-      <c r="Z140" s="21"/>
+      <c r="Z140" s="27"/>
     </row>
     <row r="141" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="24"/>
+      <c r="A141" s="25"/>
       <c r="B141">
         <v>22</v>
       </c>
@@ -12490,7 +12490,7 @@
         <f t="shared" si="33"/>
         <v>0.99211563731931673</v>
       </c>
-      <c r="N141" s="21"/>
+      <c r="N141" s="27"/>
       <c r="O141">
         <v>674</v>
       </c>
@@ -12529,10 +12529,10 @@
         <f t="shared" si="36"/>
         <v>0.99258160237388726</v>
       </c>
-      <c r="Z141" s="21"/>
+      <c r="Z141" s="27"/>
     </row>
     <row r="142" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="24"/>
+      <c r="A142" s="25"/>
       <c r="B142">
         <v>23</v>
       </c>
@@ -12574,7 +12574,7 @@
         <f t="shared" si="33"/>
         <v>0.96575342465753422</v>
       </c>
-      <c r="N142" s="21"/>
+      <c r="N142" s="27"/>
       <c r="O142">
         <v>2200</v>
       </c>
@@ -12613,10 +12613,10 @@
         <f t="shared" si="36"/>
         <v>0.98909090909090913</v>
       </c>
-      <c r="Z142" s="21"/>
+      <c r="Z142" s="27"/>
     </row>
     <row r="143" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="24"/>
+      <c r="A143" s="25"/>
       <c r="B143">
         <v>24</v>
       </c>
@@ -12658,7 +12658,7 @@
         <f t="shared" si="33"/>
         <v>0.99666464523953913</v>
       </c>
-      <c r="N143" s="21"/>
+      <c r="N143" s="27"/>
       <c r="O143">
         <v>3297</v>
       </c>
@@ -12697,10 +12697,10 @@
         <f t="shared" si="36"/>
         <v>0.99666363360630872</v>
       </c>
-      <c r="Z143" s="21"/>
+      <c r="Z143" s="27"/>
     </row>
     <row r="144" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="24"/>
+      <c r="A144" s="25"/>
       <c r="B144">
         <v>25</v>
       </c>
@@ -12742,7 +12742,7 @@
         <f t="shared" si="33"/>
         <v>0.95581395348837206</v>
       </c>
-      <c r="N144" s="21"/>
+      <c r="N144" s="27"/>
       <c r="O144">
         <v>1291</v>
       </c>
@@ -12781,10 +12781,10 @@
         <f t="shared" si="36"/>
         <v>0.95507358636715722</v>
       </c>
-      <c r="Z144" s="21"/>
+      <c r="Z144" s="27"/>
     </row>
     <row r="145" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="24"/>
+      <c r="A145" s="25"/>
       <c r="B145">
         <v>26</v>
       </c>
@@ -12826,7 +12826,7 @@
         <f t="shared" si="33"/>
         <v>0.98032786885245904</v>
       </c>
-      <c r="N145" s="21"/>
+      <c r="N145" s="27"/>
       <c r="O145">
         <v>304</v>
       </c>
@@ -12865,10 +12865,10 @@
         <f t="shared" si="36"/>
         <v>0.98026315789473684</v>
       </c>
-      <c r="Z145" s="21"/>
+      <c r="Z145" s="27"/>
     </row>
     <row r="146" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="24"/>
+      <c r="A146" s="25"/>
       <c r="B146">
         <v>28</v>
       </c>
@@ -12910,7 +12910,7 @@
         <f t="shared" si="33"/>
         <v>0.94219653179190754</v>
       </c>
-      <c r="N146" s="21"/>
+      <c r="N146" s="27"/>
       <c r="O146">
         <v>122</v>
       </c>
@@ -12949,10 +12949,10 @@
         <f t="shared" si="36"/>
         <v>0.93442622950819676</v>
       </c>
-      <c r="Z146" s="21"/>
+      <c r="Z146" s="27"/>
     </row>
     <row r="147" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="24"/>
+      <c r="A147" s="25"/>
       <c r="B147">
         <v>30</v>
       </c>
@@ -12994,7 +12994,7 @@
         <f t="shared" si="33"/>
         <v>0.66949152542372881</v>
       </c>
-      <c r="N147" s="21"/>
+      <c r="N147" s="27"/>
       <c r="O147">
         <v>43</v>
       </c>
@@ -13033,10 +13033,10 @@
         <f t="shared" si="36"/>
         <v>0.69767441860465118</v>
       </c>
-      <c r="Z147" s="21"/>
+      <c r="Z147" s="27"/>
     </row>
     <row r="148" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="24"/>
+      <c r="A148" s="25"/>
       <c r="B148">
         <v>31</v>
       </c>
@@ -13078,7 +13078,7 @@
         <f t="shared" si="33"/>
         <v>0.96153846153846156</v>
       </c>
-      <c r="N148" s="21"/>
+      <c r="N148" s="27"/>
       <c r="O148">
         <v>82</v>
       </c>
@@ -13117,10 +13117,10 @@
         <f t="shared" si="36"/>
         <v>0.97560975609756095</v>
       </c>
-      <c r="Z148" s="21"/>
+      <c r="Z148" s="27"/>
     </row>
     <row r="149" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="24"/>
+      <c r="A149" s="25"/>
       <c r="B149">
         <v>32</v>
       </c>
@@ -13162,7 +13162,7 @@
         <f t="shared" si="33"/>
         <v>0.99906110632970813</v>
       </c>
-      <c r="N149" s="21"/>
+      <c r="N149" s="27"/>
       <c r="O149">
         <v>355</v>
       </c>
@@ -13201,10 +13201,10 @@
         <f t="shared" si="36"/>
         <v>0.90422535211267607</v>
       </c>
-      <c r="Z149" s="21"/>
+      <c r="Z149" s="27"/>
     </row>
     <row r="150" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="24"/>
+      <c r="A150" s="25"/>
       <c r="B150">
         <v>34</v>
       </c>
@@ -13246,7 +13246,7 @@
         <f t="shared" si="33"/>
         <v>0.95806312148724604</v>
       </c>
-      <c r="N150" s="21"/>
+      <c r="N150" s="27"/>
       <c r="O150">
         <v>61401</v>
       </c>
@@ -13285,10 +13285,10 @@
         <f t="shared" si="36"/>
         <v>0.95576619273301733</v>
       </c>
-      <c r="Z150" s="21"/>
+      <c r="Z150" s="27"/>
     </row>
     <row r="151" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="24"/>
+      <c r="A151" s="25"/>
       <c r="B151">
         <v>36</v>
       </c>
@@ -13330,7 +13330,7 @@
         <f t="shared" si="33"/>
         <v>0.97697368421052633</v>
       </c>
-      <c r="N151" s="21"/>
+      <c r="N151" s="27"/>
       <c r="O151">
         <v>136</v>
       </c>
@@ -13369,10 +13369,10 @@
         <f t="shared" si="36"/>
         <v>0.9779411764705882</v>
       </c>
-      <c r="Z151" s="21"/>
+      <c r="Z151" s="27"/>
     </row>
     <row r="152" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="24"/>
+      <c r="A152" s="25"/>
       <c r="B152">
         <v>37</v>
       </c>
@@ -13414,7 +13414,7 @@
         <f t="shared" si="33"/>
         <v>0.93181818181818177</v>
       </c>
-      <c r="N152" s="21"/>
+      <c r="N152" s="27"/>
       <c r="O152">
         <v>37</v>
       </c>
@@ -13453,10 +13453,10 @@
         <f t="shared" si="36"/>
         <v>0.91891891891891897</v>
       </c>
-      <c r="Z152" s="21"/>
+      <c r="Z152" s="27"/>
     </row>
     <row r="153" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="24"/>
+      <c r="A153" s="25"/>
       <c r="B153">
         <v>38</v>
       </c>
@@ -13498,7 +13498,7 @@
         <f t="shared" si="33"/>
         <v>0.99751243781094523</v>
       </c>
-      <c r="N153" s="21"/>
+      <c r="N153" s="27"/>
       <c r="O153">
         <v>802</v>
       </c>
@@ -13537,10 +13537,10 @@
         <f t="shared" si="36"/>
         <v>0.99750623441396513</v>
       </c>
-      <c r="Z153" s="21"/>
+      <c r="Z153" s="27"/>
     </row>
     <row r="154" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="24"/>
+      <c r="A154" s="25"/>
       <c r="B154">
         <v>40</v>
       </c>
@@ -13582,7 +13582,7 @@
         <f t="shared" si="33"/>
         <v>0.79234972677595628</v>
       </c>
-      <c r="N154" s="21"/>
+      <c r="N154" s="27"/>
       <c r="O154">
         <v>60</v>
       </c>
@@ -13621,10 +13621,10 @@
         <f t="shared" si="36"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z154" s="21"/>
+      <c r="Z154" s="27"/>
     </row>
     <row r="155" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="24"/>
+      <c r="A155" s="25"/>
       <c r="B155">
         <v>41</v>
       </c>
@@ -13666,7 +13666,7 @@
         <f t="shared" si="33"/>
         <v>0.98010849909584086</v>
       </c>
-      <c r="N155" s="21"/>
+      <c r="N155" s="27"/>
       <c r="O155">
         <v>146</v>
       </c>
@@ -13705,10 +13705,10 @@
         <f t="shared" si="36"/>
         <v>0.9726027397260274</v>
       </c>
-      <c r="Z155" s="21"/>
+      <c r="Z155" s="27"/>
     </row>
     <row r="156" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="24"/>
+      <c r="A156" s="25"/>
       <c r="B156">
         <v>42</v>
       </c>
@@ -13750,7 +13750,7 @@
         <f t="shared" si="33"/>
         <v>0.99984583365451318</v>
       </c>
-      <c r="N156" s="21"/>
+      <c r="N156" s="27"/>
       <c r="O156">
         <v>13015</v>
       </c>
@@ -13789,10 +13789,10 @@
         <f t="shared" si="36"/>
         <v>0.99984633115635801</v>
       </c>
-      <c r="Z156" s="21"/>
+      <c r="Z156" s="27"/>
     </row>
     <row r="157" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="24"/>
+      <c r="A157" s="25"/>
       <c r="B157">
         <v>44</v>
       </c>
@@ -13834,7 +13834,7 @@
         <f t="shared" si="33"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="N157" s="21"/>
+      <c r="N157" s="27"/>
       <c r="O157">
         <v>26</v>
       </c>
@@ -13873,10 +13873,10 @@
         <f t="shared" si="36"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="Z157" s="21"/>
+      <c r="Z157" s="27"/>
     </row>
     <row r="158" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="24"/>
+      <c r="A158" s="25"/>
       <c r="B158">
         <v>45</v>
       </c>
@@ -13918,7 +13918,7 @@
         <f t="shared" si="33"/>
         <v>0.98842592592592593</v>
       </c>
-      <c r="N158" s="21"/>
+      <c r="N158" s="27"/>
       <c r="O158">
         <v>291</v>
       </c>
@@ -13957,10 +13957,10 @@
         <f t="shared" si="36"/>
         <v>0.98969072164948457</v>
       </c>
-      <c r="Z158" s="21"/>
+      <c r="Z158" s="27"/>
     </row>
     <row r="159" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="24"/>
+      <c r="A159" s="25"/>
       <c r="B159">
         <v>46</v>
       </c>
@@ -14002,7 +14002,7 @@
         <f t="shared" si="33"/>
         <v>0.96456692913385822</v>
       </c>
-      <c r="N159" s="21"/>
+      <c r="N159" s="27"/>
       <c r="O159">
         <v>253</v>
       </c>
@@ -14041,10 +14041,10 @@
         <f t="shared" si="36"/>
         <v>0.96442687747035571</v>
       </c>
-      <c r="Z159" s="21"/>
+      <c r="Z159" s="27"/>
     </row>
     <row r="160" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="24"/>
+      <c r="A160" s="25"/>
       <c r="B160">
         <v>47</v>
       </c>
@@ -14086,7 +14086,7 @@
         <f t="shared" si="33"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="N160" s="21"/>
+      <c r="N160" s="27"/>
       <c r="O160">
         <v>19</v>
       </c>
@@ -14125,10 +14125,10 @@
         <f t="shared" si="36"/>
         <v>0.89473684210526316</v>
       </c>
-      <c r="Z160" s="21"/>
+      <c r="Z160" s="27"/>
     </row>
     <row r="161" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="24"/>
+      <c r="A161" s="25"/>
       <c r="B161">
         <v>48</v>
       </c>
@@ -14170,7 +14170,7 @@
         <f t="shared" si="33"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="N161" s="21"/>
+      <c r="N161" s="27"/>
       <c r="O161">
         <v>34</v>
       </c>
@@ -14209,10 +14209,10 @@
         <f t="shared" si="36"/>
         <v>0.8529411764705882</v>
       </c>
-      <c r="Z161" s="21"/>
+      <c r="Z161" s="27"/>
     </row>
     <row r="162" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="24"/>
+      <c r="A162" s="25"/>
       <c r="B162">
         <v>49</v>
       </c>
@@ -14254,7 +14254,7 @@
         <f t="shared" si="33"/>
         <v>0.96179775280898872</v>
       </c>
-      <c r="N162" s="21"/>
+      <c r="N162" s="27"/>
       <c r="O162">
         <v>420</v>
       </c>
@@ -14293,10 +14293,10 @@
         <f t="shared" si="36"/>
         <v>0.97619047619047616</v>
       </c>
-      <c r="Z162" s="21"/>
+      <c r="Z162" s="27"/>
     </row>
     <row r="163" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="24"/>
+      <c r="A163" s="25"/>
       <c r="B163">
         <v>50</v>
       </c>
@@ -14338,7 +14338,7 @@
         <f t="shared" si="33"/>
         <v>0.96072796934865901</v>
       </c>
-      <c r="N163" s="21"/>
+      <c r="N163" s="27"/>
       <c r="O163">
         <v>1019</v>
       </c>
@@ -14377,10 +14377,10 @@
         <f t="shared" si="36"/>
         <v>0.96859666339548578</v>
       </c>
-      <c r="Z163" s="21"/>
+      <c r="Z163" s="27"/>
     </row>
     <row r="164" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="24"/>
+      <c r="A164" s="25"/>
       <c r="B164">
         <v>52</v>
       </c>
@@ -14422,7 +14422,7 @@
         <f t="shared" si="33"/>
         <v>0.97936962750716328</v>
       </c>
-      <c r="N164" s="21"/>
+      <c r="N164" s="27"/>
       <c r="O164">
         <v>1726</v>
       </c>
@@ -14461,10 +14461,10 @@
         <f t="shared" si="36"/>
         <v>0.98377752027809962</v>
       </c>
-      <c r="Z164" s="21"/>
+      <c r="Z164" s="27"/>
     </row>
     <row r="165" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="24"/>
+      <c r="A165" s="25"/>
       <c r="B165">
         <v>55</v>
       </c>
@@ -14506,7 +14506,7 @@
         <f t="shared" si="33"/>
         <v>0.87804878048780488</v>
       </c>
-      <c r="N165" s="21"/>
+      <c r="N165" s="27"/>
       <c r="O165">
         <v>40</v>
       </c>
@@ -14545,10 +14545,10 @@
         <f t="shared" si="36"/>
         <v>0.875</v>
       </c>
-      <c r="Z165" s="21"/>
+      <c r="Z165" s="27"/>
     </row>
     <row r="166" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="24"/>
+      <c r="A166" s="25"/>
       <c r="B166">
         <v>58</v>
       </c>
@@ -14590,7 +14590,7 @@
         <f t="shared" si="33"/>
         <v>0.86394557823129248</v>
       </c>
-      <c r="N166" s="21"/>
+      <c r="N166" s="27"/>
       <c r="O166">
         <v>137</v>
       </c>
@@ -14629,10 +14629,10 @@
         <f t="shared" si="36"/>
         <v>0.85401459854014594</v>
       </c>
-      <c r="Z166" s="21"/>
+      <c r="Z166" s="27"/>
     </row>
     <row r="167" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="24"/>
+      <c r="A167" s="25"/>
       <c r="B167">
         <v>60</v>
       </c>
@@ -14674,7 +14674,7 @@
         <f t="shared" si="33"/>
         <v>0.8833333333333333</v>
       </c>
-      <c r="N167" s="21"/>
+      <c r="N167" s="27"/>
       <c r="O167">
         <v>101</v>
       </c>
@@ -14713,10 +14713,10 @@
         <f t="shared" si="36"/>
         <v>0.85148514851485146</v>
       </c>
-      <c r="Z167" s="21"/>
+      <c r="Z167" s="27"/>
     </row>
     <row r="168" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="24"/>
+      <c r="A168" s="25"/>
       <c r="B168">
         <v>61</v>
       </c>
@@ -14758,7 +14758,7 @@
         <f t="shared" si="33"/>
         <v>0.82692307692307687</v>
       </c>
-      <c r="N168" s="21"/>
+      <c r="N168" s="27"/>
       <c r="O168">
         <v>132</v>
       </c>
@@ -14797,10 +14797,10 @@
         <f t="shared" si="36"/>
         <v>0.86363636363636365</v>
       </c>
-      <c r="Z168" s="21"/>
+      <c r="Z168" s="27"/>
     </row>
     <row r="169" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="24"/>
+      <c r="A169" s="25"/>
       <c r="B169">
         <v>63</v>
       </c>
@@ -14842,7 +14842,7 @@
         <f t="shared" si="33"/>
         <v>0.92079207920792083</v>
       </c>
-      <c r="N169" s="21"/>
+      <c r="N169" s="27"/>
       <c r="O169">
         <v>244</v>
       </c>
@@ -14881,10 +14881,10 @@
         <f t="shared" si="36"/>
         <v>0.78278688524590168</v>
       </c>
-      <c r="Z169" s="21"/>
+      <c r="Z169" s="27"/>
     </row>
     <row r="170" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="24"/>
+      <c r="A170" s="25"/>
       <c r="B170">
         <v>64</v>
       </c>
@@ -14926,7 +14926,7 @@
         <f t="shared" si="33"/>
         <v>0.99069767441860468</v>
       </c>
-      <c r="N170" s="21"/>
+      <c r="N170" s="27"/>
       <c r="O170">
         <v>273</v>
       </c>
@@ -14965,12 +14965,12 @@
         <f t="shared" si="36"/>
         <v>0.98901098901098905</v>
       </c>
-      <c r="Z170" s="21"/>
+      <c r="Z170" s="27"/>
     </row>
     <row r="171" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="24"/>
+      <c r="A171" s="25"/>
       <c r="B171" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C171" s="8">
         <f t="shared" ref="C171:L171" si="40">AVERAGE(C122:C170)</f>
@@ -15016,7 +15016,7 @@
         <f t="shared" si="33"/>
         <v>0.97998618079129984</v>
       </c>
-      <c r="N171" s="21"/>
+      <c r="N171" s="27"/>
       <c r="O171" s="8">
         <f t="shared" ref="O171:X171" si="41">AVERAGE(O122:O170)</f>
         <v>2747.3469387755104</v>
@@ -15061,11 +15061,11 @@
         <f t="shared" si="36"/>
         <v>0.97044272767790818</v>
       </c>
-      <c r="Z171" s="21"/>
+      <c r="Z171" s="27"/>
     </row>
     <row r="172" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="24" t="s">
-        <v>26</v>
+      <c r="A172" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -15108,7 +15108,7 @@
         <f t="shared" ref="M172:M235" si="45">($C172-L172)/$C172</f>
         <v>0.99838187702265369</v>
       </c>
-      <c r="N172" s="21"/>
+      <c r="N172" s="27"/>
       <c r="O172">
         <v>3120</v>
       </c>
@@ -15147,10 +15147,10 @@
         <f t="shared" ref="Y172:Y235" si="49">($O172-X172)/$O172</f>
         <v>0.99903846153846154</v>
       </c>
-      <c r="Z172" s="21"/>
+      <c r="Z172" s="27"/>
     </row>
     <row r="173" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="24"/>
+      <c r="A173" s="25"/>
       <c r="B173">
         <v>3</v>
       </c>
@@ -15192,7 +15192,7 @@
         <f t="shared" si="45"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N173" s="21"/>
+      <c r="N173" s="27"/>
       <c r="O173">
         <v>22</v>
       </c>
@@ -15231,10 +15231,10 @@
         <f t="shared" si="49"/>
         <v>0.86363636363636365</v>
       </c>
-      <c r="Z173" s="21"/>
+      <c r="Z173" s="27"/>
     </row>
     <row r="174" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="24"/>
+      <c r="A174" s="25"/>
       <c r="B174">
         <v>4</v>
       </c>
@@ -15276,7 +15276,7 @@
         <f t="shared" si="45"/>
         <v>0.99671951886276655</v>
       </c>
-      <c r="N174" s="21"/>
+      <c r="N174" s="27"/>
       <c r="O174">
         <v>1486</v>
       </c>
@@ -15315,10 +15315,10 @@
         <f t="shared" si="49"/>
         <v>0.99663526244952894</v>
       </c>
-      <c r="Z174" s="21"/>
+      <c r="Z174" s="27"/>
     </row>
     <row r="175" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="24"/>
+      <c r="A175" s="25"/>
       <c r="B175">
         <v>5</v>
       </c>
@@ -15360,7 +15360,7 @@
         <f t="shared" si="45"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N175" s="21"/>
+      <c r="N175" s="27"/>
       <c r="O175">
         <v>11</v>
       </c>
@@ -15399,10 +15399,10 @@
         <f t="shared" si="49"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="Z175" s="21"/>
+      <c r="Z175" s="27"/>
     </row>
     <row r="176" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="24"/>
+      <c r="A176" s="25"/>
       <c r="B176">
         <v>6</v>
       </c>
@@ -15444,7 +15444,7 @@
         <f t="shared" si="45"/>
         <v>0.97210509244242616</v>
       </c>
-      <c r="N176" s="21"/>
+      <c r="N176" s="27"/>
       <c r="O176">
         <v>3049</v>
       </c>
@@ -15483,10 +15483,10 @@
         <f t="shared" si="49"/>
         <v>0.97408986552968191</v>
       </c>
-      <c r="Z176" s="21"/>
+      <c r="Z176" s="27"/>
     </row>
     <row r="177" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="24"/>
+      <c r="A177" s="25"/>
       <c r="B177">
         <v>7</v>
       </c>
@@ -15528,7 +15528,7 @@
         <f t="shared" si="45"/>
         <v>0.99938531322530388</v>
       </c>
-      <c r="N177" s="21"/>
+      <c r="N177" s="27"/>
       <c r="O177">
         <v>24203</v>
       </c>
@@ -15567,10 +15567,10 @@
         <f t="shared" si="49"/>
         <v>0.9958269635995538</v>
       </c>
-      <c r="Z177" s="21"/>
+      <c r="Z177" s="27"/>
     </row>
     <row r="178" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="24"/>
+      <c r="A178" s="25"/>
       <c r="B178">
         <v>8</v>
       </c>
@@ -15612,7 +15612,7 @@
         <f t="shared" si="45"/>
         <v>0.99792638672887501</v>
       </c>
-      <c r="N178" s="21"/>
+      <c r="N178" s="27"/>
       <c r="O178">
         <v>5783</v>
       </c>
@@ -15651,10 +15651,10 @@
         <f t="shared" si="49"/>
         <v>0.99792495244682689</v>
       </c>
-      <c r="Z178" s="21"/>
+      <c r="Z178" s="27"/>
     </row>
     <row r="179" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="24"/>
+      <c r="A179" s="25"/>
       <c r="B179">
         <v>9</v>
       </c>
@@ -15696,7 +15696,7 @@
         <f t="shared" si="45"/>
         <v>0.94565217391304346</v>
       </c>
-      <c r="N179" s="21"/>
+      <c r="N179" s="27"/>
       <c r="O179">
         <v>412</v>
       </c>
@@ -15735,10 +15735,10 @@
         <f t="shared" si="49"/>
         <v>0.95145631067961167</v>
       </c>
-      <c r="Z179" s="21"/>
+      <c r="Z179" s="27"/>
     </row>
     <row r="180" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="24"/>
+      <c r="A180" s="25"/>
       <c r="B180">
         <v>10</v>
       </c>
@@ -15780,7 +15780,7 @@
         <f t="shared" si="45"/>
         <v>0.99805194805194808</v>
       </c>
-      <c r="N180" s="21"/>
+      <c r="N180" s="27"/>
       <c r="O180">
         <v>2095</v>
       </c>
@@ -15819,10 +15819,10 @@
         <f t="shared" si="49"/>
         <v>0.99713603818615748</v>
       </c>
-      <c r="Z180" s="21"/>
+      <c r="Z180" s="27"/>
     </row>
     <row r="181" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="24"/>
+      <c r="A181" s="25"/>
       <c r="B181">
         <v>11</v>
       </c>
@@ -15864,7 +15864,7 @@
         <f t="shared" si="45"/>
         <v>0.99940053789572603</v>
       </c>
-      <c r="N181" s="21"/>
+      <c r="N181" s="27"/>
       <c r="O181">
         <v>12431</v>
       </c>
@@ -15903,10 +15903,10 @@
         <f t="shared" si="49"/>
         <v>0.99790845466977718</v>
       </c>
-      <c r="Z181" s="21"/>
+      <c r="Z181" s="27"/>
     </row>
     <row r="182" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="24"/>
+      <c r="A182" s="25"/>
       <c r="B182">
         <v>12</v>
       </c>
@@ -15948,7 +15948,7 @@
         <f t="shared" si="45"/>
         <v>0.99937624750498999</v>
       </c>
-      <c r="N182" s="21"/>
+      <c r="N182" s="27"/>
       <c r="O182">
         <v>16407</v>
       </c>
@@ -15987,10 +15987,10 @@
         <f t="shared" si="49"/>
         <v>0.99902480648503689</v>
       </c>
-      <c r="Z182" s="21"/>
+      <c r="Z182" s="27"/>
     </row>
     <row r="183" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="24"/>
+      <c r="A183" s="25"/>
       <c r="B183">
         <v>21</v>
       </c>
@@ -16032,7 +16032,7 @@
         <f t="shared" si="45"/>
         <v>0.92146866230121605</v>
       </c>
-      <c r="N183" s="21"/>
+      <c r="N183" s="27"/>
       <c r="O183">
         <v>19049</v>
       </c>
@@ -16071,10 +16071,10 @@
         <f t="shared" si="49"/>
         <v>0.95842301433146093</v>
       </c>
-      <c r="Z183" s="21"/>
+      <c r="Z183" s="27"/>
     </row>
     <row r="184" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="24"/>
+      <c r="A184" s="25"/>
       <c r="B184">
         <v>23</v>
       </c>
@@ -16116,7 +16116,7 @@
         <f t="shared" si="45"/>
         <v>0.93232131562302345</v>
       </c>
-      <c r="N184" s="21"/>
+      <c r="N184" s="27"/>
       <c r="O184">
         <v>1469</v>
       </c>
@@ -16155,10 +16155,10 @@
         <f t="shared" si="49"/>
         <v>0.94622191967324709</v>
       </c>
-      <c r="Z184" s="21"/>
+      <c r="Z184" s="27"/>
     </row>
     <row r="185" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="24"/>
+      <c r="A185" s="25"/>
       <c r="B185">
         <v>24</v>
       </c>
@@ -16200,7 +16200,7 @@
         <f t="shared" si="45"/>
         <v>0.99404761904761907</v>
       </c>
-      <c r="N185" s="21"/>
+      <c r="N185" s="27"/>
       <c r="O185">
         <v>1502</v>
       </c>
@@ -16239,10 +16239,10 @@
         <f t="shared" si="49"/>
         <v>0.99533954727030627</v>
       </c>
-      <c r="Z185" s="21"/>
+      <c r="Z185" s="27"/>
     </row>
     <row r="186" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="24"/>
+      <c r="A186" s="25"/>
       <c r="B186">
         <v>27</v>
       </c>
@@ -16284,7 +16284,7 @@
         <f t="shared" si="45"/>
         <v>0.99170812603648428</v>
       </c>
-      <c r="N186" s="21"/>
+      <c r="N186" s="27"/>
       <c r="O186">
         <v>731</v>
       </c>
@@ -16323,10 +16323,10 @@
         <f t="shared" si="49"/>
         <v>0.987688098495212</v>
       </c>
-      <c r="Z186" s="21"/>
+      <c r="Z186" s="27"/>
     </row>
     <row r="187" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="24"/>
+      <c r="A187" s="25"/>
       <c r="B187">
         <v>28</v>
       </c>
@@ -16368,7 +16368,7 @@
         <f t="shared" si="45"/>
         <v>0.94812974868497957</v>
       </c>
-      <c r="N187" s="21"/>
+      <c r="N187" s="27"/>
       <c r="O187">
         <v>9411</v>
       </c>
@@ -16407,10 +16407,10 @@
         <f t="shared" si="49"/>
         <v>0.99808734459674853</v>
       </c>
-      <c r="Z187" s="21"/>
+      <c r="Z187" s="27"/>
     </row>
     <row r="188" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="24"/>
+      <c r="A188" s="25"/>
       <c r="B188">
         <v>29</v>
       </c>
@@ -16452,7 +16452,7 @@
         <f t="shared" si="45"/>
         <v>0.82383226384121777</v>
       </c>
-      <c r="N188" s="21"/>
+      <c r="N188" s="27"/>
       <c r="O188">
         <v>9286</v>
       </c>
@@ -16491,10 +16491,10 @@
         <f t="shared" si="49"/>
         <v>0.83663579582166703</v>
       </c>
-      <c r="Z188" s="21"/>
+      <c r="Z188" s="27"/>
     </row>
     <row r="189" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="24"/>
+      <c r="A189" s="25"/>
       <c r="B189">
         <v>30</v>
       </c>
@@ -16536,7 +16536,7 @@
         <f t="shared" si="45"/>
         <v>0.9698340874811463</v>
       </c>
-      <c r="N189" s="21"/>
+      <c r="N189" s="27"/>
       <c r="O189">
         <v>807</v>
       </c>
@@ -16575,10 +16575,10 @@
         <f t="shared" si="49"/>
         <v>0.98141263940520451</v>
       </c>
-      <c r="Z189" s="21"/>
+      <c r="Z189" s="27"/>
     </row>
     <row r="190" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="24"/>
+      <c r="A190" s="25"/>
       <c r="B190">
         <v>33</v>
       </c>
@@ -16620,7 +16620,7 @@
         <f t="shared" si="45"/>
         <v>0.98743841030916668</v>
       </c>
-      <c r="N190" s="21"/>
+      <c r="N190" s="27"/>
       <c r="O190">
         <v>14656</v>
       </c>
@@ -16659,10 +16659,10 @@
         <f t="shared" si="49"/>
         <v>0.98792303493449785</v>
       </c>
-      <c r="Z190" s="21"/>
+      <c r="Z190" s="27"/>
     </row>
     <row r="191" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="24"/>
+      <c r="A191" s="25"/>
       <c r="B191">
         <v>34</v>
       </c>
@@ -16704,7 +16704,7 @@
         <f t="shared" si="45"/>
         <v>0.96894409937888204</v>
       </c>
-      <c r="N191" s="21"/>
+      <c r="N191" s="27"/>
       <c r="O191">
         <v>167</v>
       </c>
@@ -16743,10 +16743,10 @@
         <f t="shared" si="49"/>
         <v>0.9760479041916168</v>
       </c>
-      <c r="Z191" s="21"/>
+      <c r="Z191" s="27"/>
     </row>
     <row r="192" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="24"/>
+      <c r="A192" s="25"/>
       <c r="B192">
         <v>35</v>
       </c>
@@ -16788,7 +16788,7 @@
         <f t="shared" si="45"/>
         <v>0.99815384615384617</v>
       </c>
-      <c r="N192" s="21"/>
+      <c r="N192" s="27"/>
       <c r="O192">
         <v>17</v>
       </c>
@@ -16827,10 +16827,10 @@
         <f t="shared" si="49"/>
         <v>0.82352941176470584</v>
       </c>
-      <c r="Z192" s="21"/>
+      <c r="Z192" s="27"/>
     </row>
     <row r="193" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="24"/>
+      <c r="A193" s="25"/>
       <c r="B193">
         <v>36</v>
       </c>
@@ -16872,7 +16872,7 @@
         <f t="shared" si="45"/>
         <v>0.99529534762153682</v>
       </c>
-      <c r="N193" s="21"/>
+      <c r="N193" s="27"/>
       <c r="O193">
         <v>1909</v>
       </c>
@@ -16911,10 +16911,10 @@
         <f t="shared" si="49"/>
         <v>0.99685699319015186</v>
       </c>
-      <c r="Z193" s="21"/>
+      <c r="Z193" s="27"/>
     </row>
     <row r="194" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="24"/>
+      <c r="A194" s="25"/>
       <c r="B194">
         <v>37</v>
       </c>
@@ -16956,7 +16956,7 @@
         <f t="shared" si="45"/>
         <v>0.95843520782396086</v>
       </c>
-      <c r="N194" s="21"/>
+      <c r="N194" s="27"/>
       <c r="O194">
         <v>814</v>
       </c>
@@ -16995,10 +16995,10 @@
         <f t="shared" si="49"/>
         <v>0.9766584766584766</v>
       </c>
-      <c r="Z194" s="21"/>
+      <c r="Z194" s="27"/>
     </row>
     <row r="195" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="24"/>
+      <c r="A195" s="25"/>
       <c r="B195">
         <v>38</v>
       </c>
@@ -17040,7 +17040,7 @@
         <f t="shared" si="45"/>
         <v>0.9698340874811463</v>
       </c>
-      <c r="N195" s="21"/>
+      <c r="N195" s="27"/>
       <c r="O195">
         <v>812</v>
       </c>
@@ -17079,10 +17079,10 @@
         <f t="shared" si="49"/>
         <v>0.98152709359605916</v>
       </c>
-      <c r="Z195" s="21"/>
+      <c r="Z195" s="27"/>
     </row>
     <row r="196" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="24"/>
+      <c r="A196" s="25"/>
       <c r="B196">
         <v>39</v>
       </c>
@@ -17124,7 +17124,7 @@
         <f t="shared" si="45"/>
         <v>0.99640102827763499</v>
       </c>
-      <c r="N196" s="21"/>
+      <c r="N196" s="27"/>
       <c r="O196">
         <v>1005</v>
       </c>
@@ -17163,10 +17163,10 @@
         <f t="shared" si="49"/>
         <v>0.99601990049751243</v>
       </c>
-      <c r="Z196" s="21"/>
+      <c r="Z196" s="27"/>
     </row>
     <row r="197" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="24"/>
+      <c r="A197" s="25"/>
       <c r="B197">
         <v>40</v>
       </c>
@@ -17208,7 +17208,7 @@
         <f t="shared" si="45"/>
         <v>0.93043478260869561</v>
       </c>
-      <c r="N197" s="21"/>
+      <c r="N197" s="27"/>
       <c r="O197">
         <v>13057</v>
       </c>
@@ -17247,10 +17247,10 @@
         <f t="shared" si="49"/>
         <v>0.93214367772076279</v>
       </c>
-      <c r="Z197" s="21"/>
+      <c r="Z197" s="27"/>
     </row>
     <row r="198" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="24"/>
+      <c r="A198" s="25"/>
       <c r="B198">
         <v>41</v>
       </c>
@@ -17292,7 +17292,7 @@
         <f t="shared" si="45"/>
         <v>0.98540145985401462</v>
       </c>
-      <c r="N198" s="21"/>
+      <c r="N198" s="27"/>
       <c r="O198">
         <v>794</v>
       </c>
@@ -17331,10 +17331,10 @@
         <f t="shared" si="49"/>
         <v>0.91939546599496225</v>
       </c>
-      <c r="Z198" s="21"/>
+      <c r="Z198" s="27"/>
     </row>
     <row r="199" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="24"/>
+      <c r="A199" s="25"/>
       <c r="B199">
         <v>42</v>
       </c>
@@ -17376,7 +17376,7 @@
         <f t="shared" si="45"/>
         <v>0.99291784702549579</v>
       </c>
-      <c r="N199" s="21"/>
+      <c r="N199" s="27"/>
       <c r="O199">
         <v>3558</v>
       </c>
@@ -17415,10 +17415,10 @@
         <f t="shared" si="49"/>
         <v>0.992973580663294</v>
       </c>
-      <c r="Z199" s="21"/>
+      <c r="Z199" s="27"/>
     </row>
     <row r="200" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="24"/>
+      <c r="A200" s="25"/>
       <c r="B200">
         <v>43</v>
       </c>
@@ -17460,7 +17460,7 @@
         <f t="shared" si="45"/>
         <v>0.96903225806451609</v>
       </c>
-      <c r="N200" s="21"/>
+      <c r="N200" s="27"/>
       <c r="O200">
         <v>721</v>
       </c>
@@ -17499,10 +17499,10 @@
         <f t="shared" si="49"/>
         <v>0.97642163661581138</v>
       </c>
-      <c r="Z200" s="21"/>
+      <c r="Z200" s="27"/>
     </row>
     <row r="201" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="24"/>
+      <c r="A201" s="25"/>
       <c r="B201">
         <v>44</v>
       </c>
@@ -17544,7 +17544,7 @@
         <f t="shared" si="45"/>
         <v>0.99935366793447189</v>
       </c>
-      <c r="N201" s="21"/>
+      <c r="N201" s="27"/>
       <c r="O201">
         <v>21453</v>
       </c>
@@ -17583,10 +17583,10 @@
         <f t="shared" si="49"/>
         <v>0.9989745024005966</v>
       </c>
-      <c r="Z201" s="21"/>
+      <c r="Z201" s="27"/>
     </row>
     <row r="202" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="24"/>
+      <c r="A202" s="25"/>
       <c r="B202">
         <v>53</v>
       </c>
@@ -17628,7 +17628,7 @@
         <f t="shared" si="45"/>
         <v>0.9358974358974359</v>
       </c>
-      <c r="N202" s="21"/>
+      <c r="N202" s="27"/>
       <c r="O202">
         <v>254</v>
       </c>
@@ -17667,10 +17667,10 @@
         <f t="shared" si="49"/>
         <v>0.94488188976377951</v>
       </c>
-      <c r="Z202" s="21"/>
+      <c r="Z202" s="27"/>
     </row>
     <row r="203" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="24"/>
+      <c r="A203" s="25"/>
       <c r="B203">
         <v>66</v>
       </c>
@@ -17712,7 +17712,7 @@
         <f t="shared" si="45"/>
         <v>0.82481572481572485</v>
       </c>
-      <c r="N203" s="21"/>
+      <c r="N203" s="27"/>
       <c r="O203">
         <v>6554</v>
       </c>
@@ -17751,10 +17751,10 @@
         <f t="shared" si="49"/>
         <v>0.80958193469636863</v>
       </c>
-      <c r="Z203" s="21"/>
+      <c r="Z203" s="27"/>
     </row>
     <row r="204" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="24"/>
+      <c r="A204" s="25"/>
       <c r="B204">
         <v>67</v>
       </c>
@@ -17796,7 +17796,7 @@
         <f t="shared" si="45"/>
         <v>0.99965124389676818</v>
       </c>
-      <c r="N204" s="21"/>
+      <c r="N204" s="27"/>
       <c r="O204">
         <v>8563</v>
       </c>
@@ -17835,10 +17835,10 @@
         <f t="shared" si="49"/>
         <v>0.99941609249094943</v>
       </c>
-      <c r="Z204" s="21"/>
+      <c r="Z204" s="27"/>
     </row>
     <row r="205" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="24"/>
+      <c r="A205" s="25"/>
       <c r="B205">
         <v>70</v>
       </c>
@@ -17880,7 +17880,7 @@
         <f t="shared" si="45"/>
         <v>0.99904232905573642</v>
       </c>
-      <c r="N205" s="21"/>
+      <c r="N205" s="27"/>
       <c r="O205">
         <v>4961</v>
       </c>
@@ -17919,10 +17919,10 @@
         <f t="shared" si="49"/>
         <v>0.99899213868171743</v>
       </c>
-      <c r="Z205" s="21"/>
+      <c r="Z205" s="27"/>
     </row>
     <row r="206" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="24"/>
+      <c r="A206" s="25"/>
       <c r="B206">
         <v>71</v>
       </c>
@@ -17964,7 +17964,7 @@
         <f t="shared" si="45"/>
         <v>0.93260654112983155</v>
       </c>
-      <c r="N206" s="21"/>
+      <c r="N206" s="27"/>
       <c r="O206">
         <v>236</v>
       </c>
@@ -18003,10 +18003,10 @@
         <f t="shared" si="49"/>
         <v>0.9152542372881356</v>
       </c>
-      <c r="Z206" s="21"/>
+      <c r="Z206" s="27"/>
     </row>
     <row r="207" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="24"/>
+      <c r="A207" s="25"/>
       <c r="B207">
         <v>72</v>
       </c>
@@ -18048,7 +18048,7 @@
         <f t="shared" si="45"/>
         <v>0.99991013659237959</v>
       </c>
-      <c r="N207" s="21"/>
+      <c r="N207" s="27"/>
       <c r="O207">
         <v>11091</v>
       </c>
@@ -18087,10 +18087,10 @@
         <f t="shared" si="49"/>
         <v>0.99927869443693085</v>
       </c>
-      <c r="Z207" s="21"/>
+      <c r="Z207" s="27"/>
     </row>
     <row r="208" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="24"/>
+      <c r="A208" s="25"/>
       <c r="B208">
         <v>73</v>
       </c>
@@ -18132,7 +18132,7 @@
         <f t="shared" si="45"/>
         <v>0.99990959226109755</v>
       </c>
-      <c r="N208" s="21"/>
+      <c r="N208" s="27"/>
       <c r="O208">
         <v>11764</v>
       </c>
@@ -18171,10 +18171,10 @@
         <f t="shared" si="49"/>
         <v>0.99991499489969393</v>
       </c>
-      <c r="Z208" s="21"/>
+      <c r="Z208" s="27"/>
     </row>
     <row r="209" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="24"/>
+      <c r="A209" s="25"/>
       <c r="B209">
         <v>74</v>
       </c>
@@ -18216,7 +18216,7 @@
         <f t="shared" si="45"/>
         <v>0.94239036973344803</v>
       </c>
-      <c r="N209" s="21"/>
+      <c r="N209" s="27"/>
       <c r="O209">
         <v>379</v>
       </c>
@@ -18255,10 +18255,10 @@
         <f t="shared" si="49"/>
         <v>0.94986807387862793</v>
       </c>
-      <c r="Z209" s="21"/>
+      <c r="Z209" s="27"/>
     </row>
     <row r="210" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="24"/>
+      <c r="A210" s="25"/>
       <c r="B210">
         <v>75</v>
       </c>
@@ -18300,7 +18300,7 @@
         <f t="shared" si="45"/>
         <v>0.99552715654952073</v>
       </c>
-      <c r="N210" s="21"/>
+      <c r="N210" s="27"/>
       <c r="O210">
         <v>2683</v>
       </c>
@@ -18339,10 +18339,10 @@
         <f t="shared" si="49"/>
         <v>0.99627282892284752</v>
       </c>
-      <c r="Z210" s="21"/>
+      <c r="Z210" s="27"/>
     </row>
     <row r="211" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="24"/>
+      <c r="A211" s="25"/>
       <c r="B211">
         <v>76</v>
       </c>
@@ -18384,7 +18384,7 @@
         <f t="shared" si="45"/>
         <v>0.99767564248750107</v>
       </c>
-      <c r="N211" s="21"/>
+      <c r="N211" s="27"/>
       <c r="O211">
         <v>2345</v>
       </c>
@@ -18423,10 +18423,10 @@
         <f t="shared" si="49"/>
         <v>0.97995735607675905</v>
       </c>
-      <c r="Z211" s="21"/>
+      <c r="Z211" s="27"/>
     </row>
     <row r="212" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="24"/>
+      <c r="A212" s="25"/>
       <c r="B212">
         <v>77</v>
       </c>
@@ -18468,7 +18468,7 @@
         <f t="shared" si="45"/>
         <v>0.99456419868791002</v>
       </c>
-      <c r="N212" s="21"/>
+      <c r="N212" s="27"/>
       <c r="O212">
         <v>3566</v>
       </c>
@@ -18507,10 +18507,10 @@
         <f t="shared" si="49"/>
         <v>0.99495232753785756</v>
       </c>
-      <c r="Z212" s="21"/>
+      <c r="Z212" s="27"/>
     </row>
     <row r="213" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="24"/>
+      <c r="A213" s="25"/>
       <c r="B213">
         <v>78</v>
       </c>
@@ -18552,7 +18552,7 @@
         <f t="shared" si="45"/>
         <v>0.96758349705304514</v>
       </c>
-      <c r="N213" s="21"/>
+      <c r="N213" s="27"/>
       <c r="O213">
         <v>690</v>
       </c>
@@ -18591,10 +18591,10 @@
         <f t="shared" si="49"/>
         <v>0.97246376811594204</v>
       </c>
-      <c r="Z213" s="21"/>
+      <c r="Z213" s="27"/>
     </row>
     <row r="214" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="24"/>
+      <c r="A214" s="25"/>
       <c r="B214">
         <v>79</v>
       </c>
@@ -18636,7 +18636,7 @@
         <f t="shared" si="45"/>
         <v>0.95819935691318325</v>
       </c>
-      <c r="N214" s="21"/>
+      <c r="N214" s="27"/>
       <c r="O214">
         <v>62</v>
       </c>
@@ -18675,10 +18675,10 @@
         <f t="shared" si="49"/>
         <v>0.80645161290322576</v>
       </c>
-      <c r="Z214" s="21"/>
+      <c r="Z214" s="27"/>
     </row>
     <row r="215" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="24"/>
+      <c r="A215" s="25"/>
       <c r="B215">
         <v>80</v>
       </c>
@@ -18720,7 +18720,7 @@
         <f t="shared" si="45"/>
         <v>0.99998069945186441</v>
       </c>
-      <c r="N215" s="21"/>
+      <c r="N215" s="27"/>
       <c r="O215">
         <v>36921</v>
       </c>
@@ -18759,10 +18759,10 @@
         <f t="shared" si="49"/>
         <v>0.99804989030632973</v>
       </c>
-      <c r="Z215" s="21"/>
+      <c r="Z215" s="27"/>
     </row>
     <row r="216" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="24"/>
+      <c r="A216" s="25"/>
       <c r="B216">
         <v>81</v>
       </c>
@@ -18804,7 +18804,7 @@
         <f t="shared" si="45"/>
         <v>0.76216216216216215</v>
       </c>
-      <c r="N216" s="21"/>
+      <c r="N216" s="27"/>
       <c r="O216">
         <v>474</v>
       </c>
@@ -18843,10 +18843,10 @@
         <f t="shared" si="49"/>
         <v>0.91561181434599159</v>
       </c>
-      <c r="Z216" s="21"/>
+      <c r="Z216" s="27"/>
     </row>
     <row r="217" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="24"/>
+      <c r="A217" s="25"/>
       <c r="B217">
         <v>82</v>
       </c>
@@ -18888,7 +18888,7 @@
         <f t="shared" si="45"/>
         <v>0.94357406699783464</v>
       </c>
-      <c r="N217" s="21"/>
+      <c r="N217" s="27"/>
       <c r="O217">
         <v>26155</v>
       </c>
@@ -18927,10 +18927,10 @@
         <f t="shared" si="49"/>
         <v>0.99900592620913786</v>
       </c>
-      <c r="Z217" s="21"/>
+      <c r="Z217" s="27"/>
     </row>
     <row r="218" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="24"/>
+      <c r="A218" s="25"/>
       <c r="B218">
         <v>83</v>
       </c>
@@ -18972,7 +18972,7 @@
         <f t="shared" si="45"/>
         <v>0.96806512210394491</v>
       </c>
-      <c r="N218" s="21"/>
+      <c r="N218" s="27"/>
       <c r="O218">
         <v>1575</v>
       </c>
@@ -19011,10 +19011,10 @@
         <f t="shared" si="49"/>
         <v>0.96444444444444444</v>
       </c>
-      <c r="Z218" s="21"/>
+      <c r="Z218" s="27"/>
     </row>
     <row r="219" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="24"/>
+      <c r="A219" s="25"/>
       <c r="B219">
         <v>84</v>
       </c>
@@ -19056,7 +19056,7 @@
         <f t="shared" si="45"/>
         <v>0.9925927408860683</v>
       </c>
-      <c r="N219" s="21"/>
+      <c r="N219" s="27"/>
       <c r="O219">
         <v>12180</v>
       </c>
@@ -19095,10 +19095,10 @@
         <f t="shared" si="49"/>
         <v>0.99326765188834154</v>
       </c>
-      <c r="Z219" s="21"/>
+      <c r="Z219" s="27"/>
     </row>
     <row r="220" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="24"/>
+      <c r="A220" s="25"/>
       <c r="B220">
         <v>87</v>
       </c>
@@ -19140,7 +19140,7 @@
         <f t="shared" si="45"/>
         <v>0.96033653846153844</v>
       </c>
-      <c r="N220" s="21"/>
+      <c r="N220" s="27"/>
       <c r="O220">
         <v>837</v>
       </c>
@@ -19179,10 +19179,10 @@
         <f t="shared" si="49"/>
         <v>0.96535244922341701</v>
       </c>
-      <c r="Z220" s="21"/>
+      <c r="Z220" s="27"/>
     </row>
     <row r="221" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="24"/>
+      <c r="A221" s="25"/>
       <c r="B221">
         <v>88</v>
       </c>
@@ -19224,7 +19224,7 @@
         <f t="shared" si="45"/>
         <v>0.94097222222222221</v>
       </c>
-      <c r="N221" s="21"/>
+      <c r="N221" s="27"/>
       <c r="O221">
         <v>379</v>
       </c>
@@ -19263,10 +19263,10 @@
         <f t="shared" si="49"/>
         <v>0.94722955145118737</v>
       </c>
-      <c r="Z221" s="21"/>
+      <c r="Z221" s="27"/>
     </row>
     <row r="222" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="24"/>
+      <c r="A222" s="25"/>
       <c r="B222">
         <v>89</v>
       </c>
@@ -19308,7 +19308,7 @@
         <f t="shared" si="45"/>
         <v>0.99895760945100764</v>
       </c>
-      <c r="N222" s="21"/>
+      <c r="N222" s="27"/>
       <c r="O222">
         <v>2854</v>
       </c>
@@ -19347,10 +19347,10 @@
         <f t="shared" si="49"/>
         <v>0.99894884372810089</v>
       </c>
-      <c r="Z222" s="21"/>
+      <c r="Z222" s="27"/>
     </row>
     <row r="223" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="24"/>
+      <c r="A223" s="25"/>
       <c r="B223">
         <v>90</v>
       </c>
@@ -19392,7 +19392,7 @@
         <f t="shared" si="45"/>
         <v>0.9993043478260869</v>
       </c>
-      <c r="N223" s="21"/>
+      <c r="N223" s="27"/>
       <c r="O223">
         <v>2855</v>
       </c>
@@ -19431,10 +19431,10 @@
         <f t="shared" si="49"/>
         <v>0.99964973730297724</v>
       </c>
-      <c r="Z223" s="21"/>
+      <c r="Z223" s="27"/>
     </row>
     <row r="224" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="24"/>
+      <c r="A224" s="25"/>
       <c r="B224">
         <v>91</v>
       </c>
@@ -19476,7 +19476,7 @@
         <f t="shared" si="45"/>
         <v>0.99995220799082396</v>
       </c>
-      <c r="N224" s="21"/>
+      <c r="N224" s="27"/>
       <c r="O224">
         <v>20933</v>
       </c>
@@ -19515,10 +19515,10 @@
         <f t="shared" si="49"/>
         <v>0.99928342808006498</v>
       </c>
-      <c r="Z224" s="21"/>
+      <c r="Z224" s="27"/>
     </row>
     <row r="225" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="24"/>
+      <c r="A225" s="25"/>
       <c r="B225">
         <v>93</v>
       </c>
@@ -19560,7 +19560,7 @@
         <f t="shared" si="45"/>
         <v>0.99995155508187195</v>
       </c>
-      <c r="N225" s="21"/>
+      <c r="N225" s="27"/>
       <c r="O225">
         <v>20632</v>
       </c>
@@ -19599,10 +19599,10 @@
         <f t="shared" si="49"/>
         <v>0.99873982163629316</v>
       </c>
-      <c r="Z225" s="21"/>
+      <c r="Z225" s="27"/>
     </row>
     <row r="226" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="24"/>
+      <c r="A226" s="25"/>
       <c r="B226">
         <v>96</v>
       </c>
@@ -19644,7 +19644,7 @@
         <f t="shared" si="45"/>
         <v>0.99878738884397733</v>
       </c>
-      <c r="N226" s="21"/>
+      <c r="N226" s="27"/>
       <c r="O226">
         <v>17348</v>
       </c>
@@ -19683,10 +19683,10 @@
         <f t="shared" si="49"/>
         <v>0.99775190223656907</v>
       </c>
-      <c r="Z226" s="21"/>
+      <c r="Z226" s="27"/>
     </row>
     <row r="227" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="24"/>
+      <c r="A227" s="25"/>
       <c r="B227">
         <v>97</v>
       </c>
@@ -19728,7 +19728,7 @@
         <f t="shared" si="45"/>
         <v>0.97932791221710591</v>
       </c>
-      <c r="N227" s="21"/>
+      <c r="N227" s="27"/>
       <c r="O227">
         <v>10165</v>
       </c>
@@ -19767,10 +19767,10 @@
         <f t="shared" si="49"/>
         <v>0.98140678799803249</v>
       </c>
-      <c r="Z227" s="21"/>
+      <c r="Z227" s="27"/>
     </row>
     <row r="228" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="24"/>
+      <c r="A228" s="25"/>
       <c r="B228">
         <v>98</v>
       </c>
@@ -19812,7 +19812,7 @@
         <f t="shared" si="45"/>
         <v>0.99995430242654115</v>
       </c>
-      <c r="N228" s="21"/>
+      <c r="N228" s="27"/>
       <c r="O228">
         <v>21873</v>
       </c>
@@ -19851,10 +19851,10 @@
         <f>($O228-X228)/$O228</f>
         <v>0.99798838750971519</v>
       </c>
-      <c r="Z228" s="21"/>
+      <c r="Z228" s="27"/>
     </row>
     <row r="229" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="24"/>
+      <c r="A229" s="25"/>
       <c r="B229">
         <v>99</v>
       </c>
@@ -19896,7 +19896,7 @@
         <f t="shared" si="45"/>
         <v>0.68269230769230771</v>
       </c>
-      <c r="N229" s="21"/>
+      <c r="N229" s="27"/>
       <c r="O229">
         <v>335</v>
       </c>
@@ -19935,10 +19935,10 @@
         <f t="shared" si="49"/>
         <v>0.88059701492537312</v>
       </c>
-      <c r="Z229" s="21"/>
+      <c r="Z229" s="27"/>
     </row>
     <row r="230" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="24"/>
+      <c r="A230" s="25"/>
       <c r="B230">
         <v>100</v>
       </c>
@@ -19980,7 +19980,7 @@
         <f t="shared" si="45"/>
         <v>0.99675060926076364</v>
       </c>
-      <c r="N230" s="21"/>
+      <c r="N230" s="27"/>
       <c r="O230">
         <v>2682</v>
       </c>
@@ -20019,10 +20019,10 @@
         <f t="shared" si="49"/>
         <v>0.99589858314690527</v>
       </c>
-      <c r="Z230" s="21"/>
+      <c r="Z230" s="27"/>
     </row>
     <row r="231" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="24"/>
+      <c r="A231" s="25"/>
       <c r="B231">
         <v>102</v>
       </c>
@@ -20064,7 +20064,7 @@
         <f t="shared" si="45"/>
         <v>0.76386404293381038</v>
       </c>
-      <c r="N231" s="21"/>
+      <c r="N231" s="27"/>
       <c r="O231">
         <v>478</v>
       </c>
@@ -20103,10 +20103,10 @@
         <f t="shared" si="49"/>
         <v>0.91631799163179917</v>
       </c>
-      <c r="Z231" s="21"/>
+      <c r="Z231" s="27"/>
     </row>
     <row r="232" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="24"/>
+      <c r="A232" s="25"/>
       <c r="B232">
         <v>104</v>
       </c>
@@ -20148,7 +20148,7 @@
         <f t="shared" si="45"/>
         <v>0.97757847533632292</v>
       </c>
-      <c r="N232" s="21"/>
+      <c r="N232" s="27"/>
       <c r="O232">
         <v>187</v>
       </c>
@@ -20187,10 +20187,10 @@
         <f t="shared" si="49"/>
         <v>0.98395721925133695</v>
       </c>
-      <c r="Z232" s="21"/>
+      <c r="Z232" s="27"/>
     </row>
     <row r="233" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="24"/>
+      <c r="A233" s="25"/>
       <c r="B233">
         <v>105</v>
       </c>
@@ -20232,7 +20232,7 @@
         <f t="shared" si="45"/>
         <v>0.90163934426229508</v>
       </c>
-      <c r="N233" s="21"/>
+      <c r="N233" s="27"/>
       <c r="O233">
         <v>60</v>
       </c>
@@ -20271,10 +20271,10 @@
         <f t="shared" si="49"/>
         <v>0.9</v>
       </c>
-      <c r="Z233" s="21"/>
+      <c r="Z233" s="27"/>
     </row>
     <row r="234" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="24"/>
+      <c r="A234" s="25"/>
       <c r="B234">
         <v>106</v>
       </c>
@@ -20316,7 +20316,7 @@
         <f t="shared" si="45"/>
         <v>0.99645390070921991</v>
       </c>
-      <c r="N234" s="21"/>
+      <c r="N234" s="27"/>
       <c r="O234">
         <v>270</v>
       </c>
@@ -20355,12 +20355,12 @@
         <f t="shared" si="49"/>
         <v>0.99259259259259258</v>
       </c>
-      <c r="Z234" s="21"/>
+      <c r="Z234" s="27"/>
     </row>
     <row r="235" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="24"/>
+      <c r="A235" s="25"/>
       <c r="B235" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C235" s="8">
         <f t="shared" ref="C235:D235" si="52">AVERAGE(C172:C234)</f>
@@ -20406,7 +20406,7 @@
         <f t="shared" si="45"/>
         <v>0.98716663693686812</v>
       </c>
-      <c r="N235" s="21"/>
+      <c r="N235" s="27"/>
       <c r="O235" s="8">
         <f t="shared" ref="O235:P235" si="56">AVERAGE(O172:O234)</f>
         <v>6390.1269841269841</v>
@@ -20451,11 +20451,11 @@
         <f t="shared" si="49"/>
         <v>0.9847855570845897</v>
       </c>
-      <c r="Z235" s="21"/>
+      <c r="Z235" s="27"/>
     </row>
     <row r="236" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="24" t="s">
-        <v>27</v>
+      <c r="A236" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -20498,7 +20498,7 @@
         <f t="shared" ref="M236:M296" si="62">($C236-L236)/$C236</f>
         <v>0.99800664451827248</v>
       </c>
-      <c r="N236" s="21"/>
+      <c r="N236" s="27"/>
       <c r="O236">
         <v>1440</v>
       </c>
@@ -20537,10 +20537,10 @@
         <f t="shared" ref="Y236:Y296" si="66">($O236-X236)/$O236</f>
         <v>0.99861111111111112</v>
       </c>
-      <c r="Z236" s="21"/>
+      <c r="Z236" s="27"/>
     </row>
     <row r="237" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="24"/>
+      <c r="A237" s="25"/>
       <c r="B237">
         <v>3</v>
       </c>
@@ -20582,7 +20582,7 @@
         <f t="shared" si="62"/>
         <v>0.98800436205016362</v>
       </c>
-      <c r="N237" s="21"/>
+      <c r="N237" s="27"/>
       <c r="O237">
         <v>3620</v>
       </c>
@@ -20621,10 +20621,10 @@
         <f t="shared" si="66"/>
         <v>0.98812154696132593</v>
       </c>
-      <c r="Z237" s="21"/>
+      <c r="Z237" s="27"/>
     </row>
     <row r="238" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="24"/>
+      <c r="A238" s="25"/>
       <c r="B238">
         <v>4</v>
       </c>
@@ -20666,7 +20666,7 @@
         <f t="shared" si="62"/>
         <v>0.99325918436130767</v>
       </c>
-      <c r="N238" s="21"/>
+      <c r="N238" s="27"/>
       <c r="O238">
         <v>2557</v>
       </c>
@@ -20705,10 +20705,10 @@
         <f t="shared" si="66"/>
         <v>0.99648025029331244</v>
       </c>
-      <c r="Z238" s="21"/>
+      <c r="Z238" s="27"/>
     </row>
     <row r="239" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="24"/>
+      <c r="A239" s="25"/>
       <c r="B239">
         <v>5</v>
       </c>
@@ -20750,7 +20750,7 @@
         <f t="shared" si="62"/>
         <v>0.99124467581637488</v>
       </c>
-      <c r="N239" s="21"/>
+      <c r="N239" s="27"/>
       <c r="O239">
         <v>3291</v>
       </c>
@@ -20789,10 +20789,10 @@
         <f t="shared" si="66"/>
         <v>0.98936493467031295</v>
       </c>
-      <c r="Z239" s="21"/>
+      <c r="Z239" s="27"/>
     </row>
     <row r="240" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="24"/>
+      <c r="A240" s="25"/>
       <c r="B240">
         <v>6</v>
       </c>
@@ -20834,7 +20834,7 @@
         <f t="shared" si="62"/>
         <v>0.98682098504688687</v>
       </c>
-      <c r="N240" s="21"/>
+      <c r="N240" s="27"/>
       <c r="O240">
         <v>7568</v>
       </c>
@@ -20873,10 +20873,10 @@
         <f t="shared" si="66"/>
         <v>0.97965116279069764</v>
       </c>
-      <c r="Z240" s="21"/>
+      <c r="Z240" s="27"/>
     </row>
     <row r="241" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="24"/>
+      <c r="A241" s="25"/>
       <c r="B241">
         <v>7</v>
       </c>
@@ -20918,7 +20918,7 @@
         <f t="shared" si="62"/>
         <v>0.99626612355736588</v>
       </c>
-      <c r="N241" s="21"/>
+      <c r="N241" s="27"/>
       <c r="O241">
         <v>1884</v>
       </c>
@@ -20957,10 +20957,10 @@
         <f t="shared" si="66"/>
         <v>0.99575371549893843</v>
       </c>
-      <c r="Z241" s="21"/>
+      <c r="Z241" s="27"/>
     </row>
     <row r="242" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="24"/>
+      <c r="A242" s="25"/>
       <c r="B242">
         <v>9</v>
       </c>
@@ -21002,7 +21002,7 @@
         <f t="shared" si="62"/>
         <v>0.99295302013422815</v>
       </c>
-      <c r="N242" s="21"/>
+      <c r="N242" s="27"/>
       <c r="O242">
         <v>2568</v>
       </c>
@@ -21041,10 +21041,10 @@
         <f t="shared" si="66"/>
         <v>0.99610591900311529</v>
       </c>
-      <c r="Z242" s="21"/>
+      <c r="Z242" s="27"/>
     </row>
     <row r="243" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="24"/>
+      <c r="A243" s="25"/>
       <c r="B243">
         <v>10</v>
       </c>
@@ -21086,7 +21086,7 @@
         <f t="shared" si="62"/>
         <v>0.9946745562130177</v>
       </c>
-      <c r="N243" s="21"/>
+      <c r="N243" s="27"/>
       <c r="O243">
         <v>1273</v>
       </c>
@@ -21125,10 +21125,10 @@
         <f t="shared" si="66"/>
         <v>0.99135899450117837</v>
       </c>
-      <c r="Z243" s="21"/>
+      <c r="Z243" s="27"/>
     </row>
     <row r="244" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="24"/>
+      <c r="A244" s="25"/>
       <c r="B244">
         <v>11</v>
       </c>
@@ -21170,7 +21170,7 @@
         <f t="shared" si="62"/>
         <v>0.9946745562130177</v>
       </c>
-      <c r="N244" s="21"/>
+      <c r="N244" s="27"/>
       <c r="O244">
         <v>1273</v>
       </c>
@@ -21209,10 +21209,10 @@
         <f t="shared" si="66"/>
         <v>0.99135899450117837</v>
       </c>
-      <c r="Z244" s="21"/>
+      <c r="Z244" s="27"/>
     </row>
     <row r="245" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="24"/>
+      <c r="A245" s="25"/>
       <c r="B245">
         <v>19</v>
       </c>
@@ -21254,7 +21254,7 @@
         <f t="shared" si="62"/>
         <v>0.95136330140014735</v>
       </c>
-      <c r="N245" s="21"/>
+      <c r="N245" s="27"/>
       <c r="O245">
         <v>2081</v>
       </c>
@@ -21293,10 +21293,10 @@
         <f t="shared" si="66"/>
         <v>0.9548294089380106</v>
       </c>
-      <c r="Z245" s="21"/>
+      <c r="Z245" s="27"/>
     </row>
     <row r="246" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="24"/>
+      <c r="A246" s="25"/>
       <c r="B246">
         <v>20</v>
       </c>
@@ -21338,7 +21338,7 @@
         <f t="shared" si="62"/>
         <v>0.9823725981620719</v>
       </c>
-      <c r="N246" s="21"/>
+      <c r="N246" s="27"/>
       <c r="O246">
         <v>3658</v>
       </c>
@@ -21377,10 +21377,10 @@
         <f t="shared" si="66"/>
         <v>0.95379989065062876</v>
       </c>
-      <c r="Z246" s="21"/>
+      <c r="Z246" s="27"/>
     </row>
     <row r="247" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="24"/>
+      <c r="A247" s="25"/>
       <c r="B247">
         <v>21</v>
       </c>
@@ -21422,7 +21422,7 @@
         <f t="shared" si="62"/>
         <v>0.98689265536723159</v>
       </c>
-      <c r="N247" s="21"/>
+      <c r="N247" s="27"/>
       <c r="O247">
         <v>6102</v>
       </c>
@@ -21461,10 +21461,10 @@
         <f t="shared" si="66"/>
         <v>0.98148148148148151</v>
       </c>
-      <c r="Z247" s="21"/>
+      <c r="Z247" s="27"/>
     </row>
     <row r="248" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="24"/>
+      <c r="A248" s="25"/>
       <c r="B248">
         <v>22</v>
       </c>
@@ -21506,7 +21506,7 @@
         <f t="shared" si="62"/>
         <v>0.99810844892812101</v>
       </c>
-      <c r="N248" s="21"/>
+      <c r="N248" s="27"/>
       <c r="O248">
         <v>1557</v>
       </c>
@@ -21545,10 +21545,10 @@
         <f t="shared" si="66"/>
         <v>0.9980732177263969</v>
       </c>
-      <c r="Z248" s="21"/>
+      <c r="Z248" s="27"/>
     </row>
     <row r="249" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="24"/>
+      <c r="A249" s="25"/>
       <c r="B249">
         <v>23</v>
       </c>
@@ -21590,7 +21590,7 @@
         <f t="shared" si="62"/>
         <v>0.98363023591718823</v>
       </c>
-      <c r="N249" s="21"/>
+      <c r="N249" s="27"/>
       <c r="O249">
         <v>2665</v>
       </c>
@@ -21629,10 +21629,10 @@
         <f t="shared" si="66"/>
         <v>0.9793621013133208</v>
       </c>
-      <c r="Z249" s="21"/>
+      <c r="Z249" s="27"/>
     </row>
     <row r="250" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="24"/>
+      <c r="A250" s="25"/>
       <c r="B250">
         <v>24</v>
       </c>
@@ -21674,7 +21674,7 @@
         <f t="shared" si="62"/>
         <v>0.9975406476294576</v>
       </c>
-      <c r="N250" s="21"/>
+      <c r="N250" s="27"/>
       <c r="O250">
         <v>7086</v>
       </c>
@@ -21713,10 +21713,10 @@
         <f t="shared" si="66"/>
         <v>0.99830651989839114</v>
       </c>
-      <c r="Z250" s="21"/>
+      <c r="Z250" s="27"/>
     </row>
     <row r="251" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="24"/>
+      <c r="A251" s="25"/>
       <c r="B251">
         <v>25</v>
       </c>
@@ -21758,7 +21758,7 @@
         <f t="shared" si="62"/>
         <v>0.93944265809217575</v>
       </c>
-      <c r="N251" s="21"/>
+      <c r="N251" s="27"/>
       <c r="O251">
         <v>3885</v>
       </c>
@@ -21797,10 +21797,10 @@
         <f t="shared" si="66"/>
         <v>0.94697554697554698</v>
       </c>
-      <c r="Z251" s="21"/>
+      <c r="Z251" s="27"/>
     </row>
     <row r="252" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="24"/>
+      <c r="A252" s="25"/>
       <c r="B252">
         <v>27</v>
       </c>
@@ -21842,7 +21842,7 @@
         <f t="shared" si="62"/>
         <v>0.99429287305122493</v>
       </c>
-      <c r="N252" s="21"/>
+      <c r="N252" s="27"/>
       <c r="O252">
         <v>3753</v>
       </c>
@@ -21881,10 +21881,10 @@
         <f t="shared" si="66"/>
         <v>0.98960831334932053</v>
       </c>
-      <c r="Z252" s="21"/>
+      <c r="Z252" s="27"/>
     </row>
     <row r="253" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="24"/>
+      <c r="A253" s="25"/>
       <c r="B253">
         <v>30</v>
       </c>
@@ -21926,7 +21926,7 @@
         <f t="shared" si="62"/>
         <v>0.98253275109170302</v>
       </c>
-      <c r="N253" s="21"/>
+      <c r="N253" s="27"/>
       <c r="O253">
         <v>1113</v>
       </c>
@@ -21965,10 +21965,10 @@
         <f t="shared" si="66"/>
         <v>0.98203054806828394</v>
       </c>
-      <c r="Z253" s="21"/>
+      <c r="Z253" s="27"/>
     </row>
     <row r="254" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="24"/>
+      <c r="A254" s="25"/>
       <c r="B254">
         <v>31</v>
       </c>
@@ -22010,7 +22010,7 @@
         <f t="shared" si="62"/>
         <v>0.96278795038393383</v>
       </c>
-      <c r="N254" s="21"/>
+      <c r="N254" s="27"/>
       <c r="O254">
         <v>1309</v>
       </c>
@@ -22049,10 +22049,10 @@
         <f t="shared" si="66"/>
         <v>0.97097020626432395</v>
       </c>
-      <c r="Z254" s="21"/>
+      <c r="Z254" s="27"/>
     </row>
     <row r="255" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="24"/>
+      <c r="A255" s="25"/>
       <c r="B255">
         <v>32</v>
       </c>
@@ -22094,7 +22094,7 @@
         <f t="shared" si="62"/>
         <v>0.98727498448168838</v>
       </c>
-      <c r="N255" s="21"/>
+      <c r="N255" s="27"/>
       <c r="O255">
         <v>3223</v>
       </c>
@@ -22133,10 +22133,10 @@
         <f t="shared" si="66"/>
         <v>0.98976109215017061</v>
       </c>
-      <c r="Z255" s="21"/>
+      <c r="Z255" s="27"/>
     </row>
     <row r="256" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="24"/>
+      <c r="A256" s="25"/>
       <c r="B256">
         <v>33</v>
       </c>
@@ -22178,7 +22178,7 @@
         <f t="shared" si="62"/>
         <v>0.99310582557738714</v>
       </c>
-      <c r="N256" s="21"/>
+      <c r="N256" s="27"/>
       <c r="O256">
         <v>2393</v>
       </c>
@@ -22217,10 +22217,10 @@
         <f t="shared" si="66"/>
         <v>0.99540325950689512</v>
       </c>
-      <c r="Z256" s="21"/>
+      <c r="Z256" s="27"/>
     </row>
     <row r="257" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="24"/>
+      <c r="A257" s="25"/>
       <c r="B257">
         <v>34</v>
       </c>
@@ -22262,7 +22262,7 @@
         <f t="shared" si="62"/>
         <v>0.96278795038393383</v>
       </c>
-      <c r="N257" s="21"/>
+      <c r="N257" s="27"/>
       <c r="O257">
         <v>1309</v>
       </c>
@@ -22301,10 +22301,10 @@
         <f t="shared" si="66"/>
         <v>0.97097020626432395</v>
       </c>
-      <c r="Z257" s="21"/>
+      <c r="Z257" s="27"/>
     </row>
     <row r="258" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="24"/>
+      <c r="A258" s="25"/>
       <c r="B258">
         <v>35</v>
       </c>
@@ -22346,7 +22346,7 @@
         <f t="shared" si="62"/>
         <v>0.99431125558715971</v>
       </c>
-      <c r="N258" s="21"/>
+      <c r="N258" s="27"/>
       <c r="O258">
         <v>1730</v>
       </c>
@@ -22385,10 +22385,10 @@
         <f t="shared" si="66"/>
         <v>0.991907514450867</v>
       </c>
-      <c r="Z258" s="21"/>
+      <c r="Z258" s="27"/>
     </row>
     <row r="259" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="24"/>
+      <c r="A259" s="25"/>
       <c r="B259">
         <v>36</v>
       </c>
@@ -22430,7 +22430,7 @@
         <f t="shared" si="62"/>
         <v>0.99622356495468278</v>
       </c>
-      <c r="N259" s="21"/>
+      <c r="N259" s="27"/>
       <c r="O259">
         <v>1275</v>
       </c>
@@ -22469,10 +22469,10 @@
         <f t="shared" si="66"/>
         <v>0.99686274509803918</v>
       </c>
-      <c r="Z259" s="21"/>
+      <c r="Z259" s="27"/>
     </row>
     <row r="260" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="24"/>
+      <c r="A260" s="25"/>
       <c r="B260">
         <v>37</v>
       </c>
@@ -22514,7 +22514,7 @@
         <f t="shared" si="62"/>
         <v>0.99848714069591527</v>
       </c>
-      <c r="N260" s="21"/>
+      <c r="N260" s="27"/>
       <c r="O260">
         <v>1275</v>
       </c>
@@ -22553,10 +22553,10 @@
         <f t="shared" si="66"/>
         <v>0.99843137254901959</v>
       </c>
-      <c r="Z260" s="21"/>
+      <c r="Z260" s="27"/>
     </row>
     <row r="261" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="24"/>
+      <c r="A261" s="25"/>
       <c r="B261">
         <v>38</v>
       </c>
@@ -22598,7 +22598,7 @@
         <f t="shared" si="62"/>
         <v>0.97989949748743721</v>
       </c>
-      <c r="N261" s="21"/>
+      <c r="N261" s="27"/>
       <c r="O261">
         <v>191</v>
       </c>
@@ -22637,12 +22637,12 @@
         <f t="shared" si="66"/>
         <v>0.97382198952879584</v>
       </c>
-      <c r="Z261" s="21"/>
+      <c r="Z261" s="27"/>
     </row>
     <row r="262" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="24"/>
+      <c r="A262" s="25"/>
       <c r="B262" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C262" s="8">
         <f t="shared" ref="C262:L262" si="69">AVERAGE(C236:C261)</f>
@@ -22688,7 +22688,7 @@
         <f t="shared" si="62"/>
         <v>0.98600713563901088</v>
       </c>
-      <c r="N262" s="21"/>
+      <c r="N262" s="27"/>
       <c r="O262" s="8">
         <f>AVERAGE(O236:O261)</f>
         <v>2695.3461538461538</v>
@@ -22733,11 +22733,11 @@
         <f t="shared" si="66"/>
         <v>0.98374691419683502</v>
       </c>
-      <c r="Z262" s="21"/>
+      <c r="Z262" s="27"/>
     </row>
     <row r="263" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="24" t="s">
-        <v>28</v>
+      <c r="A263" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -22780,7 +22780,7 @@
         <f t="shared" si="62"/>
         <v>0.99867321215337668</v>
       </c>
-      <c r="N263" s="21"/>
+      <c r="N263" s="27"/>
       <c r="O263">
         <v>7251</v>
       </c>
@@ -22819,10 +22819,10 @@
         <f t="shared" si="66"/>
         <v>0.99903461591504616</v>
       </c>
-      <c r="Z263" s="21"/>
+      <c r="Z263" s="27"/>
     </row>
     <row r="264" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="24"/>
+      <c r="A264" s="25"/>
       <c r="B264">
         <v>3</v>
       </c>
@@ -22864,7 +22864,7 @@
         <f t="shared" si="62"/>
         <v>0.99974842767295602</v>
       </c>
-      <c r="N264" s="21"/>
+      <c r="N264" s="27"/>
       <c r="O264">
         <v>32601</v>
       </c>
@@ -22903,10 +22903,10 @@
         <f t="shared" si="66"/>
         <v>0.99978528266004107</v>
       </c>
-      <c r="Z264" s="21"/>
+      <c r="Z264" s="27"/>
     </row>
     <row r="265" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="24"/>
+      <c r="A265" s="25"/>
       <c r="B265">
         <v>4</v>
       </c>
@@ -22948,7 +22948,7 @@
         <f t="shared" si="62"/>
         <v>0.99866011612326933</v>
       </c>
-      <c r="N265" s="21"/>
+      <c r="N265" s="27"/>
       <c r="O265">
         <v>4234</v>
       </c>
@@ -22987,10 +22987,10 @@
         <f t="shared" si="66"/>
         <v>0.99740198393953705</v>
       </c>
-      <c r="Z265" s="21"/>
+      <c r="Z265" s="27"/>
     </row>
     <row r="266" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="24"/>
+      <c r="A266" s="25"/>
       <c r="B266">
         <v>5</v>
       </c>
@@ -23032,7 +23032,7 @@
         <f t="shared" si="62"/>
         <v>0.9992351231451736</v>
       </c>
-      <c r="N266" s="21"/>
+      <c r="N266" s="27"/>
       <c r="O266">
         <v>25484</v>
       </c>
@@ -23071,10 +23071,10 @@
         <f t="shared" si="66"/>
         <v>0.9995291163082719</v>
       </c>
-      <c r="Z266" s="21"/>
+      <c r="Z266" s="27"/>
     </row>
     <row r="267" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="24"/>
+      <c r="A267" s="25"/>
       <c r="B267">
         <v>6</v>
       </c>
@@ -23116,7 +23116,7 @@
         <f t="shared" si="62"/>
         <v>0.94256887854093907</v>
       </c>
-      <c r="N267" s="21"/>
+      <c r="N267" s="27"/>
       <c r="O267">
         <v>2848</v>
       </c>
@@ -23155,10 +23155,10 @@
         <f t="shared" si="66"/>
         <v>0.9536516853932584</v>
       </c>
-      <c r="Z267" s="21"/>
+      <c r="Z267" s="27"/>
     </row>
     <row r="268" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="24"/>
+      <c r="A268" s="25"/>
       <c r="B268">
         <v>7</v>
       </c>
@@ -23200,7 +23200,7 @@
         <f t="shared" si="62"/>
         <v>0.99504002784545775</v>
       </c>
-      <c r="N268" s="21"/>
+      <c r="N268" s="27"/>
       <c r="O268">
         <v>11083</v>
       </c>
@@ -23239,10 +23239,10 @@
         <f t="shared" si="66"/>
         <v>0.99467653162501124</v>
       </c>
-      <c r="Z268" s="21"/>
+      <c r="Z268" s="27"/>
     </row>
     <row r="269" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="24"/>
+      <c r="A269" s="25"/>
       <c r="B269">
         <v>9</v>
       </c>
@@ -23284,7 +23284,7 @@
         <f t="shared" si="62"/>
         <v>0.99711406538297775</v>
       </c>
-      <c r="N269" s="21"/>
+      <c r="N269" s="27"/>
       <c r="O269">
         <v>21229</v>
       </c>
@@ -23323,10 +23323,10 @@
         <f t="shared" si="66"/>
         <v>0.99641999152103256</v>
       </c>
-      <c r="Z269" s="21"/>
+      <c r="Z269" s="27"/>
     </row>
     <row r="270" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="24"/>
+      <c r="A270" s="25"/>
       <c r="B270">
         <v>10</v>
       </c>
@@ -23368,7 +23368,7 @@
         <f t="shared" si="62"/>
         <v>0.9942078569070556</v>
       </c>
-      <c r="N270" s="21"/>
+      <c r="N270" s="27"/>
       <c r="O270">
         <v>29894</v>
       </c>
@@ -23407,10 +23407,10 @@
         <f t="shared" si="66"/>
         <v>0.99374456412658063</v>
       </c>
-      <c r="Z270" s="21"/>
+      <c r="Z270" s="27"/>
     </row>
     <row r="271" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="24"/>
+      <c r="A271" s="25"/>
       <c r="B271">
         <v>12</v>
       </c>
@@ -23452,7 +23452,7 @@
         <f t="shared" si="62"/>
         <v>0.99619675456389456</v>
       </c>
-      <c r="N271" s="21"/>
+      <c r="N271" s="27"/>
       <c r="O271">
         <v>6026</v>
       </c>
@@ -23491,10 +23491,10 @@
         <f t="shared" si="66"/>
         <v>0.99734483903086624</v>
       </c>
-      <c r="Z271" s="21"/>
+      <c r="Z271" s="27"/>
     </row>
     <row r="272" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="24"/>
+      <c r="A272" s="25"/>
       <c r="B272">
         <v>13</v>
       </c>
@@ -23536,7 +23536,7 @@
         <f t="shared" si="62"/>
         <v>0.99090822994601757</v>
       </c>
-      <c r="N272" s="21"/>
+      <c r="N272" s="27"/>
       <c r="O272">
         <v>10541</v>
       </c>
@@ -23575,10 +23575,10 @@
         <f t="shared" si="66"/>
         <v>0.99108243999620527</v>
       </c>
-      <c r="Z272" s="21"/>
+      <c r="Z272" s="27"/>
     </row>
     <row r="273" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="24"/>
+      <c r="A273" s="25"/>
       <c r="B273">
         <v>14</v>
       </c>
@@ -23620,7 +23620,7 @@
         <f t="shared" si="62"/>
         <v>0.999688990255028</v>
       </c>
-      <c r="N273" s="21"/>
+      <c r="N273" s="27"/>
       <c r="O273">
         <v>6249</v>
       </c>
@@ -23659,10 +23659,10 @@
         <f t="shared" si="66"/>
         <v>0.99983997439590333</v>
       </c>
-      <c r="Z273" s="21"/>
+      <c r="Z273" s="27"/>
     </row>
     <row r="274" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="24"/>
+      <c r="A274" s="25"/>
       <c r="B274">
         <v>15</v>
       </c>
@@ -23704,7 +23704,7 @@
         <f t="shared" si="62"/>
         <v>0.96470588235294119</v>
       </c>
-      <c r="N274" s="21"/>
+      <c r="N274" s="27"/>
       <c r="O274">
         <v>65</v>
       </c>
@@ -23743,10 +23743,10 @@
         <f t="shared" si="66"/>
         <v>0.96923076923076923</v>
       </c>
-      <c r="Z274" s="21"/>
+      <c r="Z274" s="27"/>
     </row>
     <row r="275" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="24"/>
+      <c r="A275" s="25"/>
       <c r="B275">
         <v>16</v>
       </c>
@@ -23788,7 +23788,7 @@
         <f t="shared" si="62"/>
         <v>0.98972682699042724</v>
       </c>
-      <c r="N275" s="21"/>
+      <c r="N275" s="27"/>
       <c r="O275">
         <v>27381</v>
       </c>
@@ -23827,10 +23827,10 @@
         <f t="shared" si="66"/>
         <v>0.98922610569372926</v>
       </c>
-      <c r="Z275" s="21"/>
+      <c r="Z275" s="27"/>
     </row>
     <row r="276" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="24"/>
+      <c r="A276" s="25"/>
       <c r="B276">
         <v>17</v>
       </c>
@@ -23872,7 +23872,7 @@
         <f t="shared" si="62"/>
         <v>0.98688777477824918</v>
       </c>
-      <c r="N276" s="21"/>
+      <c r="N276" s="27"/>
       <c r="O276">
         <v>8662</v>
       </c>
@@ -23911,10 +23911,10 @@
         <f t="shared" si="66"/>
         <v>0.98880166243361811</v>
       </c>
-      <c r="Z276" s="21"/>
+      <c r="Z276" s="27"/>
     </row>
     <row r="277" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="24"/>
+      <c r="A277" s="25"/>
       <c r="B277">
         <v>18</v>
       </c>
@@ -23956,7 +23956,7 @@
         <f t="shared" si="62"/>
         <v>0.99958036088963487</v>
       </c>
-      <c r="N277" s="21"/>
+      <c r="N277" s="27"/>
       <c r="O277">
         <v>6780</v>
       </c>
@@ -23995,10 +23995,10 @@
         <f t="shared" si="66"/>
         <v>0.99955752212389382</v>
       </c>
-      <c r="Z277" s="21"/>
+      <c r="Z277" s="27"/>
     </row>
     <row r="278" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="24"/>
+      <c r="A278" s="25"/>
       <c r="B278">
         <v>19</v>
       </c>
@@ -24040,7 +24040,7 @@
         <f t="shared" si="62"/>
         <v>0.99986299493081243</v>
       </c>
-      <c r="N278" s="21"/>
+      <c r="N278" s="27"/>
       <c r="O278">
         <v>12266</v>
       </c>
@@ -24079,10 +24079,10 @@
         <f t="shared" si="66"/>
         <v>0.99983694766019893</v>
       </c>
-      <c r="Z278" s="21"/>
+      <c r="Z278" s="27"/>
     </row>
     <row r="279" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="24"/>
+      <c r="A279" s="25"/>
       <c r="B279">
         <v>20</v>
       </c>
@@ -24124,7 +24124,7 @@
         <f t="shared" si="62"/>
         <v>0.99861651534803286</v>
       </c>
-      <c r="N279" s="21"/>
+      <c r="N279" s="27"/>
       <c r="O279">
         <v>11099</v>
       </c>
@@ -24163,10 +24163,10 @@
         <f t="shared" si="66"/>
         <v>0.99864852689431483</v>
       </c>
-      <c r="Z279" s="21"/>
+      <c r="Z279" s="27"/>
     </row>
     <row r="280" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="24"/>
+      <c r="A280" s="25"/>
       <c r="B280">
         <v>22</v>
       </c>
@@ -24208,7 +24208,7 @@
         <f t="shared" si="62"/>
         <v>0.99661339824320039</v>
       </c>
-      <c r="N280" s="21"/>
+      <c r="N280" s="27"/>
       <c r="O280">
         <v>9694</v>
       </c>
@@ -24247,10 +24247,10 @@
         <f t="shared" si="66"/>
         <v>0.99783371157416956</v>
       </c>
-      <c r="Z280" s="21"/>
+      <c r="Z280" s="27"/>
     </row>
     <row r="281" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="24"/>
+      <c r="A281" s="25"/>
       <c r="B281">
         <v>23</v>
       </c>
@@ -24292,7 +24292,7 @@
         <f t="shared" si="62"/>
         <v>0.99986499778210647</v>
       </c>
-      <c r="N281" s="21"/>
+      <c r="N281" s="27"/>
       <c r="O281">
         <v>3761</v>
       </c>
@@ -24331,10 +24331,10 @@
         <f t="shared" si="66"/>
         <v>0.9984046796064876</v>
       </c>
-      <c r="Z281" s="21"/>
+      <c r="Z281" s="27"/>
     </row>
     <row r="282" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="24"/>
+      <c r="A282" s="25"/>
       <c r="B282">
         <v>24</v>
       </c>
@@ -24376,7 +24376,7 @@
         <f t="shared" si="62"/>
         <v>0.99677920924033758</v>
       </c>
-      <c r="N282" s="21"/>
+      <c r="N282" s="27"/>
       <c r="O282">
         <v>9101</v>
       </c>
@@ -24415,10 +24415,10 @@
         <f t="shared" si="66"/>
         <v>0.99934073178771565</v>
       </c>
-      <c r="Z282" s="21"/>
+      <c r="Z282" s="27"/>
     </row>
     <row r="283" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="24"/>
+      <c r="A283" s="25"/>
       <c r="B283">
         <v>26</v>
       </c>
@@ -24460,7 +24460,7 @@
         <f t="shared" si="62"/>
         <v>0.99713155291790312</v>
       </c>
-      <c r="N283" s="21"/>
+      <c r="N283" s="27"/>
       <c r="O283">
         <v>11249</v>
       </c>
@@ -24499,10 +24499,10 @@
         <f t="shared" si="66"/>
         <v>0.99626633478531423</v>
       </c>
-      <c r="Z283" s="21"/>
+      <c r="Z283" s="27"/>
     </row>
     <row r="284" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="24"/>
+      <c r="A284" s="25"/>
       <c r="B284">
         <v>27</v>
       </c>
@@ -24544,7 +24544,7 @@
         <f t="shared" si="62"/>
         <v>0.99615261301699265</v>
       </c>
-      <c r="N284" s="21"/>
+      <c r="N284" s="27"/>
       <c r="O284">
         <v>5442</v>
       </c>
@@ -24583,12 +24583,12 @@
         <f t="shared" si="66"/>
         <v>0.99650863653068722</v>
       </c>
-      <c r="Z284" s="21"/>
+      <c r="Z284" s="27"/>
     </row>
     <row r="285" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="24"/>
+      <c r="A285" s="25"/>
       <c r="B285" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C285" s="8">
         <f t="shared" ref="C285:L285" si="71">AVERAGE(C263:C284)</f>
@@ -24634,7 +24634,7 @@
         <f t="shared" si="62"/>
         <v>0.99652432650810241</v>
       </c>
-      <c r="N285" s="21"/>
+      <c r="N285" s="27"/>
       <c r="O285" s="8">
         <f>AVERAGE(O263:O284)</f>
         <v>11951.818181818182</v>
@@ -24679,14 +24679,14 @@
         <f t="shared" si="66"/>
         <v>0.99577850460181028</v>
       </c>
-      <c r="Z285" s="21"/>
+      <c r="Z285" s="27"/>
     </row>
     <row r="286" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B286" s="26" t="s">
-        <v>13</v>
+      <c r="A286" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B286" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="C286" s="9">
         <f>AVERAGE(C2:C24,C26:C120,C122:C170,C172:C234,C236:C261,C263:C284)</f>
@@ -24732,7 +24732,7 @@
         <f t="shared" si="62"/>
         <v>0.996031593387812</v>
       </c>
-      <c r="N286" s="21"/>
+      <c r="N286" s="27"/>
       <c r="O286" s="9">
         <f>AVERAGE(O2:O24,O26:O120,O122:O170,O172:O234,O236:O261,O263:O284)</f>
         <v>32587.154676258993</v>
@@ -24777,11 +24777,11 @@
         <f t="shared" si="66"/>
         <v>0.99342151523049027</v>
       </c>
-      <c r="Z286" s="21"/>
+      <c r="Z286" s="27"/>
     </row>
     <row r="287" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="24" t="s">
-        <v>30</v>
+      <c r="A287" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -24824,7 +24824,7 @@
         <f t="shared" si="62"/>
         <v>0.99085498620989987</v>
       </c>
-      <c r="N287" s="21"/>
+      <c r="N287" s="27"/>
       <c r="O287">
         <v>22374</v>
       </c>
@@ -24863,10 +24863,10 @@
         <f t="shared" si="66"/>
         <v>0.98681505318673457</v>
       </c>
-      <c r="Z287" s="21"/>
+      <c r="Z287" s="27"/>
     </row>
     <row r="288" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="24"/>
+      <c r="A288" s="25"/>
       <c r="B288">
         <v>1</v>
       </c>
@@ -24908,7 +24908,7 @@
         <f t="shared" si="62"/>
         <v>0.9541673739602784</v>
       </c>
-      <c r="N288" s="21"/>
+      <c r="N288" s="27"/>
       <c r="O288">
         <v>1275</v>
       </c>
@@ -24947,10 +24947,10 @@
         <f t="shared" si="66"/>
         <v>0.79921568627450978</v>
       </c>
-      <c r="Z288" s="21"/>
+      <c r="Z288" s="27"/>
     </row>
     <row r="289" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="24"/>
+      <c r="A289" s="25"/>
       <c r="B289">
         <v>1</v>
       </c>
@@ -24992,7 +24992,7 @@
         <f t="shared" si="62"/>
         <v>0.96942446043165464</v>
       </c>
-      <c r="N289" s="21"/>
+      <c r="N289" s="27"/>
       <c r="O289">
         <v>1150</v>
       </c>
@@ -25031,10 +25031,10 @@
         <f t="shared" si="66"/>
         <v>0.95130434782608697</v>
       </c>
-      <c r="Z289" s="21"/>
+      <c r="Z289" s="27"/>
     </row>
     <row r="290" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="24"/>
+      <c r="A290" s="25"/>
       <c r="B290">
         <v>1</v>
       </c>
@@ -25076,7 +25076,7 @@
         <f t="shared" si="62"/>
         <v>0.96524626452684004</v>
       </c>
-      <c r="N290" s="21"/>
+      <c r="N290" s="27"/>
       <c r="O290">
         <v>2213</v>
       </c>
@@ -25115,10 +25115,10 @@
         <f t="shared" si="66"/>
         <v>0.98056936285585183</v>
       </c>
-      <c r="Z290" s="21"/>
+      <c r="Z290" s="27"/>
     </row>
     <row r="291" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="24"/>
+      <c r="A291" s="25"/>
       <c r="B291">
         <v>1</v>
       </c>
@@ -25160,7 +25160,7 @@
         <f t="shared" si="62"/>
         <v>0.95969449075330515</v>
       </c>
-      <c r="N291" s="21"/>
+      <c r="N291" s="27"/>
       <c r="O291">
         <v>128468</v>
       </c>
@@ -25199,10 +25199,10 @@
         <f t="shared" si="66"/>
         <v>0.9612588348849519</v>
       </c>
-      <c r="Z291" s="21"/>
+      <c r="Z291" s="27"/>
     </row>
     <row r="292" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="24"/>
+      <c r="A292" s="25"/>
       <c r="B292">
         <v>1</v>
       </c>
@@ -25244,7 +25244,7 @@
         <f t="shared" si="62"/>
         <v>0.78740157480314965</v>
       </c>
-      <c r="N292" s="21"/>
+      <c r="N292" s="27"/>
       <c r="O292">
         <v>307</v>
       </c>
@@ -25283,10 +25283,10 @@
         <f t="shared" si="66"/>
         <v>0.94136807817589574</v>
       </c>
-      <c r="Z292" s="21"/>
+      <c r="Z292" s="27"/>
     </row>
     <row r="293" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="24"/>
+      <c r="A293" s="25"/>
       <c r="B293">
         <v>1</v>
       </c>
@@ -25328,7 +25328,7 @@
         <f t="shared" si="62"/>
         <v>0.96975302632005966</v>
       </c>
-      <c r="N293" s="21"/>
+      <c r="N293" s="27"/>
       <c r="O293">
         <v>47747</v>
       </c>
@@ -25367,10 +25367,10 @@
         <f t="shared" si="66"/>
         <v>0.88579387186629521</v>
       </c>
-      <c r="Z293" s="21"/>
+      <c r="Z293" s="27"/>
     </row>
     <row r="294" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="24"/>
+      <c r="A294" s="25"/>
       <c r="B294">
         <v>1</v>
       </c>
@@ -25412,7 +25412,7 @@
         <f t="shared" si="62"/>
         <v>0.99767736087769321</v>
       </c>
-      <c r="N294" s="21"/>
+      <c r="N294" s="27"/>
       <c r="O294">
         <v>54781</v>
       </c>
@@ -25451,12 +25451,12 @@
         <f t="shared" si="66"/>
         <v>0.99751738741534479</v>
       </c>
-      <c r="Z294" s="21"/>
+      <c r="Z294" s="27"/>
     </row>
     <row r="295" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="24"/>
+      <c r="A295" s="25"/>
       <c r="B295" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C295" s="8">
         <f>AVERAGE(C287:C294)</f>
@@ -25502,7 +25502,7 @@
         <f t="shared" si="62"/>
         <v>0.97160281607744614</v>
       </c>
-      <c r="N295" s="21"/>
+      <c r="N295" s="27"/>
       <c r="O295" s="8">
         <f>AVERAGE(O287:O294)</f>
         <v>32289.375</v>
@@ -25547,14 +25547,14 @@
         <f t="shared" si="66"/>
         <v>0.95651046203278944</v>
       </c>
-      <c r="Z295" s="21"/>
+      <c r="Z295" s="27"/>
     </row>
     <row r="296" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B296" s="27" t="s">
-        <v>13</v>
+      <c r="A296" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B296" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="C296" s="11">
         <f t="shared" ref="C296:L296" si="75">AVERAGE(C295,C286)</f>
@@ -25600,7 +25600,7 @@
         <f t="shared" si="62"/>
         <v>0.98524625939641186</v>
       </c>
-      <c r="N296" s="21"/>
+      <c r="N296" s="27"/>
       <c r="O296" s="11">
         <f>AVERAGE(O295,O286)</f>
         <v>32438.264838129497</v>
@@ -25645,7 +25645,7 @@
         <f t="shared" si="66"/>
         <v>0.97505069847606618</v>
       </c>
-      <c r="Z296" s="21"/>
+      <c r="Z296" s="27"/>
       <c r="AA296" s="14"/>
       <c r="AB296" s="14"/>
       <c r="AC296" s="14"/>
@@ -25671,17 +25671,17 @@
       <c r="K297" s="14"/>
       <c r="L297" s="1"/>
       <c r="M297" s="14"/>
-      <c r="N297" s="21"/>
-      <c r="Z297" s="21"/>
+      <c r="N297" s="27"/>
+      <c r="Z297" s="27"/>
     </row>
     <row r="298" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N298" s="21"/>
-      <c r="Z298" s="21"/>
+      <c r="N298" s="27"/>
+      <c r="Z298" s="27"/>
     </row>
     <row r="299" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I299" s="1"/>
-      <c r="N299" s="22"/>
-      <c r="Z299" s="22"/>
+      <c r="N299" s="28"/>
+      <c r="Z299" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -25704,41 +25704,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46615A5-D9A3-534E-8DB2-366FE7CACA57}">
   <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>23</v>
+      <c r="A2" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -25763,7 +25763,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -25787,7 +25787,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4">
         <v>3</v>
       </c>
@@ -25811,7 +25811,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5">
         <v>5</v>
       </c>
@@ -25835,7 +25835,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6">
         <v>6</v>
       </c>
@@ -25859,7 +25859,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7">
         <v>7</v>
       </c>
@@ -25883,7 +25883,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8">
         <v>8</v>
       </c>
@@ -25907,7 +25907,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9">
         <v>9</v>
       </c>
@@ -25931,7 +25931,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10">
         <v>10</v>
       </c>
@@ -25955,7 +25955,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11">
         <v>11</v>
       </c>
@@ -25979,7 +25979,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12">
         <v>12</v>
       </c>
@@ -26003,7 +26003,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13">
         <v>14</v>
       </c>
@@ -26027,7 +26027,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14">
         <v>15</v>
       </c>
@@ -26051,7 +26051,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15">
         <v>17</v>
       </c>
@@ -26075,7 +26075,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16">
         <v>18</v>
       </c>
@@ -26099,7 +26099,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="25"/>
       <c r="B17">
         <v>19</v>
       </c>
@@ -26123,7 +26123,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
+      <c r="A18" s="25"/>
       <c r="B18">
         <v>20</v>
       </c>
@@ -26147,7 +26147,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="25"/>
       <c r="B19">
         <v>21</v>
       </c>
@@ -26171,7 +26171,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="25"/>
       <c r="B20">
         <v>22</v>
       </c>
@@ -26195,7 +26195,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="25"/>
       <c r="B21">
         <v>23</v>
       </c>
@@ -26219,7 +26219,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="25"/>
       <c r="B22">
         <v>24</v>
       </c>
@@ -26243,7 +26243,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="25"/>
       <c r="B23">
         <v>25</v>
       </c>
@@ -26267,7 +26267,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
+      <c r="A24" s="25"/>
       <c r="B24">
         <v>26</v>
       </c>
@@ -26291,38 +26291,38 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="28">
+        <v>8</v>
+      </c>
+      <c r="C25" s="23">
         <f>AVERAGE(C2:C24)</f>
         <v>1.6890625828885245E-2</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="23">
         <f t="shared" ref="D25:H25" si="0">AVERAGE(D2:D24)</f>
         <v>1.6890625828885245E-2</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="23">
         <f t="shared" si="0"/>
         <v>4.8321416709715169E-4</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="23">
         <f t="shared" si="0"/>
         <v>2.7514092627221719E-2</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="23">
         <f t="shared" si="0"/>
         <v>9.0005284681734686E-4</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="23">
         <f t="shared" si="0"/>
         <v>7.0539394728782318E-4</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>24</v>
+      <c r="A26" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -26347,7 +26347,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
+      <c r="A27" s="25"/>
       <c r="B27">
         <v>2</v>
       </c>
@@ -26371,7 +26371,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
+      <c r="A28" s="25"/>
       <c r="B28">
         <v>4</v>
       </c>
@@ -26395,7 +26395,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
+      <c r="A29" s="25"/>
       <c r="B29">
         <v>5</v>
       </c>
@@ -26419,7 +26419,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
+      <c r="A30" s="25"/>
       <c r="B30">
         <v>6</v>
       </c>
@@ -26443,7 +26443,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
+      <c r="A31" s="25"/>
       <c r="B31">
         <v>7</v>
       </c>
@@ -26467,7 +26467,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
+      <c r="A32" s="25"/>
       <c r="B32">
         <v>8</v>
       </c>
@@ -26491,7 +26491,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
+      <c r="A33" s="25"/>
       <c r="B33">
         <v>9</v>
       </c>
@@ -26515,7 +26515,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
+      <c r="A34" s="25"/>
       <c r="B34">
         <v>10</v>
       </c>
@@ -26539,7 +26539,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
+      <c r="A35" s="25"/>
       <c r="B35">
         <v>11</v>
       </c>
@@ -26563,7 +26563,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
+      <c r="A36" s="25"/>
       <c r="B36">
         <v>14</v>
       </c>
@@ -26587,7 +26587,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
+      <c r="A37" s="25"/>
       <c r="B37">
         <v>17</v>
       </c>
@@ -26611,7 +26611,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
+      <c r="A38" s="25"/>
       <c r="B38">
         <v>18</v>
       </c>
@@ -26635,7 +26635,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
+      <c r="A39" s="25"/>
       <c r="B39">
         <v>23</v>
       </c>
@@ -26659,7 +26659,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
+      <c r="A40" s="25"/>
       <c r="B40">
         <v>24</v>
       </c>
@@ -26683,7 +26683,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
+      <c r="A41" s="25"/>
       <c r="B41">
         <v>25</v>
       </c>
@@ -26707,7 +26707,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
+      <c r="A42" s="25"/>
       <c r="B42">
         <v>26</v>
       </c>
@@ -26731,7 +26731,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
+      <c r="A43" s="25"/>
       <c r="B43">
         <v>27</v>
       </c>
@@ -26755,7 +26755,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
+      <c r="A44" s="25"/>
       <c r="B44">
         <v>28</v>
       </c>
@@ -26779,7 +26779,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
+      <c r="A45" s="25"/>
       <c r="B45">
         <v>31</v>
       </c>
@@ -26803,7 +26803,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
+      <c r="A46" s="25"/>
       <c r="B46">
         <v>32</v>
       </c>
@@ -26827,7 +26827,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
+      <c r="A47" s="25"/>
       <c r="B47">
         <v>33</v>
       </c>
@@ -26851,7 +26851,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
+      <c r="A48" s="25"/>
       <c r="B48">
         <v>35</v>
       </c>
@@ -26875,7 +26875,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
+      <c r="A49" s="25"/>
       <c r="B49">
         <v>36</v>
       </c>
@@ -26899,7 +26899,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
+      <c r="A50" s="25"/>
       <c r="B50">
         <v>37</v>
       </c>
@@ -26923,7 +26923,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
+      <c r="A51" s="25"/>
       <c r="B51">
         <v>38</v>
       </c>
@@ -26947,7 +26947,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
+      <c r="A52" s="25"/>
       <c r="B52">
         <v>39</v>
       </c>
@@ -26971,7 +26971,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
+      <c r="A53" s="25"/>
       <c r="B53">
         <v>40</v>
       </c>
@@ -26995,7 +26995,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
+      <c r="A54" s="25"/>
       <c r="B54">
         <v>41</v>
       </c>
@@ -27019,7 +27019,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
+      <c r="A55" s="25"/>
       <c r="B55">
         <v>42</v>
       </c>
@@ -27043,7 +27043,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
+      <c r="A56" s="25"/>
       <c r="B56">
         <v>44</v>
       </c>
@@ -27067,7 +27067,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
+      <c r="A57" s="25"/>
       <c r="B57">
         <v>45</v>
       </c>
@@ -27091,7 +27091,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
+      <c r="A58" s="25"/>
       <c r="B58">
         <v>46</v>
       </c>
@@ -27115,7 +27115,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="24"/>
+      <c r="A59" s="25"/>
       <c r="B59">
         <v>48</v>
       </c>
@@ -27139,7 +27139,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="24"/>
+      <c r="A60" s="25"/>
       <c r="B60">
         <v>49</v>
       </c>
@@ -27163,7 +27163,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="24"/>
+      <c r="A61" s="25"/>
       <c r="B61">
         <v>51</v>
       </c>
@@ -27187,7 +27187,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
+      <c r="A62" s="25"/>
       <c r="B62">
         <v>52</v>
       </c>
@@ -27211,7 +27211,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="24"/>
+      <c r="A63" s="25"/>
       <c r="B63">
         <v>54</v>
       </c>
@@ -27235,7 +27235,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
+      <c r="A64" s="25"/>
       <c r="B64">
         <v>55</v>
       </c>
@@ -27259,7 +27259,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="24"/>
+      <c r="A65" s="25"/>
       <c r="B65">
         <v>56</v>
       </c>
@@ -27283,7 +27283,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
+      <c r="A66" s="25"/>
       <c r="B66">
         <v>57</v>
       </c>
@@ -27307,7 +27307,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
+      <c r="A67" s="25"/>
       <c r="B67">
         <v>58</v>
       </c>
@@ -27331,7 +27331,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="24"/>
+      <c r="A68" s="25"/>
       <c r="B68">
         <v>59</v>
       </c>
@@ -27355,7 +27355,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="24"/>
+      <c r="A69" s="25"/>
       <c r="B69">
         <v>61</v>
       </c>
@@ -27379,7 +27379,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="24"/>
+      <c r="A70" s="25"/>
       <c r="B70">
         <v>62</v>
       </c>
@@ -27403,7 +27403,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="24"/>
+      <c r="A71" s="25"/>
       <c r="B71">
         <v>64</v>
       </c>
@@ -27427,7 +27427,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="24"/>
+      <c r="A72" s="25"/>
       <c r="B72">
         <v>65</v>
       </c>
@@ -27451,7 +27451,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="24"/>
+      <c r="A73" s="25"/>
       <c r="B73">
         <v>73</v>
       </c>
@@ -27475,7 +27475,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="24"/>
+      <c r="A74" s="25"/>
       <c r="B74">
         <v>77</v>
       </c>
@@ -27499,7 +27499,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="24"/>
+      <c r="A75" s="25"/>
       <c r="B75">
         <v>80</v>
       </c>
@@ -27523,7 +27523,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="24"/>
+      <c r="A76" s="25"/>
       <c r="B76">
         <v>81</v>
       </c>
@@ -27547,7 +27547,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="24"/>
+      <c r="A77" s="25"/>
       <c r="B77">
         <v>82</v>
       </c>
@@ -27571,7 +27571,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="24"/>
+      <c r="A78" s="25"/>
       <c r="B78">
         <v>83</v>
       </c>
@@ -27595,7 +27595,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="24"/>
+      <c r="A79" s="25"/>
       <c r="B79">
         <v>84</v>
       </c>
@@ -27619,7 +27619,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="24"/>
+      <c r="A80" s="25"/>
       <c r="B80">
         <v>85</v>
       </c>
@@ -27643,7 +27643,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="24"/>
+      <c r="A81" s="25"/>
       <c r="B81">
         <v>86</v>
       </c>
@@ -27667,7 +27667,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
+      <c r="A82" s="25"/>
       <c r="B82">
         <v>87</v>
       </c>
@@ -27691,7 +27691,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="24"/>
+      <c r="A83" s="25"/>
       <c r="B83">
         <v>89</v>
       </c>
@@ -27715,7 +27715,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="24"/>
+      <c r="A84" s="25"/>
       <c r="B84">
         <v>90</v>
       </c>
@@ -27739,7 +27739,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="24"/>
+      <c r="A85" s="25"/>
       <c r="B85">
         <v>91</v>
       </c>
@@ -27763,7 +27763,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="24"/>
+      <c r="A86" s="25"/>
       <c r="B86">
         <v>92</v>
       </c>
@@ -27787,7 +27787,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
+      <c r="A87" s="25"/>
       <c r="B87">
         <v>94</v>
       </c>
@@ -27811,7 +27811,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="24"/>
+      <c r="A88" s="25"/>
       <c r="B88">
         <v>95</v>
       </c>
@@ -27835,7 +27835,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="24"/>
+      <c r="A89" s="25"/>
       <c r="B89">
         <v>96</v>
       </c>
@@ -27859,7 +27859,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="24"/>
+      <c r="A90" s="25"/>
       <c r="B90">
         <v>97</v>
       </c>
@@ -27883,7 +27883,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="24"/>
+      <c r="A91" s="25"/>
       <c r="B91">
         <v>98</v>
       </c>
@@ -27907,7 +27907,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="24"/>
+      <c r="A92" s="25"/>
       <c r="B92">
         <v>99</v>
       </c>
@@ -27931,7 +27931,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="24"/>
+      <c r="A93" s="25"/>
       <c r="B93">
         <v>100</v>
       </c>
@@ -27955,7 +27955,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="24"/>
+      <c r="A94" s="25"/>
       <c r="B94">
         <v>101</v>
       </c>
@@ -27979,7 +27979,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="24"/>
+      <c r="A95" s="25"/>
       <c r="B95">
         <v>102</v>
       </c>
@@ -28003,7 +28003,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="24"/>
+      <c r="A96" s="25"/>
       <c r="B96">
         <v>103</v>
       </c>
@@ -28027,7 +28027,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="24"/>
+      <c r="A97" s="25"/>
       <c r="B97">
         <v>104</v>
       </c>
@@ -28051,7 +28051,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="24"/>
+      <c r="A98" s="25"/>
       <c r="B98">
         <v>105</v>
       </c>
@@ -28075,7 +28075,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="24"/>
+      <c r="A99" s="25"/>
       <c r="B99">
         <v>106</v>
       </c>
@@ -28099,7 +28099,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="24"/>
+      <c r="A100" s="25"/>
       <c r="B100">
         <v>109</v>
       </c>
@@ -28123,7 +28123,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="24"/>
+      <c r="A101" s="25"/>
       <c r="B101">
         <v>110</v>
       </c>
@@ -28147,7 +28147,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="24"/>
+      <c r="A102" s="25"/>
       <c r="B102">
         <v>111</v>
       </c>
@@ -28171,7 +28171,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="24"/>
+      <c r="A103" s="25"/>
       <c r="B103">
         <v>113</v>
       </c>
@@ -28195,7 +28195,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="24"/>
+      <c r="A104" s="25"/>
       <c r="B104">
         <v>114</v>
       </c>
@@ -28219,7 +28219,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="24"/>
+      <c r="A105" s="25"/>
       <c r="B105">
         <v>116</v>
       </c>
@@ -28243,7 +28243,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="24"/>
+      <c r="A106" s="25"/>
       <c r="B106">
         <v>117</v>
       </c>
@@ -28267,7 +28267,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="24"/>
+      <c r="A107" s="25"/>
       <c r="B107">
         <v>118</v>
       </c>
@@ -28291,7 +28291,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="24"/>
+      <c r="A108" s="25"/>
       <c r="B108">
         <v>119</v>
       </c>
@@ -28315,7 +28315,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="24"/>
+      <c r="A109" s="25"/>
       <c r="B109">
         <v>120</v>
       </c>
@@ -28339,7 +28339,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="24"/>
+      <c r="A110" s="25"/>
       <c r="B110">
         <v>121</v>
       </c>
@@ -28363,7 +28363,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="24"/>
+      <c r="A111" s="25"/>
       <c r="B111">
         <v>122</v>
       </c>
@@ -28387,7 +28387,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="24"/>
+      <c r="A112" s="25"/>
       <c r="B112">
         <v>123</v>
       </c>
@@ -28411,7 +28411,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="24"/>
+      <c r="A113" s="25"/>
       <c r="B113">
         <v>124</v>
       </c>
@@ -28435,7 +28435,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="24"/>
+      <c r="A114" s="25"/>
       <c r="B114">
         <v>126</v>
       </c>
@@ -28459,7 +28459,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="24"/>
+      <c r="A115" s="25"/>
       <c r="B115">
         <v>127</v>
       </c>
@@ -28483,7 +28483,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="24"/>
+      <c r="A116" s="25"/>
       <c r="B116">
         <v>128</v>
       </c>
@@ -28507,7 +28507,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="24"/>
+      <c r="A117" s="25"/>
       <c r="B117">
         <v>130</v>
       </c>
@@ -28531,7 +28531,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="24"/>
+      <c r="A118" s="25"/>
       <c r="B118">
         <v>131</v>
       </c>
@@ -28555,7 +28555,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="24"/>
+      <c r="A119" s="25"/>
       <c r="B119">
         <v>132</v>
       </c>
@@ -28579,7 +28579,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="24"/>
+      <c r="A120" s="25"/>
       <c r="B120">
         <v>133</v>
       </c>
@@ -28603,38 +28603,38 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="24"/>
+      <c r="A121" s="25"/>
       <c r="B121" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="28">
+        <v>8</v>
+      </c>
+      <c r="C121" s="23">
         <f>AVERAGE(C26:C120)</f>
         <v>71.499808994419354</v>
       </c>
-      <c r="D121" s="28">
+      <c r="D121" s="23">
         <f t="shared" ref="D121:H121" si="1">AVERAGE(D26:D120)</f>
         <v>71.499808994419354</v>
       </c>
-      <c r="E121" s="28">
+      <c r="E121" s="23">
         <f t="shared" si="1"/>
         <v>32.118366298724744</v>
       </c>
-      <c r="F121" s="28">
+      <c r="F121" s="23">
         <f t="shared" si="1"/>
         <v>112.75116636410166</v>
       </c>
-      <c r="G121" s="28">
+      <c r="G121" s="23">
         <f t="shared" si="1"/>
         <v>58.123066553951276</v>
       </c>
-      <c r="H121" s="28">
+      <c r="H121" s="23">
         <f t="shared" si="1"/>
         <v>45.867837470768009</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="24" t="s">
-        <v>25</v>
+      <c r="A122" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -28659,7 +28659,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="24"/>
+      <c r="A123" s="25"/>
       <c r="B123">
         <v>3</v>
       </c>
@@ -28683,7 +28683,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="24"/>
+      <c r="A124" s="25"/>
       <c r="B124">
         <v>4</v>
       </c>
@@ -28707,7 +28707,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="24"/>
+      <c r="A125" s="25"/>
       <c r="B125">
         <v>6</v>
       </c>
@@ -28731,7 +28731,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="24"/>
+      <c r="A126" s="25"/>
       <c r="B126">
         <v>7</v>
       </c>
@@ -28755,7 +28755,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="24"/>
+      <c r="A127" s="25"/>
       <c r="B127">
         <v>8</v>
       </c>
@@ -28779,7 +28779,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="24"/>
+      <c r="A128" s="25"/>
       <c r="B128">
         <v>9</v>
       </c>
@@ -28803,7 +28803,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="24"/>
+      <c r="A129" s="25"/>
       <c r="B129">
         <v>10</v>
       </c>
@@ -28827,7 +28827,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="24"/>
+      <c r="A130" s="25"/>
       <c r="B130">
         <v>11</v>
       </c>
@@ -28851,7 +28851,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="24"/>
+      <c r="A131" s="25"/>
       <c r="B131">
         <v>12</v>
       </c>
@@ -28875,7 +28875,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="24"/>
+      <c r="A132" s="25"/>
       <c r="B132">
         <v>13</v>
       </c>
@@ -28899,7 +28899,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="24"/>
+      <c r="A133" s="25"/>
       <c r="B133">
         <v>14</v>
       </c>
@@ -28923,7 +28923,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="24"/>
+      <c r="A134" s="25"/>
       <c r="B134">
         <v>15</v>
       </c>
@@ -28947,7 +28947,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="24"/>
+      <c r="A135" s="25"/>
       <c r="B135">
         <v>16</v>
       </c>
@@ -28971,7 +28971,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="24"/>
+      <c r="A136" s="25"/>
       <c r="B136">
         <v>17</v>
       </c>
@@ -28995,7 +28995,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="24"/>
+      <c r="A137" s="25"/>
       <c r="B137">
         <v>18</v>
       </c>
@@ -29019,7 +29019,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="24"/>
+      <c r="A138" s="25"/>
       <c r="B138">
         <v>19</v>
       </c>
@@ -29043,7 +29043,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="24"/>
+      <c r="A139" s="25"/>
       <c r="B139">
         <v>20</v>
       </c>
@@ -29067,7 +29067,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="24"/>
+      <c r="A140" s="25"/>
       <c r="B140">
         <v>21</v>
       </c>
@@ -29091,7 +29091,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="24"/>
+      <c r="A141" s="25"/>
       <c r="B141">
         <v>22</v>
       </c>
@@ -29115,7 +29115,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="24"/>
+      <c r="A142" s="25"/>
       <c r="B142">
         <v>23</v>
       </c>
@@ -29139,7 +29139,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="24"/>
+      <c r="A143" s="25"/>
       <c r="B143">
         <v>24</v>
       </c>
@@ -29163,7 +29163,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="24"/>
+      <c r="A144" s="25"/>
       <c r="B144">
         <v>25</v>
       </c>
@@ -29187,7 +29187,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="24"/>
+      <c r="A145" s="25"/>
       <c r="B145">
         <v>26</v>
       </c>
@@ -29211,7 +29211,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="24"/>
+      <c r="A146" s="25"/>
       <c r="B146">
         <v>28</v>
       </c>
@@ -29235,7 +29235,7 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="24"/>
+      <c r="A147" s="25"/>
       <c r="B147">
         <v>30</v>
       </c>
@@ -29259,7 +29259,7 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="24"/>
+      <c r="A148" s="25"/>
       <c r="B148">
         <v>31</v>
       </c>
@@ -29283,7 +29283,7 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="24"/>
+      <c r="A149" s="25"/>
       <c r="B149">
         <v>32</v>
       </c>
@@ -29307,7 +29307,7 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="24"/>
+      <c r="A150" s="25"/>
       <c r="B150">
         <v>34</v>
       </c>
@@ -29331,7 +29331,7 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="24"/>
+      <c r="A151" s="25"/>
       <c r="B151">
         <v>36</v>
       </c>
@@ -29355,7 +29355,7 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="24"/>
+      <c r="A152" s="25"/>
       <c r="B152">
         <v>37</v>
       </c>
@@ -29379,7 +29379,7 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="24"/>
+      <c r="A153" s="25"/>
       <c r="B153">
         <v>38</v>
       </c>
@@ -29403,7 +29403,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="24"/>
+      <c r="A154" s="25"/>
       <c r="B154">
         <v>40</v>
       </c>
@@ -29427,7 +29427,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="24"/>
+      <c r="A155" s="25"/>
       <c r="B155">
         <v>41</v>
       </c>
@@ -29451,7 +29451,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="24"/>
+      <c r="A156" s="25"/>
       <c r="B156">
         <v>42</v>
       </c>
@@ -29475,7 +29475,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="24"/>
+      <c r="A157" s="25"/>
       <c r="B157">
         <v>44</v>
       </c>
@@ -29499,7 +29499,7 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="24"/>
+      <c r="A158" s="25"/>
       <c r="B158">
         <v>45</v>
       </c>
@@ -29523,7 +29523,7 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="24"/>
+      <c r="A159" s="25"/>
       <c r="B159">
         <v>46</v>
       </c>
@@ -29547,7 +29547,7 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="24"/>
+      <c r="A160" s="25"/>
       <c r="B160">
         <v>47</v>
       </c>
@@ -29571,7 +29571,7 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="24"/>
+      <c r="A161" s="25"/>
       <c r="B161">
         <v>48</v>
       </c>
@@ -29595,7 +29595,7 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="24"/>
+      <c r="A162" s="25"/>
       <c r="B162">
         <v>49</v>
       </c>
@@ -29619,7 +29619,7 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="24"/>
+      <c r="A163" s="25"/>
       <c r="B163">
         <v>50</v>
       </c>
@@ -29643,7 +29643,7 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="24"/>
+      <c r="A164" s="25"/>
       <c r="B164">
         <v>52</v>
       </c>
@@ -29667,7 +29667,7 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="24"/>
+      <c r="A165" s="25"/>
       <c r="B165">
         <v>55</v>
       </c>
@@ -29691,7 +29691,7 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="24"/>
+      <c r="A166" s="25"/>
       <c r="B166">
         <v>58</v>
       </c>
@@ -29715,7 +29715,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="24"/>
+      <c r="A167" s="25"/>
       <c r="B167">
         <v>60</v>
       </c>
@@ -29739,7 +29739,7 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="24"/>
+      <c r="A168" s="25"/>
       <c r="B168">
         <v>61</v>
       </c>
@@ -29763,7 +29763,7 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="24"/>
+      <c r="A169" s="25"/>
       <c r="B169">
         <v>63</v>
       </c>
@@ -29787,7 +29787,7 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="24"/>
+      <c r="A170" s="25"/>
       <c r="B170">
         <v>64</v>
       </c>
@@ -29811,38 +29811,38 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="24"/>
+      <c r="A171" s="25"/>
       <c r="B171" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" s="28">
+        <v>8</v>
+      </c>
+      <c r="C171" s="23">
         <f>AVERAGE(C122:C170)</f>
         <v>7.7314706643152084E-2</v>
       </c>
-      <c r="D171" s="28">
+      <c r="D171" s="23">
         <f t="shared" ref="D171:H171" si="2">AVERAGE(D122:D170)</f>
         <v>7.7314706643152084E-2</v>
       </c>
-      <c r="E171" s="28">
+      <c r="E171" s="23">
         <f t="shared" si="2"/>
         <v>2.1416637286159973E-2</v>
       </c>
-      <c r="F171" s="28">
+      <c r="F171" s="23">
         <f t="shared" si="2"/>
         <v>0.12592024916445047</v>
       </c>
-      <c r="G171" s="28">
+      <c r="G171" s="23">
         <f t="shared" si="2"/>
         <v>3.377909036731392E-2</v>
       </c>
-      <c r="H171" s="28">
+      <c r="H171" s="23">
         <f t="shared" si="2"/>
         <v>3.3951807603836794E-2</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="24" t="s">
-        <v>26</v>
+      <c r="A172" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -29867,7 +29867,7 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="24"/>
+      <c r="A173" s="25"/>
       <c r="B173">
         <v>3</v>
       </c>
@@ -29891,7 +29891,7 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="24"/>
+      <c r="A174" s="25"/>
       <c r="B174">
         <v>4</v>
       </c>
@@ -29915,7 +29915,7 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="24"/>
+      <c r="A175" s="25"/>
       <c r="B175">
         <v>5</v>
       </c>
@@ -29939,7 +29939,7 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="24"/>
+      <c r="A176" s="25"/>
       <c r="B176">
         <v>6</v>
       </c>
@@ -29963,7 +29963,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="24"/>
+      <c r="A177" s="25"/>
       <c r="B177">
         <v>7</v>
       </c>
@@ -29987,7 +29987,7 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="24"/>
+      <c r="A178" s="25"/>
       <c r="B178">
         <v>8</v>
       </c>
@@ -30011,7 +30011,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="24"/>
+      <c r="A179" s="25"/>
       <c r="B179">
         <v>9</v>
       </c>
@@ -30035,7 +30035,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="24"/>
+      <c r="A180" s="25"/>
       <c r="B180">
         <v>10</v>
       </c>
@@ -30059,7 +30059,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="24"/>
+      <c r="A181" s="25"/>
       <c r="B181">
         <v>11</v>
       </c>
@@ -30083,7 +30083,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="24"/>
+      <c r="A182" s="25"/>
       <c r="B182">
         <v>12</v>
       </c>
@@ -30107,7 +30107,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="24"/>
+      <c r="A183" s="25"/>
       <c r="B183">
         <v>21</v>
       </c>
@@ -30131,7 +30131,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="24"/>
+      <c r="A184" s="25"/>
       <c r="B184">
         <v>23</v>
       </c>
@@ -30155,7 +30155,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="24"/>
+      <c r="A185" s="25"/>
       <c r="B185">
         <v>24</v>
       </c>
@@ -30179,7 +30179,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="24"/>
+      <c r="A186" s="25"/>
       <c r="B186">
         <v>27</v>
       </c>
@@ -30203,7 +30203,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="24"/>
+      <c r="A187" s="25"/>
       <c r="B187">
         <v>28</v>
       </c>
@@ -30227,7 +30227,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="24"/>
+      <c r="A188" s="25"/>
       <c r="B188">
         <v>29</v>
       </c>
@@ -30251,7 +30251,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="24"/>
+      <c r="A189" s="25"/>
       <c r="B189">
         <v>30</v>
       </c>
@@ -30275,7 +30275,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="24"/>
+      <c r="A190" s="25"/>
       <c r="B190">
         <v>33</v>
       </c>
@@ -30299,7 +30299,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="24"/>
+      <c r="A191" s="25"/>
       <c r="B191">
         <v>34</v>
       </c>
@@ -30323,7 +30323,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="24"/>
+      <c r="A192" s="25"/>
       <c r="B192">
         <v>35</v>
       </c>
@@ -30347,7 +30347,7 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="24"/>
+      <c r="A193" s="25"/>
       <c r="B193">
         <v>36</v>
       </c>
@@ -30371,7 +30371,7 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="24"/>
+      <c r="A194" s="25"/>
       <c r="B194">
         <v>37</v>
       </c>
@@ -30395,7 +30395,7 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="24"/>
+      <c r="A195" s="25"/>
       <c r="B195">
         <v>38</v>
       </c>
@@ -30419,7 +30419,7 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="24"/>
+      <c r="A196" s="25"/>
       <c r="B196">
         <v>39</v>
       </c>
@@ -30443,7 +30443,7 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="24"/>
+      <c r="A197" s="25"/>
       <c r="B197">
         <v>40</v>
       </c>
@@ -30467,7 +30467,7 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="24"/>
+      <c r="A198" s="25"/>
       <c r="B198">
         <v>41</v>
       </c>
@@ -30491,7 +30491,7 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="24"/>
+      <c r="A199" s="25"/>
       <c r="B199">
         <v>42</v>
       </c>
@@ -30515,7 +30515,7 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="24"/>
+      <c r="A200" s="25"/>
       <c r="B200">
         <v>43</v>
       </c>
@@ -30539,7 +30539,7 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="24"/>
+      <c r="A201" s="25"/>
       <c r="B201">
         <v>44</v>
       </c>
@@ -30563,7 +30563,7 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="24"/>
+      <c r="A202" s="25"/>
       <c r="B202">
         <v>53</v>
       </c>
@@ -30587,7 +30587,7 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="24"/>
+      <c r="A203" s="25"/>
       <c r="B203">
         <v>66</v>
       </c>
@@ -30611,7 +30611,7 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="24"/>
+      <c r="A204" s="25"/>
       <c r="B204">
         <v>67</v>
       </c>
@@ -30635,7 +30635,7 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="24"/>
+      <c r="A205" s="25"/>
       <c r="B205">
         <v>70</v>
       </c>
@@ -30659,7 +30659,7 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="24"/>
+      <c r="A206" s="25"/>
       <c r="B206">
         <v>71</v>
       </c>
@@ -30683,7 +30683,7 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="24"/>
+      <c r="A207" s="25"/>
       <c r="B207">
         <v>72</v>
       </c>
@@ -30707,7 +30707,7 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="24"/>
+      <c r="A208" s="25"/>
       <c r="B208">
         <v>73</v>
       </c>
@@ -30731,7 +30731,7 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" s="24"/>
+      <c r="A209" s="25"/>
       <c r="B209">
         <v>74</v>
       </c>
@@ -30755,7 +30755,7 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="24"/>
+      <c r="A210" s="25"/>
       <c r="B210">
         <v>75</v>
       </c>
@@ -30779,7 +30779,7 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" s="24"/>
+      <c r="A211" s="25"/>
       <c r="B211">
         <v>76</v>
       </c>
@@ -30803,7 +30803,7 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="24"/>
+      <c r="A212" s="25"/>
       <c r="B212">
         <v>77</v>
       </c>
@@ -30827,7 +30827,7 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="24"/>
+      <c r="A213" s="25"/>
       <c r="B213">
         <v>78</v>
       </c>
@@ -30851,7 +30851,7 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="24"/>
+      <c r="A214" s="25"/>
       <c r="B214">
         <v>79</v>
       </c>
@@ -30875,7 +30875,7 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="24"/>
+      <c r="A215" s="25"/>
       <c r="B215">
         <v>80</v>
       </c>
@@ -30899,7 +30899,7 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="24"/>
+      <c r="A216" s="25"/>
       <c r="B216">
         <v>81</v>
       </c>
@@ -30923,7 +30923,7 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="24"/>
+      <c r="A217" s="25"/>
       <c r="B217">
         <v>82</v>
       </c>
@@ -30947,7 +30947,7 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="24"/>
+      <c r="A218" s="25"/>
       <c r="B218">
         <v>83</v>
       </c>
@@ -30971,7 +30971,7 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="24"/>
+      <c r="A219" s="25"/>
       <c r="B219">
         <v>84</v>
       </c>
@@ -30995,7 +30995,7 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220" s="24"/>
+      <c r="A220" s="25"/>
       <c r="B220">
         <v>87</v>
       </c>
@@ -31019,7 +31019,7 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A221" s="24"/>
+      <c r="A221" s="25"/>
       <c r="B221">
         <v>88</v>
       </c>
@@ -31043,7 +31043,7 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" s="24"/>
+      <c r="A222" s="25"/>
       <c r="B222">
         <v>89</v>
       </c>
@@ -31067,7 +31067,7 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A223" s="24"/>
+      <c r="A223" s="25"/>
       <c r="B223">
         <v>90</v>
       </c>
@@ -31091,7 +31091,7 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="24"/>
+      <c r="A224" s="25"/>
       <c r="B224">
         <v>91</v>
       </c>
@@ -31115,7 +31115,7 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A225" s="24"/>
+      <c r="A225" s="25"/>
       <c r="B225">
         <v>93</v>
       </c>
@@ -31139,7 +31139,7 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A226" s="24"/>
+      <c r="A226" s="25"/>
       <c r="B226">
         <v>96</v>
       </c>
@@ -31163,7 +31163,7 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A227" s="24"/>
+      <c r="A227" s="25"/>
       <c r="B227">
         <v>97</v>
       </c>
@@ -31187,7 +31187,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" s="24"/>
+      <c r="A228" s="25"/>
       <c r="B228">
         <v>98</v>
       </c>
@@ -31211,7 +31211,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="24"/>
+      <c r="A229" s="25"/>
       <c r="B229">
         <v>99</v>
       </c>
@@ -31235,7 +31235,7 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A230" s="24"/>
+      <c r="A230" s="25"/>
       <c r="B230">
         <v>100</v>
       </c>
@@ -31259,7 +31259,7 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A231" s="24"/>
+      <c r="A231" s="25"/>
       <c r="B231">
         <v>102</v>
       </c>
@@ -31283,7 +31283,7 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" s="24"/>
+      <c r="A232" s="25"/>
       <c r="B232">
         <v>104</v>
       </c>
@@ -31307,7 +31307,7 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" s="24"/>
+      <c r="A233" s="25"/>
       <c r="B233">
         <v>105</v>
       </c>
@@ -31331,7 +31331,7 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A234" s="24"/>
+      <c r="A234" s="25"/>
       <c r="B234">
         <v>106</v>
       </c>
@@ -31355,38 +31355,38 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A235" s="24"/>
+      <c r="A235" s="25"/>
       <c r="B235" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C235" s="28">
+        <v>8</v>
+      </c>
+      <c r="C235" s="23">
         <f>AVERAGE(C172:C234)</f>
         <v>1.6974728922092033</v>
       </c>
-      <c r="D235" s="28">
+      <c r="D235" s="23">
         <f t="shared" ref="D235:H235" si="3">AVERAGE(D172:D234)</f>
         <v>1.6974728922092033</v>
       </c>
-      <c r="E235" s="28">
+      <c r="E235" s="23">
         <f t="shared" si="3"/>
         <v>2.2853708195622869E-2</v>
       </c>
-      <c r="F235" s="28">
+      <c r="F235" s="23">
         <f t="shared" si="3"/>
         <v>2.6414843680922111</v>
       </c>
-      <c r="G235" s="28">
+      <c r="G235" s="23">
         <f t="shared" si="3"/>
         <v>4.2892935821166392E-2</v>
       </c>
-      <c r="H235" s="28">
+      <c r="H235" s="23">
         <f t="shared" si="3"/>
         <v>3.4856215987024798E-2</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A236" s="24" t="s">
-        <v>27</v>
+      <c r="A236" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -31411,7 +31411,7 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A237" s="24"/>
+      <c r="A237" s="25"/>
       <c r="B237">
         <v>3</v>
       </c>
@@ -31435,7 +31435,7 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A238" s="24"/>
+      <c r="A238" s="25"/>
       <c r="B238">
         <v>4</v>
       </c>
@@ -31459,7 +31459,7 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A239" s="24"/>
+      <c r="A239" s="25"/>
       <c r="B239">
         <v>5</v>
       </c>
@@ -31483,7 +31483,7 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A240" s="24"/>
+      <c r="A240" s="25"/>
       <c r="B240">
         <v>6</v>
       </c>
@@ -31507,7 +31507,7 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="24"/>
+      <c r="A241" s="25"/>
       <c r="B241">
         <v>7</v>
       </c>
@@ -31531,7 +31531,7 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="24"/>
+      <c r="A242" s="25"/>
       <c r="B242">
         <v>9</v>
       </c>
@@ -31555,7 +31555,7 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="24"/>
+      <c r="A243" s="25"/>
       <c r="B243">
         <v>10</v>
       </c>
@@ -31579,7 +31579,7 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A244" s="24"/>
+      <c r="A244" s="25"/>
       <c r="B244">
         <v>11</v>
       </c>
@@ -31603,7 +31603,7 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A245" s="24"/>
+      <c r="A245" s="25"/>
       <c r="B245">
         <v>19</v>
       </c>
@@ -31627,7 +31627,7 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" s="24"/>
+      <c r="A246" s="25"/>
       <c r="B246">
         <v>20</v>
       </c>
@@ -31651,7 +31651,7 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="24"/>
+      <c r="A247" s="25"/>
       <c r="B247">
         <v>21</v>
       </c>
@@ -31675,7 +31675,7 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="24"/>
+      <c r="A248" s="25"/>
       <c r="B248">
         <v>22</v>
       </c>
@@ -31699,7 +31699,7 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="24"/>
+      <c r="A249" s="25"/>
       <c r="B249">
         <v>23</v>
       </c>
@@ -31723,7 +31723,7 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A250" s="24"/>
+      <c r="A250" s="25"/>
       <c r="B250">
         <v>24</v>
       </c>
@@ -31747,7 +31747,7 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" s="24"/>
+      <c r="A251" s="25"/>
       <c r="B251">
         <v>25</v>
       </c>
@@ -31771,7 +31771,7 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A252" s="24"/>
+      <c r="A252" s="25"/>
       <c r="B252">
         <v>27</v>
       </c>
@@ -31795,7 +31795,7 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A253" s="24"/>
+      <c r="A253" s="25"/>
       <c r="B253">
         <v>30</v>
       </c>
@@ -31819,7 +31819,7 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" s="24"/>
+      <c r="A254" s="25"/>
       <c r="B254">
         <v>31</v>
       </c>
@@ -31843,7 +31843,7 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="24"/>
+      <c r="A255" s="25"/>
       <c r="B255">
         <v>32</v>
       </c>
@@ -31867,7 +31867,7 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="24"/>
+      <c r="A256" s="25"/>
       <c r="B256">
         <v>33</v>
       </c>
@@ -31891,7 +31891,7 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" s="24"/>
+      <c r="A257" s="25"/>
       <c r="B257">
         <v>34</v>
       </c>
@@ -31915,7 +31915,7 @@
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A258" s="24"/>
+      <c r="A258" s="25"/>
       <c r="B258">
         <v>35</v>
       </c>
@@ -31939,7 +31939,7 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A259" s="24"/>
+      <c r="A259" s="25"/>
       <c r="B259">
         <v>36</v>
       </c>
@@ -31963,7 +31963,7 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A260" s="24"/>
+      <c r="A260" s="25"/>
       <c r="B260">
         <v>37</v>
       </c>
@@ -31987,7 +31987,7 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="24"/>
+      <c r="A261" s="25"/>
       <c r="B261">
         <v>38</v>
       </c>
@@ -32011,38 +32011,38 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="24"/>
+      <c r="A262" s="25"/>
       <c r="B262" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C262" s="28">
+        <v>8</v>
+      </c>
+      <c r="C262" s="23">
         <f>AVERAGE(C236:C261)</f>
         <v>0.39583911500626034</v>
       </c>
-      <c r="D262" s="28">
+      <c r="D262" s="23">
         <f t="shared" ref="D262:H262" si="4">AVERAGE(D236:D261)</f>
         <v>0.39583911500626034</v>
       </c>
-      <c r="E262" s="28">
+      <c r="E262" s="23">
         <f t="shared" si="4"/>
         <v>3.2939893900697265E-2</v>
       </c>
-      <c r="F262" s="28">
+      <c r="F262" s="23">
         <f t="shared" si="4"/>
         <v>0.62893749069531535</v>
       </c>
-      <c r="G262" s="28">
+      <c r="G262" s="23">
         <f t="shared" si="4"/>
         <v>5.7609007840804277E-2</v>
       </c>
-      <c r="H262" s="28">
+      <c r="H262" s="23">
         <f t="shared" si="4"/>
         <v>4.914521834360102E-2</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="24" t="s">
-        <v>28</v>
+      <c r="A263" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -32067,7 +32067,7 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A264" s="24"/>
+      <c r="A264" s="25"/>
       <c r="B264">
         <v>3</v>
       </c>
@@ -32091,7 +32091,7 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" s="24"/>
+      <c r="A265" s="25"/>
       <c r="B265">
         <v>4</v>
       </c>
@@ -32115,7 +32115,7 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A266" s="24"/>
+      <c r="A266" s="25"/>
       <c r="B266">
         <v>5</v>
       </c>
@@ -32139,7 +32139,7 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A267" s="24"/>
+      <c r="A267" s="25"/>
       <c r="B267">
         <v>6</v>
       </c>
@@ -32163,7 +32163,7 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A268" s="24"/>
+      <c r="A268" s="25"/>
       <c r="B268">
         <v>7</v>
       </c>
@@ -32187,7 +32187,7 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="24"/>
+      <c r="A269" s="25"/>
       <c r="B269">
         <v>9</v>
       </c>
@@ -32211,7 +32211,7 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" s="24"/>
+      <c r="A270" s="25"/>
       <c r="B270">
         <v>10</v>
       </c>
@@ -32235,7 +32235,7 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" s="24"/>
+      <c r="A271" s="25"/>
       <c r="B271">
         <v>12</v>
       </c>
@@ -32259,7 +32259,7 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="24"/>
+      <c r="A272" s="25"/>
       <c r="B272">
         <v>13</v>
       </c>
@@ -32283,7 +32283,7 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="24"/>
+      <c r="A273" s="25"/>
       <c r="B273">
         <v>14</v>
       </c>
@@ -32307,7 +32307,7 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" s="24"/>
+      <c r="A274" s="25"/>
       <c r="B274">
         <v>15</v>
       </c>
@@ -32331,7 +32331,7 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A275" s="24"/>
+      <c r="A275" s="25"/>
       <c r="B275">
         <v>16</v>
       </c>
@@ -32355,7 +32355,7 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A276" s="24"/>
+      <c r="A276" s="25"/>
       <c r="B276">
         <v>17</v>
       </c>
@@ -32379,7 +32379,7 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A277" s="24"/>
+      <c r="A277" s="25"/>
       <c r="B277">
         <v>18</v>
       </c>
@@ -32403,7 +32403,7 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" s="24"/>
+      <c r="A278" s="25"/>
       <c r="B278">
         <v>19</v>
       </c>
@@ -32427,7 +32427,7 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" s="24"/>
+      <c r="A279" s="25"/>
       <c r="B279">
         <v>20</v>
       </c>
@@ -32451,7 +32451,7 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="24"/>
+      <c r="A280" s="25"/>
       <c r="B280">
         <v>22</v>
       </c>
@@ -32475,7 +32475,7 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="24"/>
+      <c r="A281" s="25"/>
       <c r="B281">
         <v>23</v>
       </c>
@@ -32499,7 +32499,7 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="24"/>
+      <c r="A282" s="25"/>
       <c r="B282">
         <v>24</v>
       </c>
@@ -32523,7 +32523,7 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" s="24"/>
+      <c r="A283" s="25"/>
       <c r="B283">
         <v>26</v>
       </c>
@@ -32547,7 +32547,7 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A284" s="24"/>
+      <c r="A284" s="25"/>
       <c r="B284">
         <v>27</v>
       </c>
@@ -32571,70 +32571,70 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" s="24"/>
+      <c r="A285" s="25"/>
       <c r="B285" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C285" s="28">
+        <v>8</v>
+      </c>
+      <c r="C285" s="23">
         <f>AVERAGE(C263:C284)</f>
         <v>0.31321609927783417</v>
       </c>
-      <c r="D285" s="28">
+      <c r="D285" s="23">
         <f t="shared" ref="D285:H285" si="5">AVERAGE(D263:D284)</f>
         <v>0.31321609927783417</v>
       </c>
-      <c r="E285" s="28">
+      <c r="E285" s="23">
         <f t="shared" si="5"/>
         <v>7.5022236603173906E-2</v>
       </c>
-      <c r="F285" s="28">
+      <c r="F285" s="23">
         <f t="shared" si="5"/>
         <v>0.46196971617472615</v>
       </c>
-      <c r="G285" s="28">
+      <c r="G285" s="23">
         <f t="shared" si="5"/>
         <v>0.144138186659196</v>
       </c>
-      <c r="H285" s="28">
+      <c r="H285" s="23">
         <f t="shared" si="5"/>
         <v>0.11375553145212365</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A286" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B286" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C286" s="29">
-        <f>AVERAGE(C2:C24,C26:C120,C122:C170,C172:C234,C236:C261,C263:C284)</f>
+      <c r="A286" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B286" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286" s="24">
+        <f t="shared" ref="C286:H286" si="6">AVERAGE(C2:C24,C26:C120,C122:C170,C172:C234,C236:C261,C263:C284)</f>
         <v>24.894899722564283</v>
       </c>
-      <c r="D286" s="29">
-        <f>AVERAGE(D2:D24,D26:D120,D122:D170,D172:D234,D236:D261,D263:D284)</f>
+      <c r="D286" s="24">
+        <f t="shared" si="6"/>
         <v>24.894899722564283</v>
       </c>
-      <c r="E286" s="29">
-        <f>AVERAGE(E2:E24,E26:E120,E122:E170,E172:E234,E236:E261,E263:E284)</f>
+      <c r="E286" s="24">
+        <f t="shared" si="6"/>
         <v>10.993712365448665</v>
       </c>
-      <c r="F286" s="29">
-        <f>AVERAGE(F2:F24,F26:F120,F122:F170,F172:F234,F236:F261,F263:F284)</f>
+      <c r="F286" s="24">
+        <f t="shared" si="6"/>
         <v>39.248535772060698</v>
       </c>
-      <c r="G286" s="29">
-        <f>AVERAGE(G2:G24,G26:G120,G122:G170,G172:G234,G236:G261,G263:G284)</f>
+      <c r="G286" s="24">
+        <f t="shared" si="6"/>
         <v>19.894742188978206</v>
       </c>
-      <c r="H286" s="29">
-        <f>AVERAGE(H2:H24,H26:H120,H122:H170,H172:H234,H236:H261,H263:H284)</f>
+      <c r="H286" s="24">
+        <f t="shared" si="6"/>
         <v>15.701801299756838</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A287" s="24" t="s">
-        <v>30</v>
+      <c r="A287" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -32659,7 +32659,7 @@
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A288" s="24"/>
+      <c r="A288" s="25"/>
       <c r="B288">
         <v>2</v>
       </c>
@@ -32683,7 +32683,7 @@
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A289" s="24"/>
+      <c r="A289" s="25"/>
       <c r="B289">
         <v>3</v>
       </c>
@@ -32707,7 +32707,7 @@
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A290" s="24"/>
+      <c r="A290" s="25"/>
       <c r="B290">
         <v>4</v>
       </c>
@@ -32731,7 +32731,7 @@
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" s="24"/>
+      <c r="A291" s="25"/>
       <c r="B291">
         <v>5</v>
       </c>
@@ -32755,7 +32755,7 @@
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A292" s="24"/>
+      <c r="A292" s="25"/>
       <c r="B292">
         <v>6</v>
       </c>
@@ -32779,7 +32779,7 @@
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A293" s="24"/>
+      <c r="A293" s="25"/>
       <c r="B293">
         <v>7</v>
       </c>
@@ -32803,7 +32803,7 @@
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" s="24"/>
+      <c r="A294" s="25"/>
       <c r="B294">
         <v>8</v>
       </c>
@@ -32827,64 +32827,64 @@
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A295" s="24"/>
+      <c r="A295" s="25"/>
       <c r="B295" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C295" s="19">
-        <f t="shared" ref="C295:H295" si="6">AVERAGE(C287:C294)</f>
+        <f t="shared" ref="C295:H295" si="7">AVERAGE(C287:C294)</f>
         <v>364.90560416666654</v>
       </c>
       <c r="D295" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>364.90560416666654</v>
       </c>
       <c r="E295" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59.148202082916661</v>
       </c>
       <c r="F295" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>398.05573970515383</v>
       </c>
       <c r="G295" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.366157638394895</v>
       </c>
       <c r="H295" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>88.166799734854379</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A296" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B296" s="27" t="s">
-        <v>13</v>
+      <c r="A296" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B296" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="C296" s="11">
-        <f t="shared" ref="C296:H296" si="7">AVERAGE(C295,C286)</f>
+        <f t="shared" ref="C296:H296" si="8">AVERAGE(C295,C286)</f>
         <v>194.90025194461541</v>
       </c>
       <c r="D296" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>194.90025194461541</v>
       </c>
       <c r="E296" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35.070957224182663</v>
       </c>
       <c r="F296" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>218.65213773860725</v>
       </c>
       <c r="G296" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58.630449913686547</v>
       </c>
       <c r="H296" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51.934300517305608</v>
       </c>
     </row>
